--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -80,18 +80,18 @@
     <t>Computational Electromagnetics</t>
   </si>
   <si>
+    <t>CT513</t>
+  </si>
+  <si>
+    <t>Detection and Estimation Theory</t>
+  </si>
+  <si>
     <t>IT543</t>
   </si>
   <si>
     <t>Adv. Logic for Computer Science</t>
   </si>
   <si>
-    <t>CT513</t>
-  </si>
-  <si>
-    <t>Detection and Estimation Theory</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 14:00 - 16:00 </t>
   </si>
   <si>
@@ -155,18 +155,18 @@
     <t>Data Structures</t>
   </si>
   <si>
+    <t>EL312</t>
+  </si>
+  <si>
+    <t>Solid State Devices</t>
+  </si>
+  <si>
     <t>CS304</t>
   </si>
   <si>
     <t>Introduction to Nonlinear Science</t>
   </si>
   <si>
-    <t>EL312</t>
-  </si>
-  <si>
-    <t>Solid State Devices</t>
-  </si>
-  <si>
     <t>IT617</t>
   </si>
   <si>
@@ -191,18 +191,18 @@
     <t>Analog and Digital Communication</t>
   </si>
   <si>
+    <t>SC332</t>
+  </si>
+  <si>
+    <t>Introduction to Quantum Mechanics</t>
+  </si>
+  <si>
     <t>CT314</t>
   </si>
   <si>
     <t>Statistical Communication Theory (GE)</t>
   </si>
   <si>
-    <t>SC332</t>
-  </si>
-  <si>
-    <t>Introduction to Quantum Mechanics</t>
-  </si>
-  <si>
     <t>IT616</t>
   </si>
   <si>
@@ -221,6 +221,12 @@
     <t>Information Theory and Coding</t>
   </si>
   <si>
+    <t>CS302</t>
+  </si>
+  <si>
+    <t>Modeling and Simulation</t>
+  </si>
+  <si>
     <t>SC431</t>
   </si>
   <si>
@@ -233,48 +239,42 @@
     <t>Software Testing and Quality Analysis</t>
   </si>
   <si>
-    <t>CS302</t>
-  </si>
-  <si>
-    <t>Modeling and Simulation</t>
-  </si>
-  <si>
     <t>IT694</t>
   </si>
   <si>
     <t>Computer Networks</t>
   </si>
   <si>
+    <t>SC522</t>
+  </si>
+  <si>
+    <t>Graph Theory and Algorithms</t>
+  </si>
+  <si>
     <t>EL520</t>
   </si>
   <si>
     <t>Digital System Design using Verilog</t>
   </si>
   <si>
-    <t>SC522</t>
-  </si>
-  <si>
-    <t>Graph Theory and Algorithms</t>
-  </si>
-  <si>
     <t>CS201</t>
   </si>
   <si>
     <t>Introductory Computational Physics (CS only)</t>
   </si>
   <si>
+    <t>IT422</t>
+  </si>
+  <si>
+    <t>Models of Computation</t>
+  </si>
+  <si>
     <t>IT325</t>
   </si>
   <si>
     <t>Introduction to Cryptology</t>
   </si>
   <si>
-    <t>IT422</t>
-  </si>
-  <si>
-    <t>Models of Computation</t>
-  </si>
-  <si>
     <t>IT468</t>
   </si>
   <si>
@@ -287,16 +287,16 @@
     <t>Systems Approach to Sustainable Development</t>
   </si>
   <si>
+    <t>CT516</t>
+  </si>
+  <si>
+    <t>Advanced Digital Communications</t>
+  </si>
+  <si>
     <t>EL516</t>
   </si>
   <si>
     <t>Analog CMOS IC Design</t>
-  </si>
-  <si>
-    <t>CT516</t>
-  </si>
-  <si>
-    <t>Advanced Digital Communications</t>
   </si>
   <si>
     <t>IT308</t>
@@ -325,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,12 +374,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <bgColor indexed="53"/>
+        <bgColor rgb="00FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGrid">
-        <bgColor indexed="53"/>
+        <bgColor rgb="00FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -434,12 +434,19 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <bgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGrid">
-        <bgColor indexed="17"/>
+        <fgColor rgb="800080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="800080"/>
+        <bgColor indexed="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="800080"/>
+        <bgColor indexed="8"/>
       </patternFill>
     </fill>
     <fill>
@@ -477,47 +484,21 @@
     <fill>
       <patternFill patternType="darkGrid">
         <fgColor indexed="64"/>
-        <bgColor indexed="31"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGrid">
-        <fgColor indexed="64"/>
-        <bgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGrid">
-        <fgColor indexed="64"/>
-        <bgColor indexed="12"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGrid">
-        <fgColor indexed="64"/>
-        <bgColor indexed="53"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGrid">
-        <fgColor indexed="64"/>
-        <bgColor indexed="45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGrid">
-        <fgColor indexed="64"/>
-        <bgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGrid">
-        <fgColor indexed="64"/>
-        <bgColor indexed="13"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -624,185 +605,6 @@
       </bottom>
     </border>
     <border>
-      <left style="medium"/>
-      <top style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium"/>
-    </border>
-    <border>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium"/>
-    </border>
-    <border>
-      <right style="medium"/>
-      <top style="medium"/>
-    </border>
-    <border>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
       <bottom style="medium"/>
     </border>
     <border>
@@ -855,172 +657,11 @@
         <color indexed="8"/>
       </bottom>
     </border>
-    <border>
-      <right style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <right style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -1032,40 +673,20 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="justify" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="justify" vertical="center" indent="0" textRotation="90" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="22" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1073,98 +694,11 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="19" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="32" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="39" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="47" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="56" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="47" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="justify" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="39" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="47" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="19" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1174,76 +708,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="justify" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="justify" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B11:AM51"/>
+  <dimension ref="B10:AN52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="13" max="13" width="6.625" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
+    <row r="10">
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="0"/>
+      <c r="AC10" s="0"/>
+      <c r="AE10" s="0"/>
+      <c r="AF10" s="0"/>
+      <c r="AG10" s="0"/>
+      <c r="AH10" s="0"/>
+      <c r="AI10" s="0"/>
+      <c r="AJ10" s="0"/>
+      <c r="AK10" s="0"/>
+      <c r="AL10" s="0"/>
+    </row>
     <row r="11">
       <c r="B11" t="s" s="14">
         <v>16</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" t="s" s="17">
+      <c r="D11" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" t="s" s="18">
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="28"/>
-      <c r="M11" t="s" s="17">
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" t="s" s="18">
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="28"/>
-      <c r="V11" t="s" s="17">
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="V11" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" t="s" s="18">
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="28"/>
-      <c r="AE11" t="s" s="17">
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="0"/>
+      <c r="AE11" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" t="s" s="18">
+      <c r="AF11" s="0"/>
+      <c r="AG11" s="0"/>
+      <c r="AH11" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="28"/>
+      <c r="AI11" s="0"/>
+      <c r="AJ11" s="0"/>
+      <c r="AK11" s="0"/>
+      <c r="AL11" s="0"/>
+      <c r="AM11" s="0"/>
     </row>
     <row r="12">
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="19"/>
+      <c r="D12" s="0"/>
       <c r="G12" t="n">
         <v>110.0</v>
       </c>
@@ -1256,10 +835,11 @@
       <c r="J12" t="n">
         <v>103.0</v>
       </c>
-      <c r="K12" t="n" s="30">
+      <c r="K12" t="n" s="0">
         <v>104.0</v>
       </c>
-      <c r="M12" s="19"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
       <c r="P12" t="n">
         <v>110.0</v>
       </c>
@@ -1272,10 +852,11 @@
       <c r="S12" t="n">
         <v>103.0</v>
       </c>
-      <c r="T12" t="n" s="30">
+      <c r="T12" t="n" s="0">
         <v>104.0</v>
       </c>
-      <c r="V12" s="19"/>
+      <c r="U12" s="0"/>
+      <c r="V12" s="0"/>
       <c r="Y12" t="n">
         <v>110.0</v>
       </c>
@@ -1288,10 +869,11 @@
       <c r="AB12" t="n">
         <v>103.0</v>
       </c>
-      <c r="AC12" t="n" s="30">
+      <c r="AC12" t="n" s="0">
         <v>104.0</v>
       </c>
-      <c r="AE12" s="19"/>
+      <c r="AD12" s="0"/>
+      <c r="AE12" s="0"/>
       <c r="AH12" t="n">
         <v>110.0</v>
       </c>
@@ -1304,16 +886,17 @@
       <c r="AK12" t="n">
         <v>103.0</v>
       </c>
-      <c r="AL12" t="n" s="30">
+      <c r="AL12" t="n" s="0">
         <v>104.0</v>
       </c>
+      <c r="AM12" s="0"/>
     </row>
     <row r="13">
       <c r="B13" s="16"/>
-      <c r="C13" t="s" s="20">
+      <c r="C13" t="s" s="17">
         <v>2</v>
       </c>
-      <c r="D13" t="s" s="21">
+      <c r="D13" t="s" s="1">
         <v>3</v>
       </c>
       <c r="E13" t="s" s="1">
@@ -1331,24 +914,29 @@
       <c r="J13" t="n" s="1">
         <v>60.0</v>
       </c>
-      <c r="K13" t="n" s="33">
+      <c r="K13" t="n" s="1">
         <v>28.0</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="T13" s="30"/>
-      <c r="V13" s="19"/>
-      <c r="AC13" s="30"/>
-      <c r="AE13" s="19"/>
-      <c r="AL13" s="30"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="0"/>
+      <c r="V13" s="0"/>
+      <c r="AC13" s="0"/>
+      <c r="AD13" s="0"/>
+      <c r="AE13" s="0"/>
+      <c r="AL13" s="0"/>
+      <c r="AM13" s="0"/>
     </row>
     <row r="14">
       <c r="B14" s="16"/>
-      <c r="C14" t="s" s="22">
+      <c r="C14" t="s" s="17">
         <v>5</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="K14" s="30"/>
-      <c r="M14" t="s" s="36">
+      <c r="D14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" t="s" s="2">
         <v>18</v>
       </c>
       <c r="N14" t="s" s="2">
@@ -1366,10 +954,11 @@
       <c r="S14" t="n" s="2">
         <v>60.0</v>
       </c>
-      <c r="T14" t="n" s="38">
+      <c r="T14" t="n" s="2">
         <v>19.0</v>
       </c>
-      <c r="V14" t="s" s="36">
+      <c r="U14" s="0"/>
+      <c r="V14" t="s" s="2">
         <v>27</v>
       </c>
       <c r="W14" t="s" s="2">
@@ -1387,18 +976,20 @@
       <c r="AB14" t="n" s="2">
         <v>60.0</v>
       </c>
-      <c r="AC14" t="n" s="38">
+      <c r="AC14" t="n" s="2">
         <v>14.0</v>
       </c>
-      <c r="AE14" s="19"/>
-      <c r="AL14" s="30"/>
+      <c r="AD14" s="0"/>
+      <c r="AE14" s="0"/>
+      <c r="AL14" s="0"/>
+      <c r="AM14" s="0"/>
     </row>
     <row r="15">
       <c r="B15" s="16"/>
-      <c r="C15" t="s" s="23">
+      <c r="C15" t="s" s="17">
         <v>6</v>
       </c>
-      <c r="D15" t="s" s="24">
+      <c r="D15" t="s" s="3">
         <v>7</v>
       </c>
       <c r="E15" t="s" s="3">
@@ -1407,8 +998,9 @@
       <c r="J15" t="n" s="3">
         <v>42.0</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="M15" t="s" s="24">
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" t="s" s="3">
         <v>20</v>
       </c>
       <c r="N15" t="s" s="3">
@@ -1417,8 +1009,9 @@
       <c r="R15" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="V15" t="s" s="24">
+      <c r="T15" s="0"/>
+      <c r="U15" s="0"/>
+      <c r="V15" t="s" s="3">
         <v>29</v>
       </c>
       <c r="W15" t="s" s="3">
@@ -1427,14 +1020,16 @@
       <c r="Y15" t="n" s="3">
         <v>14.0</v>
       </c>
-      <c r="AC15" s="30"/>
-      <c r="AE15" s="19"/>
-      <c r="AL15" s="30"/>
+      <c r="AC15" s="0"/>
+      <c r="AD15" s="0"/>
+      <c r="AE15" s="0"/>
+      <c r="AL15" s="0"/>
+      <c r="AM15" s="0"/>
     </row>
     <row r="16">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
-      <c r="D16" t="s" s="24">
+      <c r="D16" t="s" s="3">
         <v>9</v>
       </c>
       <c r="E16" t="s" s="3">
@@ -1443,20 +1038,24 @@
       <c r="I16" t="n" s="3">
         <v>60.0</v>
       </c>
-      <c r="K16" s="30"/>
-      <c r="M16" s="19"/>
-      <c r="T16" s="30"/>
-      <c r="V16" s="19"/>
-      <c r="AC16" s="30"/>
-      <c r="AE16" s="19"/>
-      <c r="AL16" s="30"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
+      <c r="V16" s="0"/>
+      <c r="AC16" s="0"/>
+      <c r="AD16" s="0"/>
+      <c r="AE16" s="0"/>
+      <c r="AL16" s="0"/>
+      <c r="AM16" s="0"/>
     </row>
     <row r="17">
       <c r="B17" s="16"/>
-      <c r="C17" t="s" s="25">
+      <c r="C17" t="s" s="17">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="26">
+      <c r="D17" t="s" s="5">
         <v>12</v>
       </c>
       <c r="E17" t="s" s="5">
@@ -1468,32 +1067,38 @@
       <c r="H17" t="n" s="5">
         <v>14.0</v>
       </c>
-      <c r="K17" s="30"/>
-      <c r="M17" s="19"/>
-      <c r="T17" s="30"/>
-      <c r="V17" s="19"/>
-      <c r="AC17" s="30"/>
-      <c r="AE17" s="19"/>
-      <c r="AL17" s="30"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
+      <c r="V17" s="0"/>
+      <c r="AC17" s="0"/>
+      <c r="AD17" s="0"/>
+      <c r="AE17" s="0"/>
+      <c r="AL17" s="0"/>
+      <c r="AM17" s="0"/>
     </row>
     <row r="18">
       <c r="B18" s="16"/>
-      <c r="C18" t="s" s="27">
+      <c r="C18" t="s" s="17">
         <v>14</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="K18" s="30"/>
-      <c r="M18" t="s" s="37">
+      <c r="D18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" t="s" s="9">
         <v>22</v>
       </c>
       <c r="N18" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="P18" t="n" s="9">
-        <v>15.0</v>
-      </c>
-      <c r="T18" s="30"/>
-      <c r="V18" t="s" s="37">
+      <c r="Q18" t="n" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="T18" s="0"/>
+      <c r="U18" s="0"/>
+      <c r="V18" t="s" s="9">
         <v>31</v>
       </c>
       <c r="W18" t="s" s="9">
@@ -1502,132 +1107,180 @@
       <c r="Z18" t="n" s="9">
         <v>14.0</v>
       </c>
-      <c r="AC18" s="30"/>
-      <c r="AE18" s="19"/>
-      <c r="AL18" s="30"/>
+      <c r="AC18" s="0"/>
+      <c r="AD18" s="0"/>
+      <c r="AE18" s="0"/>
+      <c r="AL18" s="0"/>
+      <c r="AM18" s="0"/>
     </row>
     <row r="19">
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="19"/>
-      <c r="K19" s="30"/>
-      <c r="M19" t="s" s="37">
+      <c r="D19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" t="s" s="9">
         <v>24</v>
       </c>
       <c r="N19" t="s" s="9">
         <v>25</v>
       </c>
-      <c r="Q19" t="n" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="T19" s="30"/>
-      <c r="V19" s="19"/>
-      <c r="AC19" s="30"/>
-      <c r="AE19" s="19"/>
-      <c r="AL19" s="30"/>
+      <c r="P19" t="n" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="T19" s="0"/>
+      <c r="U19" s="0"/>
+      <c r="V19" s="0"/>
+      <c r="AC19" s="0"/>
+      <c r="AD19" s="0"/>
+      <c r="AE19" s="0"/>
+      <c r="AL19" s="0"/>
+      <c r="AM19" s="0"/>
     </row>
     <row r="20">
-      <c r="B20" s="29"/>
-      <c r="C20" t="s" s="31">
+      <c r="B20" s="18"/>
+      <c r="C20" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="35"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="35"/>
-      <c r="V20" t="s" s="39">
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="U20" s="0"/>
+      <c r="V20" t="s" s="11">
         <v>33</v>
       </c>
-      <c r="W20" t="s" s="40">
+      <c r="W20" t="s" s="11">
         <v>34</v>
       </c>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" t="n" s="40">
+      <c r="X20" s="0"/>
+      <c r="Y20" s="0"/>
+      <c r="Z20" s="0"/>
+      <c r="AA20" t="n" s="11">
         <v>12.0</v>
       </c>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="35"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="35"/>
+      <c r="AB20" s="0"/>
+      <c r="AC20" s="0"/>
+      <c r="AD20" s="0"/>
+      <c r="AE20" s="0"/>
+      <c r="AF20" s="0"/>
+      <c r="AG20" s="0"/>
+      <c r="AH20" s="0"/>
+      <c r="AI20" s="0"/>
+      <c r="AJ20" s="0"/>
+      <c r="AK20" s="0"/>
+      <c r="AL20" s="0"/>
+      <c r="AM20" s="0"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
+      <c r="S21" s="0"/>
+      <c r="T21" s="0"/>
+      <c r="V21" s="0"/>
+      <c r="W21" s="0"/>
+      <c r="X21" s="0"/>
+      <c r="Y21" s="0"/>
+      <c r="Z21" s="0"/>
+      <c r="AA21" s="0"/>
+      <c r="AB21" s="0"/>
+      <c r="AC21" s="0"/>
+      <c r="AE21" s="0"/>
+      <c r="AF21" s="0"/>
+      <c r="AG21" s="0"/>
+      <c r="AH21" s="0"/>
+      <c r="AI21" s="0"/>
+      <c r="AJ21" s="0"/>
+      <c r="AK21" s="0"/>
+      <c r="AL21" s="0"/>
     </row>
     <row r="22">
       <c r="B22" t="s" s="14">
         <v>16</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" t="s" s="17">
+      <c r="D22" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" t="s" s="18">
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="28"/>
-      <c r="M22" t="s" s="17">
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" t="s" s="18">
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="28"/>
-      <c r="V22" t="s" s="17">
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="0"/>
+      <c r="V22" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" t="s" s="18">
+      <c r="W22" s="0"/>
+      <c r="X22" s="0"/>
+      <c r="Y22" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="28"/>
-      <c r="AE22" t="s" s="17">
+      <c r="Z22" s="0"/>
+      <c r="AA22" s="0"/>
+      <c r="AB22" s="0"/>
+      <c r="AC22" s="0"/>
+      <c r="AD22" s="0"/>
+      <c r="AE22" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="AF22" s="18"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" t="s" s="18">
+      <c r="AF22" s="0"/>
+      <c r="AG22" s="0"/>
+      <c r="AH22" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="AI22" s="18"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="28"/>
+      <c r="AI22" s="0"/>
+      <c r="AJ22" s="0"/>
+      <c r="AK22" s="0"/>
+      <c r="AL22" s="0"/>
+      <c r="AM22" s="0"/>
     </row>
     <row r="23">
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="19"/>
+      <c r="D23" s="0"/>
       <c r="G23" t="n">
         <v>110.0</v>
       </c>
@@ -1640,10 +1293,11 @@
       <c r="J23" t="n">
         <v>103.0</v>
       </c>
-      <c r="K23" t="n" s="30">
+      <c r="K23" t="n" s="0">
         <v>104.0</v>
       </c>
-      <c r="M23" s="19"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
       <c r="P23" t="n">
         <v>110.0</v>
       </c>
@@ -1656,10 +1310,11 @@
       <c r="S23" t="n">
         <v>103.0</v>
       </c>
-      <c r="T23" t="n" s="30">
+      <c r="T23" t="n" s="0">
         <v>104.0</v>
       </c>
-      <c r="V23" s="19"/>
+      <c r="U23" s="0"/>
+      <c r="V23" s="0"/>
       <c r="Y23" t="n">
         <v>110.0</v>
       </c>
@@ -1672,10 +1327,11 @@
       <c r="AB23" t="n">
         <v>103.0</v>
       </c>
-      <c r="AC23" t="n" s="30">
+      <c r="AC23" t="n" s="0">
         <v>104.0</v>
       </c>
-      <c r="AE23" s="19"/>
+      <c r="AD23" s="0"/>
+      <c r="AE23" s="0"/>
       <c r="AH23" t="n">
         <v>110.0</v>
       </c>
@@ -1688,16 +1344,17 @@
       <c r="AK23" t="n">
         <v>103.0</v>
       </c>
-      <c r="AL23" t="n" s="30">
+      <c r="AL23" t="n" s="0">
         <v>104.0</v>
       </c>
+      <c r="AM23" s="0"/>
     </row>
     <row r="24">
       <c r="B24" s="16"/>
-      <c r="C24" t="s" s="20">
+      <c r="C24" t="s" s="17">
         <v>2</v>
       </c>
-      <c r="D24" t="s" s="21">
+      <c r="D24" t="s" s="1">
         <v>36</v>
       </c>
       <c r="E24" t="s" s="1">
@@ -1715,12 +1372,14 @@
       <c r="J24" t="n" s="1">
         <v>60.0</v>
       </c>
-      <c r="K24" t="n" s="33">
+      <c r="K24" t="n" s="1">
         <v>27.0</v>
       </c>
-      <c r="M24" s="19"/>
-      <c r="T24" s="30"/>
-      <c r="V24" t="s" s="21">
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="0"/>
+      <c r="V24" t="s" s="1">
         <v>45</v>
       </c>
       <c r="W24" t="s" s="1">
@@ -1738,20 +1397,23 @@
       <c r="AB24" t="n" s="1">
         <v>60.0</v>
       </c>
-      <c r="AC24" t="n" s="33">
+      <c r="AC24" t="n" s="1">
         <v>26.0</v>
       </c>
-      <c r="AE24" s="19"/>
-      <c r="AL24" s="30"/>
+      <c r="AD24" s="0"/>
+      <c r="AE24" s="0"/>
+      <c r="AL24" s="0"/>
+      <c r="AM24" s="0"/>
     </row>
     <row r="25">
       <c r="B25" s="16"/>
-      <c r="C25" t="s" s="22">
+      <c r="C25" t="s" s="17">
         <v>5</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="K25" s="30"/>
-      <c r="M25" t="s" s="36">
+      <c r="D25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="N25" t="s" s="2">
@@ -1769,12 +1431,14 @@
       <c r="S25" t="n" s="2">
         <v>60.0</v>
       </c>
-      <c r="T25" t="n" s="38">
+      <c r="T25" t="n" s="2">
         <v>13.0</v>
       </c>
-      <c r="V25" s="19"/>
-      <c r="AC25" s="30"/>
-      <c r="AE25" t="s" s="36">
+      <c r="U25" s="0"/>
+      <c r="V25" s="0"/>
+      <c r="AC25" s="0"/>
+      <c r="AD25" s="0"/>
+      <c r="AE25" t="s" s="2">
         <v>53</v>
       </c>
       <c r="AF25" t="s" s="2">
@@ -1792,16 +1456,17 @@
       <c r="AK25" t="n" s="2">
         <v>60.0</v>
       </c>
-      <c r="AL25" t="n" s="38">
+      <c r="AL25" t="n" s="2">
         <v>15.0</v>
       </c>
+      <c r="AM25" s="0"/>
     </row>
     <row r="26">
       <c r="B26" s="16"/>
-      <c r="C26" t="s" s="23">
+      <c r="C26" t="s" s="17">
         <v>6</v>
       </c>
-      <c r="D26" t="s" s="24">
+      <c r="D26" t="s" s="3">
         <v>38</v>
       </c>
       <c r="E26" t="s" s="3">
@@ -1816,52 +1481,62 @@
       <c r="I26" t="n" s="3">
         <v>30.0</v>
       </c>
-      <c r="K26" s="30"/>
-      <c r="M26" s="19"/>
-      <c r="T26" s="30"/>
-      <c r="V26" t="s" s="24">
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
+      <c r="T26" s="0"/>
+      <c r="U26" s="0"/>
+      <c r="V26" t="s" s="3">
         <v>47</v>
       </c>
       <c r="W26" t="s" s="3">
         <v>48</v>
       </c>
-      <c r="AA26" t="n" s="3">
-        <v>48.0</v>
-      </c>
-      <c r="AC26" s="30"/>
-      <c r="AE26" s="19"/>
-      <c r="AL26" s="30"/>
+      <c r="AB26" t="n" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="AC26" s="0"/>
+      <c r="AD26" s="0"/>
+      <c r="AE26" s="0"/>
+      <c r="AL26" s="0"/>
+      <c r="AM26" s="0"/>
     </row>
     <row r="27">
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="19"/>
-      <c r="K27" s="30"/>
-      <c r="M27" s="19"/>
-      <c r="T27" s="30"/>
-      <c r="V27" t="s" s="24">
+      <c r="D27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="0"/>
+      <c r="V27" t="s" s="3">
         <v>49</v>
       </c>
       <c r="W27" t="s" s="3">
         <v>50</v>
       </c>
-      <c r="AB27" t="n" s="3">
-        <v>40.0</v>
-      </c>
-      <c r="AC27" s="30"/>
-      <c r="AE27" s="19"/>
-      <c r="AL27" s="30"/>
+      <c r="AA27" t="n" s="3">
+        <v>48.0</v>
+      </c>
+      <c r="AC27" s="0"/>
+      <c r="AD27" s="0"/>
+      <c r="AE27" s="0"/>
+      <c r="AL27" s="0"/>
+      <c r="AM27" s="0"/>
     </row>
     <row r="28">
       <c r="B28" s="16"/>
-      <c r="C28" t="s" s="25">
+      <c r="C28" t="s" s="17">
         <v>11</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="K28" s="30"/>
-      <c r="M28" s="19"/>
-      <c r="T28" s="30"/>
-      <c r="V28" t="s" s="26">
+      <c r="D28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
+      <c r="T28" s="0"/>
+      <c r="U28" s="0"/>
+      <c r="V28" t="s" s="5">
         <v>51</v>
       </c>
       <c r="W28" t="s" s="5">
@@ -1873,16 +1548,18 @@
       <c r="Z28" t="n" s="5">
         <v>15.0</v>
       </c>
-      <c r="AC28" s="30"/>
-      <c r="AE28" s="19"/>
-      <c r="AL28" s="30"/>
+      <c r="AC28" s="0"/>
+      <c r="AD28" s="0"/>
+      <c r="AE28" s="0"/>
+      <c r="AL28" s="0"/>
+      <c r="AM28" s="0"/>
     </row>
     <row r="29">
       <c r="B29" s="16"/>
-      <c r="C29" t="s" s="42">
+      <c r="C29" t="s" s="17">
         <v>40</v>
       </c>
-      <c r="D29" t="s" s="43">
+      <c r="D29" t="s" s="7">
         <v>41</v>
       </c>
       <c r="E29" t="s" s="7">
@@ -1891,116 +1568,162 @@
       <c r="J29" t="n" s="7">
         <v>4.0</v>
       </c>
-      <c r="K29" s="30"/>
-      <c r="M29" s="19"/>
-      <c r="T29" s="30"/>
-      <c r="V29" s="19"/>
-      <c r="AC29" s="30"/>
-      <c r="AE29" s="19"/>
-      <c r="AL29" s="30"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="U29" s="0"/>
+      <c r="V29" s="0"/>
+      <c r="AC29" s="0"/>
+      <c r="AD29" s="0"/>
+      <c r="AE29" s="0"/>
+      <c r="AL29" s="0"/>
+      <c r="AM29" s="0"/>
     </row>
     <row r="30">
-      <c r="B30" s="29"/>
-      <c r="C30" t="s" s="44">
+      <c r="B30" s="18"/>
+      <c r="C30" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="35"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="35"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="35"/>
-      <c r="AE30" t="s" s="45">
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="0"/>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0"/>
+      <c r="X30" s="0"/>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0"/>
+      <c r="AB30" s="0"/>
+      <c r="AC30" s="0"/>
+      <c r="AD30" s="0"/>
+      <c r="AE30" t="s" s="9">
         <v>55</v>
       </c>
-      <c r="AF30" t="s" s="46">
+      <c r="AF30" t="s" s="9">
         <v>56</v>
       </c>
-      <c r="AG30" s="34"/>
-      <c r="AH30" t="n" s="46">
+      <c r="AG30" s="0"/>
+      <c r="AH30" t="n" s="9">
         <v>70.0</v>
       </c>
-      <c r="AI30" s="34"/>
-      <c r="AJ30" s="34"/>
-      <c r="AK30" s="34"/>
-      <c r="AL30" s="35"/>
+      <c r="AI30" s="0"/>
+      <c r="AJ30" s="0"/>
+      <c r="AK30" s="0"/>
+      <c r="AL30" s="0"/>
+      <c r="AM30" s="0"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="T31" s="0"/>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0"/>
+      <c r="X31" s="0"/>
+      <c r="Y31" s="0"/>
+      <c r="Z31" s="0"/>
+      <c r="AA31" s="0"/>
+      <c r="AB31" s="0"/>
+      <c r="AC31" s="0"/>
+      <c r="AE31" s="0"/>
+      <c r="AF31" s="0"/>
+      <c r="AG31" s="0"/>
+      <c r="AH31" s="0"/>
+      <c r="AI31" s="0"/>
+      <c r="AJ31" s="0"/>
+      <c r="AK31" s="0"/>
+      <c r="AL31" s="0"/>
     </row>
     <row r="32">
       <c r="B32" t="s" s="14">
         <v>16</v>
       </c>
       <c r="C32" s="15"/>
-      <c r="D32" t="s" s="17">
+      <c r="D32" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" t="s" s="18">
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="28"/>
-      <c r="M32" t="s" s="17">
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" t="s" s="18">
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="28"/>
-      <c r="V32" t="s" s="17">
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="0"/>
+      <c r="U32" s="0"/>
+      <c r="V32" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" t="s" s="18">
+      <c r="W32" s="0"/>
+      <c r="X32" s="0"/>
+      <c r="Y32" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="28"/>
-      <c r="AE32" t="s" s="17">
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
+      <c r="AB32" s="0"/>
+      <c r="AC32" s="0"/>
+      <c r="AD32" s="0"/>
+      <c r="AE32" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="AF32" s="18"/>
-      <c r="AG32" s="18"/>
-      <c r="AH32" t="s" s="18">
+      <c r="AF32" s="0"/>
+      <c r="AG32" s="0"/>
+      <c r="AH32" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="AI32" s="18"/>
-      <c r="AJ32" s="18"/>
-      <c r="AK32" s="18"/>
-      <c r="AL32" s="28"/>
+      <c r="AI32" s="0"/>
+      <c r="AJ32" s="0"/>
+      <c r="AK32" s="0"/>
+      <c r="AL32" s="0"/>
+      <c r="AM32" s="0"/>
     </row>
     <row r="33">
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="19"/>
+      <c r="D33" s="0"/>
       <c r="G33" t="n">
         <v>110.0</v>
       </c>
@@ -2013,10 +1736,11 @@
       <c r="J33" t="n">
         <v>103.0</v>
       </c>
-      <c r="K33" t="n" s="30">
+      <c r="K33" t="n" s="0">
         <v>104.0</v>
       </c>
-      <c r="M33" s="19"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
       <c r="P33" t="n">
         <v>110.0</v>
       </c>
@@ -2029,10 +1753,11 @@
       <c r="S33" t="n">
         <v>103.0</v>
       </c>
-      <c r="T33" t="n" s="30">
+      <c r="T33" t="n" s="0">
         <v>104.0</v>
       </c>
-      <c r="V33" s="19"/>
+      <c r="U33" s="0"/>
+      <c r="V33" s="0"/>
       <c r="Y33" t="n">
         <v>110.0</v>
       </c>
@@ -2045,10 +1770,11 @@
       <c r="AB33" t="n">
         <v>103.0</v>
       </c>
-      <c r="AC33" t="n" s="30">
+      <c r="AC33" t="n" s="0">
         <v>104.0</v>
       </c>
-      <c r="AE33" s="19"/>
+      <c r="AD33" s="0"/>
+      <c r="AE33" s="0"/>
       <c r="AH33" t="n">
         <v>110.0</v>
       </c>
@@ -2061,16 +1787,17 @@
       <c r="AK33" t="n">
         <v>103.0</v>
       </c>
-      <c r="AL33" t="n" s="30">
+      <c r="AL33" t="n" s="0">
         <v>104.0</v>
       </c>
+      <c r="AM33" s="0"/>
     </row>
     <row r="34">
       <c r="B34" s="16"/>
-      <c r="C34" t="s" s="22">
+      <c r="C34" t="s" s="17">
         <v>5</v>
       </c>
-      <c r="D34" t="s" s="36">
+      <c r="D34" t="s" s="2">
         <v>57</v>
       </c>
       <c r="E34" t="s" s="2">
@@ -2088,106 +1815,122 @@
       <c r="J34" t="n" s="2">
         <v>60.0</v>
       </c>
-      <c r="K34" t="n" s="38">
+      <c r="K34" t="n" s="2">
         <v>14.0</v>
       </c>
-      <c r="M34" s="19"/>
-      <c r="T34" s="30"/>
-      <c r="V34" s="19"/>
-      <c r="AC34" s="30"/>
-      <c r="AE34" s="19"/>
-      <c r="AL34" s="30"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="0"/>
+      <c r="T34" s="0"/>
+      <c r="U34" s="0"/>
+      <c r="V34" s="0"/>
+      <c r="AC34" s="0"/>
+      <c r="AD34" s="0"/>
+      <c r="AE34" s="0"/>
+      <c r="AL34" s="0"/>
+      <c r="AM34" s="0"/>
     </row>
     <row r="35">
       <c r="B35" s="16"/>
-      <c r="C35" t="s" s="23">
+      <c r="C35" t="s" s="17">
         <v>6</v>
       </c>
-      <c r="D35" t="s" s="24">
+      <c r="D35" t="s" s="3">
         <v>59</v>
       </c>
       <c r="E35" t="s" s="3">
         <v>60</v>
       </c>
-      <c r="J35" t="n" s="3">
-        <v>33.0</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="M35" s="19"/>
-      <c r="T35" s="30"/>
-      <c r="V35" t="s" s="24">
+      <c r="I35" t="n" s="3">
+        <v>61.0</v>
+      </c>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="0"/>
+      <c r="T35" s="0"/>
+      <c r="U35" s="0"/>
+      <c r="V35" t="s" s="3">
         <v>69</v>
       </c>
       <c r="W35" t="s" s="3">
         <v>70</v>
       </c>
       <c r="AA35" t="n" s="3">
-        <v>64.0</v>
-      </c>
-      <c r="AC35" s="30"/>
-      <c r="AE35" s="19"/>
-      <c r="AL35" s="30"/>
+        <v>55.0</v>
+      </c>
+      <c r="AC35" s="0"/>
+      <c r="AD35" s="0"/>
+      <c r="AE35" s="0"/>
+      <c r="AL35" s="0"/>
+      <c r="AM35" s="0"/>
     </row>
     <row r="36">
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
-      <c r="D36" t="s" s="24">
+      <c r="D36" t="s" s="3">
         <v>61</v>
       </c>
       <c r="E36" t="s" s="3">
         <v>62</v>
       </c>
-      <c r="I36" t="n" s="3">
-        <v>61.0</v>
-      </c>
-      <c r="K36" s="30"/>
-      <c r="M36" s="19"/>
-      <c r="T36" s="30"/>
-      <c r="V36" t="s" s="24">
+      <c r="J36" t="n" s="3">
+        <v>33.0</v>
+      </c>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="0"/>
+      <c r="T36" s="0"/>
+      <c r="U36" s="0"/>
+      <c r="V36" t="s" s="3">
         <v>71</v>
       </c>
       <c r="W36" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="Y36" t="n" s="3">
-        <v>98.0</v>
-      </c>
-      <c r="Z36" t="n" s="3">
-        <v>60.0</v>
-      </c>
       <c r="AA36" t="n" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="AC36" s="30"/>
-      <c r="AE36" s="19"/>
-      <c r="AL36" s="30"/>
+        <v>64.0</v>
+      </c>
+      <c r="AC36" s="0"/>
+      <c r="AD36" s="0"/>
+      <c r="AE36" s="0"/>
+      <c r="AL36" s="0"/>
+      <c r="AM36" s="0"/>
     </row>
     <row r="37">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
-      <c r="D37" s="19"/>
-      <c r="K37" s="30"/>
-      <c r="M37" s="19"/>
-      <c r="T37" s="30"/>
-      <c r="V37" t="s" s="24">
+      <c r="D37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="0"/>
+      <c r="T37" s="0"/>
+      <c r="U37" s="0"/>
+      <c r="V37" t="s" s="3">
         <v>73</v>
       </c>
       <c r="W37" t="s" s="3">
         <v>74</v>
       </c>
+      <c r="Y37" t="n" s="3">
+        <v>98.0</v>
+      </c>
+      <c r="Z37" t="n" s="3">
+        <v>60.0</v>
+      </c>
       <c r="AA37" t="n" s="3">
-        <v>55.0</v>
-      </c>
-      <c r="AC37" s="30"/>
-      <c r="AE37" s="19"/>
-      <c r="AL37" s="30"/>
+        <v>5.0</v>
+      </c>
+      <c r="AC37" s="0"/>
+      <c r="AD37" s="0"/>
+      <c r="AE37" s="0"/>
+      <c r="AL37" s="0"/>
+      <c r="AM37" s="0"/>
     </row>
     <row r="38">
       <c r="B38" s="16"/>
-      <c r="C38" t="s" s="25">
+      <c r="C38" t="s" s="17">
         <v>11</v>
       </c>
-      <c r="D38" t="s" s="26">
+      <c r="D38" t="s" s="5">
         <v>63</v>
       </c>
       <c r="E38" t="s" s="5">
@@ -2199,10 +1942,12 @@
       <c r="H38" t="n" s="5">
         <v>11.0</v>
       </c>
-      <c r="K38" s="30"/>
-      <c r="M38" s="19"/>
-      <c r="T38" s="30"/>
-      <c r="V38" t="s" s="26">
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="0"/>
+      <c r="T38" s="0"/>
+      <c r="U38" s="0"/>
+      <c r="V38" t="s" s="5">
         <v>75</v>
       </c>
       <c r="W38" t="s" s="5">
@@ -2214,16 +1959,18 @@
       <c r="Z38" t="n" s="5">
         <v>11.0</v>
       </c>
-      <c r="AC38" s="30"/>
-      <c r="AE38" s="19"/>
-      <c r="AL38" s="30"/>
+      <c r="AC38" s="0"/>
+      <c r="AD38" s="0"/>
+      <c r="AE38" s="0"/>
+      <c r="AL38" s="0"/>
+      <c r="AM38" s="0"/>
     </row>
     <row r="39">
       <c r="B39" s="16"/>
-      <c r="C39" t="s" s="27">
+      <c r="C39" t="s" s="17">
         <v>14</v>
       </c>
-      <c r="D39" t="s" s="37">
+      <c r="D39" t="s" s="9">
         <v>65</v>
       </c>
       <c r="E39" t="s" s="9">
@@ -2232,128 +1979,174 @@
       <c r="H39" t="n" s="9">
         <v>11.0</v>
       </c>
-      <c r="K39" s="30"/>
-      <c r="M39" s="19"/>
-      <c r="T39" s="30"/>
-      <c r="V39" t="s" s="37">
+      <c r="K39" s="0"/>
+      <c r="L39" s="0"/>
+      <c r="M39" s="0"/>
+      <c r="T39" s="0"/>
+      <c r="U39" s="0"/>
+      <c r="V39" t="s" s="9">
         <v>77</v>
       </c>
       <c r="W39" t="s" s="9">
         <v>78</v>
       </c>
       <c r="Z39" t="n" s="9">
+        <v>26.0</v>
+      </c>
+      <c r="AC39" s="0"/>
+      <c r="AD39" s="0"/>
+      <c r="AE39" s="0"/>
+      <c r="AL39" s="0"/>
+      <c r="AM39" s="0"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="E40" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" t="n" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+      <c r="K40" s="0"/>
+      <c r="L40" s="0"/>
+      <c r="M40" s="0"/>
+      <c r="N40" s="0"/>
+      <c r="O40" s="0"/>
+      <c r="P40" s="0"/>
+      <c r="Q40" s="0"/>
+      <c r="R40" s="0"/>
+      <c r="S40" s="0"/>
+      <c r="T40" s="0"/>
+      <c r="U40" s="0"/>
+      <c r="V40" t="s" s="9">
+        <v>79</v>
+      </c>
+      <c r="W40" t="s" s="9">
+        <v>80</v>
+      </c>
+      <c r="X40" s="0"/>
+      <c r="Y40" s="0"/>
+      <c r="Z40" t="n" s="9">
         <v>15.0</v>
       </c>
-      <c r="AC39" s="30"/>
-      <c r="AE39" s="19"/>
-      <c r="AL39" s="30"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" t="s" s="45">
-        <v>67</v>
-      </c>
-      <c r="E40" t="s" s="46">
-        <v>68</v>
-      </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" t="n" s="46">
-        <v>12.0</v>
-      </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="35"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="35"/>
-      <c r="V40" t="s" s="45">
-        <v>79</v>
-      </c>
-      <c r="W40" t="s" s="46">
-        <v>80</v>
-      </c>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" t="n" s="46">
-        <v>26.0</v>
-      </c>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="35"/>
-      <c r="AE40" s="32"/>
-      <c r="AF40" s="34"/>
-      <c r="AG40" s="34"/>
-      <c r="AH40" s="34"/>
-      <c r="AI40" s="34"/>
-      <c r="AJ40" s="34"/>
-      <c r="AK40" s="34"/>
-      <c r="AL40" s="35"/>
+      <c r="AA40" s="0"/>
+      <c r="AB40" s="0"/>
+      <c r="AC40" s="0"/>
+      <c r="AD40" s="0"/>
+      <c r="AE40" s="0"/>
+      <c r="AF40" s="0"/>
+      <c r="AG40" s="0"/>
+      <c r="AH40" s="0"/>
+      <c r="AI40" s="0"/>
+      <c r="AJ40" s="0"/>
+      <c r="AK40" s="0"/>
+      <c r="AL40" s="0"/>
+      <c r="AM40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
+      <c r="M41" s="0"/>
+      <c r="N41" s="0"/>
+      <c r="O41" s="0"/>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
+      <c r="S41" s="0"/>
+      <c r="T41" s="0"/>
+      <c r="V41" s="0"/>
+      <c r="W41" s="0"/>
+      <c r="X41" s="0"/>
+      <c r="Y41" s="0"/>
+      <c r="Z41" s="0"/>
+      <c r="AA41" s="0"/>
+      <c r="AB41" s="0"/>
+      <c r="AC41" s="0"/>
+      <c r="AE41" s="0"/>
+      <c r="AF41" s="0"/>
+      <c r="AG41" s="0"/>
+      <c r="AH41" s="0"/>
+      <c r="AI41" s="0"/>
+      <c r="AJ41" s="0"/>
+      <c r="AK41" s="0"/>
+      <c r="AL41" s="0"/>
     </row>
     <row r="42">
       <c r="B42" t="s" s="14">
         <v>16</v>
       </c>
       <c r="C42" s="15"/>
-      <c r="D42" t="s" s="17">
+      <c r="D42" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" t="s" s="18">
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="28"/>
-      <c r="M42" t="s" s="17">
+      <c r="H42" s="0"/>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+      <c r="K42" s="0"/>
+      <c r="L42" s="0"/>
+      <c r="M42" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" t="s" s="18">
+      <c r="N42" s="0"/>
+      <c r="O42" s="0"/>
+      <c r="P42" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="28"/>
-      <c r="V42" t="s" s="17">
+      <c r="Q42" s="0"/>
+      <c r="R42" s="0"/>
+      <c r="S42" s="0"/>
+      <c r="T42" s="0"/>
+      <c r="U42" s="0"/>
+      <c r="V42" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
-      <c r="Y42" t="s" s="18">
+      <c r="W42" s="0"/>
+      <c r="X42" s="0"/>
+      <c r="Y42" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="Z42" s="18"/>
-      <c r="AA42" s="18"/>
-      <c r="AB42" s="18"/>
-      <c r="AC42" s="28"/>
-      <c r="AE42" t="s" s="17">
+      <c r="Z42" s="0"/>
+      <c r="AA42" s="0"/>
+      <c r="AB42" s="0"/>
+      <c r="AC42" s="0"/>
+      <c r="AD42" s="0"/>
+      <c r="AE42" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="AF42" s="18"/>
-      <c r="AG42" s="18"/>
-      <c r="AH42" t="s" s="18">
+      <c r="AF42" s="0"/>
+      <c r="AG42" s="0"/>
+      <c r="AH42" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="AI42" s="18"/>
-      <c r="AJ42" s="18"/>
-      <c r="AK42" s="18"/>
-      <c r="AL42" s="28"/>
+      <c r="AI42" s="0"/>
+      <c r="AJ42" s="0"/>
+      <c r="AK42" s="0"/>
+      <c r="AL42" s="0"/>
+      <c r="AM42" s="0"/>
     </row>
     <row r="43">
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="19"/>
+      <c r="D43" s="0"/>
       <c r="G43" t="n">
         <v>110.0</v>
       </c>
@@ -2366,10 +2159,11 @@
       <c r="J43" t="n">
         <v>103.0</v>
       </c>
-      <c r="K43" t="n" s="30">
+      <c r="K43" t="n" s="0">
         <v>104.0</v>
       </c>
-      <c r="M43" s="19"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="0"/>
       <c r="P43" t="n">
         <v>110.0</v>
       </c>
@@ -2382,10 +2176,11 @@
       <c r="S43" t="n">
         <v>103.0</v>
       </c>
-      <c r="T43" t="n" s="30">
+      <c r="T43" t="n" s="0">
         <v>104.0</v>
       </c>
-      <c r="V43" s="19"/>
+      <c r="U43" s="0"/>
+      <c r="V43" s="0"/>
       <c r="Y43" t="n">
         <v>110.0</v>
       </c>
@@ -2398,10 +2193,11 @@
       <c r="AB43" t="n">
         <v>103.0</v>
       </c>
-      <c r="AC43" t="n" s="30">
+      <c r="AC43" t="n" s="0">
         <v>104.0</v>
       </c>
-      <c r="AE43" s="19"/>
+      <c r="AD43" s="0"/>
+      <c r="AE43" s="0"/>
       <c r="AH43" t="n">
         <v>110.0</v>
       </c>
@@ -2414,16 +2210,17 @@
       <c r="AK43" t="n">
         <v>103.0</v>
       </c>
-      <c r="AL43" t="n" s="30">
+      <c r="AL43" t="n" s="0">
         <v>104.0</v>
       </c>
+      <c r="AM43" s="0"/>
     </row>
     <row r="44">
       <c r="B44" s="16"/>
-      <c r="C44" t="s" s="22">
+      <c r="C44" t="s" s="17">
         <v>5</v>
       </c>
-      <c r="D44" t="s" s="36">
+      <c r="D44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E44" t="s" s="2">
@@ -2432,20 +2229,24 @@
       <c r="I44" t="n" s="2">
         <v>56.0</v>
       </c>
-      <c r="K44" s="30"/>
-      <c r="M44" s="19"/>
-      <c r="T44" s="30"/>
-      <c r="V44" s="19"/>
-      <c r="AC44" s="30"/>
-      <c r="AE44" s="19"/>
-      <c r="AL44" s="30"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0"/>
+      <c r="M44" s="0"/>
+      <c r="T44" s="0"/>
+      <c r="U44" s="0"/>
+      <c r="V44" s="0"/>
+      <c r="AC44" s="0"/>
+      <c r="AD44" s="0"/>
+      <c r="AE44" s="0"/>
+      <c r="AL44" s="0"/>
+      <c r="AM44" s="0"/>
     </row>
     <row r="45">
       <c r="B45" s="16"/>
-      <c r="C45" t="s" s="23">
+      <c r="C45" t="s" s="17">
         <v>6</v>
       </c>
-      <c r="D45" t="s" s="24">
+      <c r="D45" t="s" s="3">
         <v>83</v>
       </c>
       <c r="E45" t="s" s="3">
@@ -2455,12 +2256,14 @@
         <v>98.0</v>
       </c>
       <c r="H45" t="n" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="K45" s="30"/>
-      <c r="M45" s="19"/>
-      <c r="T45" s="30"/>
-      <c r="V45" t="s" s="24">
+        <v>38.0</v>
+      </c>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="0"/>
+      <c r="T45" s="0"/>
+      <c r="U45" s="0"/>
+      <c r="V45" t="s" s="3">
         <v>95</v>
       </c>
       <c r="W45" t="s" s="3">
@@ -2478,14 +2281,16 @@
       <c r="AB45" t="n" s="3">
         <v>18.0</v>
       </c>
-      <c r="AC45" s="30"/>
-      <c r="AE45" s="19"/>
-      <c r="AL45" s="30"/>
+      <c r="AC45" s="0"/>
+      <c r="AD45" s="0"/>
+      <c r="AE45" s="0"/>
+      <c r="AL45" s="0"/>
+      <c r="AM45" s="0"/>
     </row>
     <row r="46">
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
-      <c r="D46" t="s" s="24">
+      <c r="D46" t="s" s="3">
         <v>85</v>
       </c>
       <c r="E46" t="s" s="3">
@@ -2495,20 +2300,24 @@
         <v>98.0</v>
       </c>
       <c r="H46" t="n" s="3">
-        <v>38.0</v>
-      </c>
-      <c r="K46" s="30"/>
-      <c r="M46" s="19"/>
-      <c r="T46" s="30"/>
-      <c r="V46" s="19"/>
-      <c r="AC46" s="30"/>
-      <c r="AE46" s="19"/>
-      <c r="AL46" s="30"/>
+        <v>14.0</v>
+      </c>
+      <c r="K46" s="0"/>
+      <c r="L46" s="0"/>
+      <c r="M46" s="0"/>
+      <c r="T46" s="0"/>
+      <c r="U46" s="0"/>
+      <c r="V46" s="0"/>
+      <c r="AC46" s="0"/>
+      <c r="AD46" s="0"/>
+      <c r="AE46" s="0"/>
+      <c r="AL46" s="0"/>
+      <c r="AM46" s="0"/>
     </row>
     <row r="47">
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
-      <c r="D47" t="s" s="24">
+      <c r="D47" t="s" s="3">
         <v>87</v>
       </c>
       <c r="E47" t="s" s="3">
@@ -2517,24 +2326,30 @@
       <c r="H47" t="n" s="3">
         <v>38.0</v>
       </c>
-      <c r="K47" s="30"/>
-      <c r="M47" s="19"/>
-      <c r="T47" s="30"/>
-      <c r="V47" s="19"/>
-      <c r="AC47" s="30"/>
-      <c r="AE47" s="19"/>
-      <c r="AL47" s="30"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0"/>
+      <c r="M47" s="0"/>
+      <c r="T47" s="0"/>
+      <c r="U47" s="0"/>
+      <c r="V47" s="0"/>
+      <c r="AC47" s="0"/>
+      <c r="AD47" s="0"/>
+      <c r="AE47" s="0"/>
+      <c r="AL47" s="0"/>
+      <c r="AM47" s="0"/>
     </row>
     <row r="48">
       <c r="B48" s="16"/>
-      <c r="C48" t="s" s="25">
+      <c r="C48" t="s" s="17">
         <v>11</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="K48" s="30"/>
-      <c r="M48" s="19"/>
-      <c r="T48" s="30"/>
-      <c r="V48" t="s" s="26">
+      <c r="D48" s="0"/>
+      <c r="K48" s="0"/>
+      <c r="L48" s="0"/>
+      <c r="M48" s="0"/>
+      <c r="T48" s="0"/>
+      <c r="U48" s="0"/>
+      <c r="V48" t="s" s="5">
         <v>97</v>
       </c>
       <c r="W48" t="s" s="5">
@@ -2546,16 +2361,18 @@
       <c r="Z48" t="n" s="5">
         <v>11.0</v>
       </c>
-      <c r="AC48" s="30"/>
-      <c r="AE48" s="19"/>
-      <c r="AL48" s="30"/>
+      <c r="AC48" s="0"/>
+      <c r="AD48" s="0"/>
+      <c r="AE48" s="0"/>
+      <c r="AL48" s="0"/>
+      <c r="AM48" s="0"/>
     </row>
     <row r="49">
       <c r="B49" s="16"/>
-      <c r="C49" t="s" s="42">
+      <c r="C49" t="s" s="17">
         <v>40</v>
       </c>
-      <c r="D49" t="s" s="43">
+      <c r="D49" t="s" s="7">
         <v>89</v>
       </c>
       <c r="E49" t="s" s="7">
@@ -2564,77 +2381,123 @@
       <c r="H49" t="n" s="7">
         <v>4.0</v>
       </c>
-      <c r="K49" s="30"/>
-      <c r="M49" s="19"/>
-      <c r="T49" s="30"/>
-      <c r="V49" s="19"/>
-      <c r="AC49" s="30"/>
-      <c r="AE49" s="19"/>
-      <c r="AL49" s="30"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="0"/>
+      <c r="T49" s="0"/>
+      <c r="U49" s="0"/>
+      <c r="V49" s="0"/>
+      <c r="AC49" s="0"/>
+      <c r="AD49" s="0"/>
+      <c r="AE49" s="0"/>
+      <c r="AL49" s="0"/>
+      <c r="AM49" s="0"/>
     </row>
     <row r="50">
       <c r="B50" s="16"/>
-      <c r="C50" t="s" s="27">
+      <c r="C50" t="s" s="17">
         <v>14</v>
       </c>
-      <c r="D50" t="s" s="37">
+      <c r="D50" t="s" s="9">
         <v>91</v>
       </c>
       <c r="E50" t="s" s="9">
         <v>92</v>
       </c>
       <c r="H50" t="n" s="9">
+        <v>7.0</v>
+      </c>
+      <c r="K50" s="0"/>
+      <c r="L50" s="0"/>
+      <c r="M50" s="0"/>
+      <c r="T50" s="0"/>
+      <c r="U50" s="0"/>
+      <c r="V50" s="0"/>
+      <c r="AC50" s="0"/>
+      <c r="AD50" s="0"/>
+      <c r="AE50" s="0"/>
+      <c r="AL50" s="0"/>
+      <c r="AM50" s="0"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" t="s" s="9">
+        <v>93</v>
+      </c>
+      <c r="E51" t="s" s="9">
+        <v>94</v>
+      </c>
+      <c r="F51" s="0"/>
+      <c r="G51" s="0"/>
+      <c r="H51" t="n" s="9">
         <v>13.0</v>
       </c>
-      <c r="K50" s="30"/>
-      <c r="M50" s="19"/>
-      <c r="T50" s="30"/>
-      <c r="V50" s="19"/>
-      <c r="AC50" s="30"/>
-      <c r="AE50" s="19"/>
-      <c r="AL50" s="30"/>
-    </row>
-    <row r="51">
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" t="s" s="45">
-        <v>93</v>
-      </c>
-      <c r="E51" t="s" s="46">
-        <v>94</v>
-      </c>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" t="n" s="46">
-        <v>7.0</v>
-      </c>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="35"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="35"/>
-      <c r="V51" s="32"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
-      <c r="AB51" s="34"/>
-      <c r="AC51" s="35"/>
-      <c r="AE51" s="32"/>
-      <c r="AF51" s="34"/>
-      <c r="AG51" s="34"/>
-      <c r="AH51" s="34"/>
-      <c r="AI51" s="34"/>
-      <c r="AJ51" s="34"/>
-      <c r="AK51" s="34"/>
-      <c r="AL51" s="35"/>
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
+      <c r="K51" s="0"/>
+      <c r="L51" s="0"/>
+      <c r="M51" s="0"/>
+      <c r="N51" s="0"/>
+      <c r="O51" s="0"/>
+      <c r="P51" s="0"/>
+      <c r="Q51" s="0"/>
+      <c r="R51" s="0"/>
+      <c r="S51" s="0"/>
+      <c r="T51" s="0"/>
+      <c r="U51" s="0"/>
+      <c r="V51" s="0"/>
+      <c r="W51" s="0"/>
+      <c r="X51" s="0"/>
+      <c r="Y51" s="0"/>
+      <c r="Z51" s="0"/>
+      <c r="AA51" s="0"/>
+      <c r="AB51" s="0"/>
+      <c r="AC51" s="0"/>
+      <c r="AD51" s="0"/>
+      <c r="AE51" s="0"/>
+      <c r="AF51" s="0"/>
+      <c r="AG51" s="0"/>
+      <c r="AH51" s="0"/>
+      <c r="AI51" s="0"/>
+      <c r="AJ51" s="0"/>
+      <c r="AK51" s="0"/>
+      <c r="AL51" s="0"/>
+      <c r="AM51" s="0"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="0"/>
+      <c r="E52" s="0"/>
+      <c r="F52" s="0"/>
+      <c r="G52" s="0"/>
+      <c r="H52" s="0"/>
+      <c r="I52" s="0"/>
+      <c r="J52" s="0"/>
+      <c r="K52" s="0"/>
+      <c r="M52" s="0"/>
+      <c r="N52" s="0"/>
+      <c r="O52" s="0"/>
+      <c r="P52" s="0"/>
+      <c r="Q52" s="0"/>
+      <c r="R52" s="0"/>
+      <c r="S52" s="0"/>
+      <c r="T52" s="0"/>
+      <c r="V52" s="0"/>
+      <c r="W52" s="0"/>
+      <c r="X52" s="0"/>
+      <c r="Y52" s="0"/>
+      <c r="Z52" s="0"/>
+      <c r="AA52" s="0"/>
+      <c r="AB52" s="0"/>
+      <c r="AC52" s="0"/>
+      <c r="AE52" s="0"/>
+      <c r="AF52" s="0"/>
+      <c r="AG52" s="0"/>
+      <c r="AH52" s="0"/>
+      <c r="AI52" s="0"/>
+      <c r="AJ52" s="0"/>
+      <c r="AK52" s="0"/>
+      <c r="AL52" s="0"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -574,7 +574,7 @@
       <sz val="18.0"/>
     </font>
   </fonts>
-  <fills count="52">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,190 +593,190 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="40"/>
+        <bgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="53"/>
+        <bgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+        <bgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+        <bgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+        <bgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="46"/>
+        <bgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+        <bgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="darkGrid">
         <fgColor indexed="44"/>
         <bgColor indexed="44"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="43"/>
-        <bgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="darkGrid">
         <fgColor indexed="43"/>
         <bgColor indexed="43"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="40"/>
-        <bgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="darkGrid">
         <fgColor indexed="40"/>
         <bgColor indexed="40"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="darkGrid">
         <fgColor indexed="47"/>
         <bgColor indexed="47"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="53"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="53"/>
-        <bgColor indexed="53"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="darkGrid">
         <fgColor indexed="53"/>
         <bgColor indexed="53"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="42"/>
-        <bgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="darkGrid">
         <fgColor indexed="42"/>
         <bgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-        <bgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="darkGrid">
         <fgColor indexed="13"/>
         <bgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="48"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="48"/>
-        <bgColor indexed="48"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="darkGrid">
         <fgColor indexed="48"/>
         <bgColor indexed="48"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="45"/>
-        <bgColor indexed="45"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="darkGrid">
         <fgColor indexed="45"/>
         <bgColor indexed="45"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="46"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="46"/>
-        <bgColor indexed="46"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="darkGrid">
         <fgColor indexed="46"/>
         <bgColor indexed="46"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="darkGrid">
         <fgColor indexed="17"/>
         <bgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-        <bgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-        <bgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -828,10 +828,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="darkGrid">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -1356,17 +1353,17 @@
   </cellStyleXfs>
   <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="centerContinuous"/>
@@ -1374,12 +1371,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="justify" vertical="center" textRotation="90"/>
     </xf>
@@ -1387,11 +1384,11 @@
       <alignment horizontal="justify" vertical="center" indent="0" textRotation="90" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1407,15 +1404,15 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1423,23 +1420,23 @@
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1455,7 +1452,7 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="39" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="39" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1463,7 +1460,7 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1489,15 +1486,15 @@
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1515,11 +1512,11 @@
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="47" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="47" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1543,12 +1540,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="justify" vertical="center" textRotation="90"/>
     </xf>
@@ -1556,11 +1553,11 @@
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1568,19 +1565,19 @@
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="39" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="39" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1598,7 +1595,7 @@
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1630,11 +1627,11 @@
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="47" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="47" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1644,10 +1641,10 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="justify" vertical="center" textRotation="90"/>
     </xf>
@@ -1655,11 +1652,11 @@
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1667,11 +1664,11 @@
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1723,11 +1720,11 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="justify" vertical="center" textRotation="90"/>
     </xf>
@@ -1735,11 +1732,11 @@
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="10" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1747,15 +1744,15 @@
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="34" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1801,14 +1798,14 @@
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A11:AM56"/>
+  <dimension ref="B11:AM51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1849,7 +1846,7 @@
       <c r="B11" t="s" s="22">
         <v>16</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="24"/>
       <c r="D11" t="s" s="25">
         <v>0</v>
       </c>
@@ -1900,8 +1897,8 @@
       <c r="AL11" s="37"/>
     </row>
     <row r="12">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="27"/>
       <c r="G12" t="n">
         <v>110.0</v>
@@ -1968,7 +1965,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="24"/>
+      <c r="B13" s="23"/>
       <c r="C13" t="s" s="28">
         <v>2</v>
       </c>
@@ -2001,7 +1998,7 @@
       <c r="AL13" s="39"/>
     </row>
     <row r="14">
-      <c r="B14" s="24"/>
+      <c r="B14" s="23"/>
       <c r="C14" t="s" s="30">
         <v>5</v>
       </c>
@@ -2053,7 +2050,7 @@
       <c r="AL14" s="39"/>
     </row>
     <row r="15">
-      <c r="B15" s="24"/>
+      <c r="B15" s="23"/>
       <c r="C15" t="s" s="32">
         <v>6</v>
       </c>
@@ -2091,8 +2088,8 @@
       <c r="AL15" s="39"/>
     </row>
     <row r="16">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" t="s" s="33">
         <v>9</v>
       </c>
@@ -2111,7 +2108,7 @@
       <c r="AL16" s="39"/>
     </row>
     <row r="17">
-      <c r="B17" s="24"/>
+      <c r="B17" s="23"/>
       <c r="C17" t="s" s="34">
         <v>11</v>
       </c>
@@ -2136,7 +2133,7 @@
       <c r="AL17" s="39"/>
     </row>
     <row r="18">
-      <c r="B18" s="24"/>
+      <c r="B18" s="23"/>
       <c r="C18" t="s" s="36">
         <v>14</v>
       </c>
@@ -2166,8 +2163,8 @@
       <c r="AL18" s="39"/>
     </row>
     <row r="19">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="27"/>
       <c r="K19" s="39"/>
       <c r="M19" t="s" s="50">
@@ -2233,7 +2230,7 @@
       <c r="B22" t="s" s="22">
         <v>16</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="24"/>
       <c r="D22" t="s" s="71">
         <v>0</v>
       </c>
@@ -2284,8 +2281,8 @@
       <c r="AL22" s="37"/>
     </row>
     <row r="23">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="27"/>
       <c r="G23" t="n">
         <v>110.0</v>
@@ -2352,7 +2349,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="24"/>
+      <c r="B24" s="23"/>
       <c r="C24" t="s" s="72">
         <v>2</v>
       </c>
@@ -2404,7 +2401,7 @@
       <c r="AL24" s="39"/>
     </row>
     <row r="25">
-      <c r="B25" s="24"/>
+      <c r="B25" s="23"/>
       <c r="C25" t="s" s="73">
         <v>5</v>
       </c>
@@ -2456,7 +2453,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="24"/>
+      <c r="B26" s="23"/>
       <c r="C26" t="s" s="75">
         <v>6</v>
       </c>
@@ -2495,8 +2492,8 @@
       <c r="AL26" s="39"/>
     </row>
     <row r="27">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="27"/>
       <c r="K27" s="39"/>
       <c r="M27" s="27"/>
@@ -2515,7 +2512,7 @@
       <c r="AL27" s="39"/>
     </row>
     <row r="28">
-      <c r="B28" s="24"/>
+      <c r="B28" s="23"/>
       <c r="C28" t="s" s="76">
         <v>11</v>
       </c>
@@ -2540,7 +2537,7 @@
       <c r="AL28" s="39"/>
     </row>
     <row r="29">
-      <c r="B29" s="24"/>
+      <c r="B29" s="23"/>
       <c r="C29" t="s" s="77">
         <v>40</v>
       </c>
@@ -2609,7 +2606,7 @@
       <c r="B32" t="s" s="22">
         <v>16</v>
       </c>
-      <c r="C32" s="23"/>
+      <c r="C32" s="24"/>
       <c r="D32" t="s" s="101">
         <v>0</v>
       </c>
@@ -2660,8 +2657,8 @@
       <c r="AL32" s="37"/>
     </row>
     <row r="33">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="27"/>
       <c r="G33" t="n">
         <v>110.0</v>
@@ -2728,7 +2725,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="24"/>
+      <c r="B34" s="23"/>
       <c r="C34" t="s" s="102">
         <v>5</v>
       </c>
@@ -2761,7 +2758,7 @@
       <c r="AL34" s="39"/>
     </row>
     <row r="35">
-      <c r="B35" s="24"/>
+      <c r="B35" s="23"/>
       <c r="C35" t="s" s="103">
         <v>6</v>
       </c>
@@ -2791,8 +2788,8 @@
       <c r="AL35" s="39"/>
     </row>
     <row r="36">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
       <c r="D36" t="s" s="33">
         <v>61</v>
       </c>
@@ -2819,8 +2816,8 @@
       <c r="AL36" s="39"/>
     </row>
     <row r="37">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="27"/>
       <c r="K37" s="39"/>
       <c r="M37" s="27"/>
@@ -2845,7 +2842,7 @@
       <c r="AL37" s="39"/>
     </row>
     <row r="38">
-      <c r="B38" s="24"/>
+      <c r="B38" s="23"/>
       <c r="C38" t="s" s="105">
         <v>11</v>
       </c>
@@ -2881,7 +2878,7 @@
       <c r="AL38" s="39"/>
     </row>
     <row r="39">
-      <c r="B39" s="24"/>
+      <c r="B39" s="23"/>
       <c r="C39" t="s" s="106">
         <v>14</v>
       </c>
@@ -2962,7 +2959,7 @@
       <c r="B42" t="s" s="22">
         <v>16</v>
       </c>
-      <c r="C42" s="23"/>
+      <c r="C42" s="24"/>
       <c r="D42" t="s" s="127">
         <v>0</v>
       </c>
@@ -3013,8 +3010,8 @@
       <c r="AL42" s="37"/>
     </row>
     <row r="43">
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="27"/>
       <c r="G43" t="n">
         <v>110.0</v>
@@ -3081,7 +3078,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="24"/>
+      <c r="B44" s="23"/>
       <c r="C44" t="s" s="128">
         <v>5</v>
       </c>
@@ -3103,7 +3100,7 @@
       <c r="AL44" s="39"/>
     </row>
     <row r="45">
-      <c r="B45" s="24"/>
+      <c r="B45" s="23"/>
       <c r="C45" t="s" s="129">
         <v>6</v>
       </c>
@@ -3145,8 +3142,8 @@
       <c r="AL45" s="39"/>
     </row>
     <row r="46">
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
       <c r="D46" t="s" s="33">
         <v>85</v>
       </c>
@@ -3168,8 +3165,8 @@
       <c r="AL46" s="39"/>
     </row>
     <row r="47">
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
       <c r="D47" t="s" s="33">
         <v>87</v>
       </c>
@@ -3188,7 +3185,7 @@
       <c r="AL47" s="39"/>
     </row>
     <row r="48">
-      <c r="B48" s="24"/>
+      <c r="B48" s="23"/>
       <c r="C48" t="s" s="131">
         <v>11</v>
       </c>
@@ -3213,7 +3210,7 @@
       <c r="AL48" s="39"/>
     </row>
     <row r="49">
-      <c r="B49" s="24"/>
+      <c r="B49" s="23"/>
       <c r="C49" t="s" s="132">
         <v>40</v>
       </c>
@@ -3235,7 +3232,7 @@
       <c r="AL49" s="39"/>
     </row>
     <row r="50">
-      <c r="B50" s="24"/>
+      <c r="B50" s="23"/>
       <c r="C50" t="s" s="133">
         <v>14</v>
       </c>
@@ -3297,38 +3294,6 @@
       <c r="AJ51" s="43"/>
       <c r="AK51" s="43"/>
       <c r="AL51" s="44"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="8"/>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="8"/>
-      <c r="AB56" s="8"/>
-      <c r="AC56" s="8"/>
-      <c r="AD56" s="8"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -23,16 +23,49 @@
     <t>BTech-I</t>
   </si>
   <si>
+    <t>BTech-II</t>
+  </si>
+  <si>
+    <t>EL213</t>
+  </si>
+  <si>
+    <t>Analog Circuits</t>
+  </si>
+  <si>
+    <t>BTech-III</t>
+  </si>
+  <si>
+    <t>MScIT-I</t>
+  </si>
+  <si>
+    <t>MTech-I</t>
+  </si>
+  <si>
+    <t>MDes-I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exam Day </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11:00 - 13:00 </t>
+  </si>
+  <si>
     <t>EL114</t>
   </si>
   <si>
     <t>Digital Logic Design</t>
   </si>
   <si>
-    <t>BTech-II</t>
-  </si>
-  <si>
-    <t>BTech-III</t>
+    <t>EL426</t>
+  </si>
+  <si>
+    <t>Digital System Architecture (GE)</t>
+  </si>
+  <si>
+    <t>IT483</t>
+  </si>
+  <si>
+    <t>Computational Electromagnetics</t>
   </si>
   <si>
     <t>IT478</t>
@@ -41,45 +74,12 @@
     <t>Internet of Things</t>
   </si>
   <si>
-    <t>EL426</t>
-  </si>
-  <si>
-    <t>Digital System Architecture (GE)</t>
-  </si>
-  <si>
-    <t>MScIT-I</t>
-  </si>
-  <si>
     <t>IT618</t>
   </si>
   <si>
     <t>Enterprise Computing</t>
   </si>
   <si>
-    <t>MTech-I</t>
-  </si>
-  <si>
-    <t>MDes-I</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Exam Day </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11:00 - 13:00 </t>
-  </si>
-  <si>
-    <t>EL213</t>
-  </si>
-  <si>
-    <t>Analog Circuits</t>
-  </si>
-  <si>
-    <t>IT483</t>
-  </si>
-  <si>
-    <t>Computational Electromagnetics</t>
-  </si>
-  <si>
     <t>CT513</t>
   </si>
   <si>
@@ -95,6 +95,9 @@
     <t xml:space="preserve"> 14:00 - 16:00 </t>
   </si>
   <si>
+    <t xml:space="preserve"> 16:30 - 18:30 </t>
+  </si>
+  <si>
     <t>SC209</t>
   </si>
   <si>
@@ -119,7 +122,13 @@
     <t>Introduction to Narratology</t>
   </si>
   <si>
-    <t xml:space="preserve"> 16:30 - 18:30 </t>
+    <t>SC215</t>
+  </si>
+  <si>
+    <t>Probability and Statistics</t>
+  </si>
+  <si>
+    <t>MScICTARD-I</t>
   </si>
   <si>
     <t>SC205</t>
@@ -134,21 +143,24 @@
     <t>Software Engineering</t>
   </si>
   <si>
-    <t>MScICTARD-I</t>
-  </si>
-  <si>
-    <t>SC215</t>
-  </si>
-  <si>
-    <t>Probability and Statistics</t>
-  </si>
-  <si>
     <t>IT664</t>
   </si>
   <si>
     <t>Remote Sensing and GIS</t>
   </si>
   <si>
+    <t>IT215</t>
+  </si>
+  <si>
+    <t>Systems Software</t>
+  </si>
+  <si>
+    <t>HM501</t>
+  </si>
+  <si>
+    <t>Communications Skills</t>
+  </si>
+  <si>
     <t>IT205</t>
   </si>
   <si>
@@ -171,18 +183,6 @@
   </si>
   <si>
     <t>Operating Systems</t>
-  </si>
-  <si>
-    <t>IT215</t>
-  </si>
-  <si>
-    <t>Systems Software</t>
-  </si>
-  <si>
-    <t>HM501</t>
-  </si>
-  <si>
-    <t>Communications Skills</t>
   </si>
   <si>
     <t>CT214</t>
@@ -1134,6 +1134,46 @@
       </bottom>
     </border>
     <border>
+      <right style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
       <bottom style="medium"/>
     </border>
     <border>
@@ -1183,46 +1223,6 @@
         <color indexed="8"/>
       </top>
       <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
         <color indexed="8"/>
       </bottom>
     </border>
@@ -1408,10 +1408,6 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1420,19 +1416,19 @@
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="32" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1440,11 +1436,7 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="32" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="39" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1452,7 +1444,7 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="39" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1460,7 +1452,7 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1482,11 +1474,19 @@
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="40" borderId="22" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1494,7 +1494,7 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1512,14 +1512,6 @@
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="47" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -1532,6 +1524,14 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="40" borderId="22" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="47" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1577,7 +1577,7 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="39" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1613,6 +1613,14 @@
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="47" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -1625,14 +1633,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="40" borderId="22" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="47" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1805,36 +1805,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B11:AM51"/>
+  <dimension ref="B11:AM52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="3" max="3" width="12.99609375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="6.625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="43.28125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.56640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="23.0078125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.37890625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="4.37890625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="4.37890625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="4.37890625" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="4.37890625" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="6.625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="30.453125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="43.28125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="4.37890625" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="4.37890625" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="4.37890625" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="4.37890625" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="6.69140625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="35.75390625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="7.6328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="20.984375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="4.37890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="4.37890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="4.37890625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="4.37890625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="7.6328125" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="20.984375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="6.69140625" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="35.75390625" customWidth="true" bestFit="true"/>
     <col min="34" max="34" width="4.37890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="4.37890625" customWidth="true" bestFit="true"/>
     <col min="36" max="36" width="4.37890625" customWidth="true" bestFit="true"/>
@@ -1844,7 +1844,7 @@
   <sheetData>
     <row r="11">
       <c r="B11" t="s" s="22">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" t="s" s="25">
@@ -1852,25 +1852,25 @@
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
-      <c r="G11" t="s" s="31">
+      <c r="G11" t="s" s="30">
         <v>1</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="K11" s="37"/>
-      <c r="M11" t="s" s="47">
-        <v>17</v>
+      <c r="K11" s="34"/>
+      <c r="M11" t="s" s="45">
+        <v>11</v>
       </c>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
-      <c r="P11" t="s" s="48">
+      <c r="P11" t="s" s="47">
         <v>1</v>
       </c>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
       <c r="S11" s="26"/>
-      <c r="T11" s="37"/>
+      <c r="T11" s="34"/>
       <c r="V11" t="s" s="54">
         <v>26</v>
       </c>
@@ -1882,19 +1882,19 @@
       <c r="Z11" s="26"/>
       <c r="AA11" s="26"/>
       <c r="AB11" s="26"/>
-      <c r="AC11" s="37"/>
-      <c r="AE11" t="s" s="60">
-        <v>35</v>
+      <c r="AC11" s="34"/>
+      <c r="AE11" t="s" s="58">
+        <v>27</v>
       </c>
       <c r="AF11" s="26"/>
       <c r="AG11" s="26"/>
-      <c r="AH11" t="s" s="61">
+      <c r="AH11" t="s" s="59">
         <v>1</v>
       </c>
       <c r="AI11" s="26"/>
       <c r="AJ11" s="26"/>
       <c r="AK11" s="26"/>
-      <c r="AL11" s="37"/>
+      <c r="AL11" s="34"/>
     </row>
     <row r="12">
       <c r="B12" s="23"/>
@@ -1912,7 +1912,7 @@
       <c r="J12" t="n">
         <v>103.0</v>
       </c>
-      <c r="K12" t="n" s="39">
+      <c r="K12" t="n" s="36">
         <v>104.0</v>
       </c>
       <c r="M12" s="27"/>
@@ -1928,7 +1928,7 @@
       <c r="S12" t="n">
         <v>103.0</v>
       </c>
-      <c r="T12" t="n" s="39">
+      <c r="T12" t="n" s="36">
         <v>104.0</v>
       </c>
       <c r="V12" s="27"/>
@@ -1944,7 +1944,7 @@
       <c r="AB12" t="n">
         <v>103.0</v>
       </c>
-      <c r="AC12" t="n" s="39">
+      <c r="AC12" t="n" s="36">
         <v>104.0</v>
       </c>
       <c r="AE12" s="27"/>
@@ -1960,7 +1960,7 @@
       <c r="AK12" t="n">
         <v>103.0</v>
       </c>
-      <c r="AL12" t="n" s="39">
+      <c r="AL12" t="n" s="36">
         <v>104.0</v>
       </c>
     </row>
@@ -1969,1377 +1969,1392 @@
       <c r="C13" t="s" s="28">
         <v>2</v>
       </c>
-      <c r="D13" t="s" s="29">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="G13" t="n" s="1">
+      <c r="D13" s="27"/>
+      <c r="K13" s="36"/>
+      <c r="M13" t="s" s="46">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="P13" t="n" s="1">
         <v>98.0</v>
       </c>
-      <c r="H13" t="n" s="1">
+      <c r="Q13" t="n" s="1">
         <v>60.0</v>
       </c>
-      <c r="I13" t="n" s="1">
+      <c r="R13" t="n" s="1">
         <v>65.0</v>
       </c>
-      <c r="J13" t="n" s="1">
+      <c r="S13" t="n" s="1">
         <v>60.0</v>
       </c>
-      <c r="K13" t="n" s="42">
+      <c r="T13" t="n" s="51">
         <v>28.0</v>
       </c>
-      <c r="M13" s="27"/>
-      <c r="T13" s="39"/>
       <c r="V13" s="27"/>
-      <c r="AC13" s="39"/>
+      <c r="AC13" s="36"/>
       <c r="AE13" s="27"/>
-      <c r="AL13" s="39"/>
+      <c r="AL13" s="36"/>
     </row>
     <row r="14">
       <c r="B14" s="23"/>
-      <c r="C14" t="s" s="30">
+      <c r="C14" t="s" s="29">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s" s="31">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="K14" s="39"/>
-      <c r="M14" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="P14" t="n" s="2">
+      <c r="G14" t="n" s="2">
         <v>98.0</v>
       </c>
-      <c r="Q14" t="n" s="2">
+      <c r="H14" t="n" s="2">
         <v>60.0</v>
       </c>
-      <c r="R14" t="n" s="2">
+      <c r="I14" t="n" s="2">
         <v>65.0</v>
       </c>
-      <c r="S14" t="n" s="2">
+      <c r="J14" t="n" s="2">
         <v>60.0</v>
       </c>
-      <c r="T14" t="n" s="51">
+      <c r="K14" t="n" s="40">
         <v>19.0</v>
       </c>
-      <c r="V14" t="s" s="49">
-        <v>27</v>
-      </c>
-      <c r="W14" t="s" s="2">
+      <c r="M14" s="27"/>
+      <c r="T14" s="36"/>
+      <c r="V14" s="27"/>
+      <c r="AC14" s="36"/>
+      <c r="AE14" t="s" s="31">
         <v>28</v>
       </c>
-      <c r="Y14" t="n" s="2">
+      <c r="AF14" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AH14" t="n" s="2">
         <v>98.0</v>
       </c>
-      <c r="Z14" t="n" s="2">
+      <c r="AI14" t="n" s="2">
         <v>60.0</v>
       </c>
-      <c r="AA14" t="n" s="2">
+      <c r="AJ14" t="n" s="2">
         <v>65.0</v>
       </c>
-      <c r="AB14" t="n" s="2">
+      <c r="AK14" t="n" s="2">
         <v>60.0</v>
       </c>
-      <c r="AC14" t="n" s="51">
+      <c r="AL14" t="n" s="40">
         <v>14.0</v>
       </c>
-      <c r="AE14" s="27"/>
-      <c r="AL14" s="39"/>
     </row>
     <row r="15">
       <c r="B15" s="23"/>
       <c r="C15" t="s" s="32">
         <v>6</v>
       </c>
-      <c r="D15" t="s" s="33">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I15" t="n" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="K15" s="39"/>
-      <c r="M15" t="s" s="33">
-        <v>20</v>
+      <c r="D15" s="27"/>
+      <c r="K15" s="36"/>
+      <c r="M15" t="s" s="48">
+        <v>14</v>
       </c>
       <c r="N15" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="R15" t="n" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="T15" s="39"/>
-      <c r="V15" t="s" s="33">
-        <v>29</v>
-      </c>
-      <c r="W15" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="S15" t="n" s="3">
+        <v>42.0</v>
+      </c>
+      <c r="T15" s="36"/>
+      <c r="V15" s="27"/>
+      <c r="AC15" s="36"/>
+      <c r="AE15" t="s" s="48">
         <v>30</v>
       </c>
-      <c r="Y15" t="n" s="3">
+      <c r="AF15" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="AH15" t="n" s="3">
         <v>14.0</v>
       </c>
-      <c r="AC15" s="39"/>
-      <c r="AE15" s="27"/>
-      <c r="AL15" s="39"/>
+      <c r="AL15" s="36"/>
     </row>
     <row r="16">
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
-      <c r="D16" t="s" s="33">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="J16" t="n" s="3">
-        <v>42.0</v>
-      </c>
-      <c r="K16" s="39"/>
-      <c r="M16" s="27"/>
-      <c r="T16" s="39"/>
+      <c r="D16" s="27"/>
+      <c r="K16" s="36"/>
+      <c r="M16" t="s" s="48">
+        <v>16</v>
+      </c>
+      <c r="N16" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="Q16" t="n" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="T16" s="36"/>
       <c r="V16" s="27"/>
-      <c r="AC16" s="39"/>
+      <c r="AC16" s="36"/>
       <c r="AE16" s="27"/>
-      <c r="AL16" s="39"/>
+      <c r="AL16" s="36"/>
     </row>
     <row r="17">
       <c r="B17" s="23"/>
-      <c r="C17" t="s" s="34">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="35">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G17" t="n" s="5">
-        <v>98.0</v>
-      </c>
-      <c r="H17" t="n" s="5">
-        <v>14.0</v>
-      </c>
-      <c r="K17" s="39"/>
-      <c r="M17" s="27"/>
-      <c r="T17" s="39"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="27"/>
+      <c r="K17" s="36"/>
+      <c r="M17" t="s" s="48">
+        <v>18</v>
+      </c>
+      <c r="N17" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="R17" t="n" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="T17" s="36"/>
       <c r="V17" s="27"/>
-      <c r="AC17" s="39"/>
+      <c r="AC17" s="36"/>
       <c r="AE17" s="27"/>
-      <c r="AL17" s="39"/>
+      <c r="AL17" s="36"/>
     </row>
     <row r="18">
       <c r="B18" s="23"/>
-      <c r="C18" t="s" s="36">
-        <v>14</v>
+      <c r="C18" t="s" s="33">
+        <v>7</v>
       </c>
       <c r="D18" s="27"/>
-      <c r="K18" s="39"/>
-      <c r="M18" t="s" s="50">
-        <v>22</v>
-      </c>
-      <c r="N18" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="Q18" t="n" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="T18" s="39"/>
-      <c r="V18" t="s" s="50">
-        <v>31</v>
-      </c>
-      <c r="W18" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="Z18" t="n" s="9">
+      <c r="K18" s="36"/>
+      <c r="M18" t="s" s="49">
+        <v>20</v>
+      </c>
+      <c r="N18" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="P18" t="n" s="5">
+        <v>98.0</v>
+      </c>
+      <c r="Q18" t="n" s="5">
         <v>14.0</v>
       </c>
-      <c r="AC18" s="39"/>
+      <c r="T18" s="36"/>
+      <c r="V18" s="27"/>
+      <c r="AC18" s="36"/>
       <c r="AE18" s="27"/>
-      <c r="AL18" s="39"/>
+      <c r="AL18" s="36"/>
     </row>
     <row r="19">
       <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="C19" t="s" s="35">
+        <v>8</v>
+      </c>
       <c r="D19" s="27"/>
-      <c r="K19" s="39"/>
+      <c r="K19" s="36"/>
       <c r="M19" t="s" s="50">
+        <v>22</v>
+      </c>
+      <c r="N19" t="s" s="9">
+        <v>23</v>
+      </c>
+      <c r="Q19" t="n" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="T19" s="36"/>
+      <c r="V19" s="27"/>
+      <c r="AC19" s="36"/>
+      <c r="AE19" t="s" s="50">
+        <v>32</v>
+      </c>
+      <c r="AF19" t="s" s="9">
+        <v>33</v>
+      </c>
+      <c r="AH19" t="n" s="9">
+        <v>14.0</v>
+      </c>
+      <c r="AL19" s="36"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="27"/>
+      <c r="K20" s="36"/>
+      <c r="M20" t="s" s="50">
         <v>24</v>
       </c>
-      <c r="N19" t="s" s="9">
+      <c r="N20" t="s" s="9">
         <v>25</v>
       </c>
-      <c r="P19" t="n" s="9">
+      <c r="Q20" t="n" s="9">
         <v>15.0</v>
       </c>
-      <c r="T19" s="39"/>
-      <c r="V19" s="27"/>
-      <c r="AC19" s="39"/>
-      <c r="AE19" s="27"/>
-      <c r="AL19" s="39"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="38"/>
-      <c r="C20" t="s" s="40">
-        <v>15</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="44"/>
-      <c r="V20" t="s" s="56">
-        <v>33</v>
-      </c>
-      <c r="W20" t="s" s="57">
+      <c r="T20" s="36"/>
+      <c r="V20" s="27"/>
+      <c r="AC20" s="36"/>
+      <c r="AE20" s="27"/>
+      <c r="AL20" s="36"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="37"/>
+      <c r="C21" t="s" s="38">
+        <v>9</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="42"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="42"/>
+      <c r="AE21" t="s" s="60">
         <v>34</v>
       </c>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" t="n" s="57">
+      <c r="AF21" t="s" s="61">
+        <v>35</v>
+      </c>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" t="n" s="61">
         <v>12.0</v>
       </c>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="44"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="43"/>
-      <c r="AG20" s="43"/>
-      <c r="AH20" s="43"/>
-      <c r="AI20" s="43"/>
-      <c r="AJ20" s="43"/>
-      <c r="AK20" s="43"/>
-      <c r="AL20" s="44"/>
-    </row>
-    <row r="22">
-      <c r="B22" t="s" s="22">
-        <v>16</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" t="s" s="71">
+      <c r="AJ21" s="41"/>
+      <c r="AK21" s="41"/>
+      <c r="AL21" s="42"/>
+    </row>
+    <row r="23">
+      <c r="B23" t="s" s="22">
+        <v>10</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" t="s" s="71">
         <v>0</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" t="s" s="74">
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" t="s" s="74">
         <v>1</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="37"/>
-      <c r="M22" t="s" s="81">
-        <v>17</v>
-      </c>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" t="s" s="82">
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="34"/>
+      <c r="M23" t="s" s="81">
+        <v>11</v>
+      </c>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" t="s" s="82">
         <v>1</v>
       </c>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="37"/>
-      <c r="V22" t="s" s="86">
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="34"/>
+      <c r="V23" t="s" s="86">
         <v>26</v>
       </c>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" t="s" s="87">
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" t="s" s="87">
         <v>1</v>
       </c>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="37"/>
-      <c r="AE22" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" t="s" s="91">
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="34"/>
+      <c r="AE23" t="s" s="92">
+        <v>27</v>
+      </c>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" t="s" s="93">
         <v>1</v>
       </c>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="37"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="27"/>
-      <c r="G23" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="K23" t="n" s="39">
-        <v>104.0</v>
-      </c>
-      <c r="M23" s="27"/>
-      <c r="P23" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="T23" t="n" s="39">
-        <v>104.0</v>
-      </c>
-      <c r="V23" s="27"/>
-      <c r="Y23" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="AC23" t="n" s="39">
-        <v>104.0</v>
-      </c>
-      <c r="AE23" s="27"/>
-      <c r="AH23" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="AL23" t="n" s="39">
-        <v>104.0</v>
-      </c>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="34"/>
     </row>
     <row r="24">
       <c r="B24" s="23"/>
-      <c r="C24" t="s" s="72">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s" s="29">
-        <v>36</v>
-      </c>
-      <c r="E24" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="G24" t="n" s="1">
-        <v>98.0</v>
-      </c>
-      <c r="H24" t="n" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="I24" t="n" s="1">
-        <v>65.0</v>
-      </c>
-      <c r="J24" t="n" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="K24" t="n" s="42">
-        <v>27.0</v>
+      <c r="C24" s="23"/>
+      <c r="D24" s="27"/>
+      <c r="G24" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="K24" t="n" s="36">
+        <v>104.0</v>
       </c>
       <c r="M24" s="27"/>
-      <c r="T24" s="39"/>
-      <c r="V24" t="s" s="29">
-        <v>45</v>
-      </c>
-      <c r="W24" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="Y24" t="n" s="1">
-        <v>98.0</v>
-      </c>
-      <c r="Z24" t="n" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="AA24" t="n" s="1">
-        <v>65.0</v>
-      </c>
-      <c r="AB24" t="n" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="AC24" t="n" s="42">
-        <v>26.0</v>
+      <c r="P24" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="T24" t="n" s="36">
+        <v>104.0</v>
+      </c>
+      <c r="V24" s="27"/>
+      <c r="Y24" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AC24" t="n" s="36">
+        <v>104.0</v>
       </c>
       <c r="AE24" s="27"/>
-      <c r="AL24" s="39"/>
+      <c r="AH24" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AL24" t="n" s="36">
+        <v>104.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" s="23"/>
-      <c r="C25" t="s" s="73">
-        <v>5</v>
+      <c r="C25" t="s" s="72">
+        <v>2</v>
       </c>
       <c r="D25" s="27"/>
-      <c r="K25" s="39"/>
-      <c r="M25" t="s" s="49">
-        <v>41</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P25" t="n" s="2">
+      <c r="K25" s="36"/>
+      <c r="M25" t="s" s="46">
+        <v>39</v>
+      </c>
+      <c r="N25" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="P25" t="n" s="1">
         <v>98.0</v>
       </c>
-      <c r="Q25" t="n" s="2">
+      <c r="Q25" t="n" s="1">
         <v>60.0</v>
       </c>
-      <c r="R25" t="n" s="2">
+      <c r="R25" t="n" s="1">
         <v>65.0</v>
       </c>
-      <c r="S25" t="n" s="2">
+      <c r="S25" t="n" s="1">
         <v>60.0</v>
       </c>
       <c r="T25" t="n" s="51">
-        <v>13.0</v>
+        <v>27.0</v>
       </c>
       <c r="V25" s="27"/>
-      <c r="AC25" s="39"/>
-      <c r="AE25" t="s" s="49">
-        <v>53</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH25" t="n" s="2">
+      <c r="AC25" s="36"/>
+      <c r="AE25" t="s" s="46">
+        <v>49</v>
+      </c>
+      <c r="AF25" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH25" t="n" s="1">
         <v>98.0</v>
       </c>
-      <c r="AI25" t="n" s="2">
+      <c r="AI25" t="n" s="1">
         <v>60.0</v>
       </c>
-      <c r="AJ25" t="n" s="2">
+      <c r="AJ25" t="n" s="1">
         <v>65.0</v>
       </c>
-      <c r="AK25" t="n" s="2">
+      <c r="AK25" t="n" s="1">
         <v>60.0</v>
       </c>
       <c r="AL25" t="n" s="51">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="23"/>
-      <c r="C26" t="s" s="75">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s" s="33">
-        <v>38</v>
-      </c>
-      <c r="E26" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="G26" t="n" s="3">
+      <c r="C26" t="s" s="73">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s" s="31">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G26" t="n" s="2">
         <v>98.0</v>
       </c>
-      <c r="H26" t="n" s="3">
+      <c r="H26" t="n" s="2">
         <v>60.0</v>
       </c>
-      <c r="I26" t="n" s="3">
+      <c r="I26" t="n" s="2">
         <v>65.0</v>
       </c>
-      <c r="J26" t="n" s="3">
-        <v>54.0</v>
-      </c>
-      <c r="K26" s="39"/>
+      <c r="J26" t="n" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="K26" t="n" s="40">
+        <v>13.0</v>
+      </c>
       <c r="M26" s="27"/>
-      <c r="T26" s="39"/>
-      <c r="V26" t="s" s="33">
-        <v>47</v>
-      </c>
-      <c r="W26" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="AB26" t="n" s="3">
-        <v>40.0</v>
-      </c>
-      <c r="AC26" s="39"/>
+      <c r="T26" s="36"/>
+      <c r="V26" t="s" s="31">
+        <v>45</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y26" t="n" s="2">
+        <v>98.0</v>
+      </c>
+      <c r="Z26" t="n" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="AA26" t="n" s="2">
+        <v>65.0</v>
+      </c>
+      <c r="AB26" t="n" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="AC26" t="n" s="40">
+        <v>15.0</v>
+      </c>
       <c r="AE26" s="27"/>
-      <c r="AL26" s="39"/>
+      <c r="AL26" s="36"/>
     </row>
     <row r="27">
       <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="C27" t="s" s="75">
+        <v>6</v>
+      </c>
       <c r="D27" s="27"/>
-      <c r="K27" s="39"/>
-      <c r="M27" s="27"/>
-      <c r="T27" s="39"/>
-      <c r="V27" t="s" s="33">
-        <v>49</v>
-      </c>
-      <c r="W27" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="AA27" t="n" s="3">
-        <v>48.0</v>
-      </c>
-      <c r="AC27" s="39"/>
-      <c r="AE27" s="27"/>
-      <c r="AL27" s="39"/>
+      <c r="K27" s="36"/>
+      <c r="M27" t="s" s="48">
+        <v>41</v>
+      </c>
+      <c r="N27" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="P27" t="n" s="3">
+        <v>98.0</v>
+      </c>
+      <c r="Q27" t="n" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="R27" t="n" s="3">
+        <v>65.0</v>
+      </c>
+      <c r="S27" t="n" s="3">
+        <v>54.0</v>
+      </c>
+      <c r="T27" s="36"/>
+      <c r="V27" s="27"/>
+      <c r="AC27" s="36"/>
+      <c r="AE27" t="s" s="48">
+        <v>51</v>
+      </c>
+      <c r="AF27" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="AI27" t="n" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="AL27" s="36"/>
     </row>
     <row r="28">
       <c r="B28" s="23"/>
-      <c r="C28" t="s" s="76">
-        <v>11</v>
-      </c>
+      <c r="C28" s="23"/>
       <c r="D28" s="27"/>
-      <c r="K28" s="39"/>
+      <c r="K28" s="36"/>
       <c r="M28" s="27"/>
-      <c r="T28" s="39"/>
-      <c r="V28" t="s" s="35">
-        <v>51</v>
-      </c>
-      <c r="W28" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="Y28" t="n" s="5">
-        <v>98.0</v>
-      </c>
-      <c r="Z28" t="n" s="5">
-        <v>15.0</v>
-      </c>
-      <c r="AC28" s="39"/>
-      <c r="AE28" s="27"/>
-      <c r="AL28" s="39"/>
+      <c r="T28" s="36"/>
+      <c r="V28" s="27"/>
+      <c r="AC28" s="36"/>
+      <c r="AE28" t="s" s="48">
+        <v>53</v>
+      </c>
+      <c r="AF28" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="AH28" t="n" s="3">
+        <v>48.0</v>
+      </c>
+      <c r="AL28" s="36"/>
     </row>
     <row r="29">
       <c r="B29" s="23"/>
-      <c r="C29" t="s" s="77">
-        <v>40</v>
+      <c r="C29" t="s" s="76">
+        <v>7</v>
       </c>
       <c r="D29" s="27"/>
-      <c r="K29" s="39"/>
-      <c r="M29" t="s" s="83">
+      <c r="K29" s="36"/>
+      <c r="M29" s="27"/>
+      <c r="T29" s="36"/>
+      <c r="V29" s="27"/>
+      <c r="AC29" s="36"/>
+      <c r="AE29" t="s" s="49">
+        <v>55</v>
+      </c>
+      <c r="AF29" t="s" s="5">
+        <v>56</v>
+      </c>
+      <c r="AH29" t="n" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="AI29" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="AJ29" t="n" s="5">
+        <v>43.0</v>
+      </c>
+      <c r="AL29" s="36"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="23"/>
+      <c r="C30" t="s" s="77">
+        <v>38</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="K30" s="36"/>
+      <c r="M30" t="s" s="83">
         <v>43</v>
       </c>
-      <c r="N29" t="s" s="7">
+      <c r="N30" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="P29" t="n" s="7">
+      <c r="S30" t="n" s="7">
         <v>4.0</v>
       </c>
-      <c r="T29" s="39"/>
-      <c r="V29" s="27"/>
-      <c r="AC29" s="39"/>
-      <c r="AE29" s="27"/>
-      <c r="AL29" s="39"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="38"/>
-      <c r="C30" t="s" s="78">
-        <v>14</v>
-      </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="44"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="44"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="43"/>
-      <c r="AC30" s="44"/>
-      <c r="AE30" t="s" s="92">
-        <v>55</v>
-      </c>
-      <c r="AF30" t="s" s="93">
-        <v>56</v>
-      </c>
-      <c r="AG30" s="43"/>
-      <c r="AH30" t="n" s="93">
+      <c r="T30" s="36"/>
+      <c r="V30" s="27"/>
+      <c r="AC30" s="36"/>
+      <c r="AE30" s="27"/>
+      <c r="AL30" s="36"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="37"/>
+      <c r="C31" t="s" s="78">
+        <v>8</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="42"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="42"/>
+      <c r="V31" t="s" s="88">
+        <v>47</v>
+      </c>
+      <c r="W31" t="s" s="89">
+        <v>48</v>
+      </c>
+      <c r="X31" s="41"/>
+      <c r="Y31" t="n" s="89">
         <v>70.0</v>
       </c>
-      <c r="AI30" s="43"/>
-      <c r="AJ30" s="43"/>
-      <c r="AK30" s="43"/>
-      <c r="AL30" s="44"/>
-    </row>
-    <row r="32">
-      <c r="B32" t="s" s="22">
-        <v>16</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" t="s" s="101">
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="42"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="41"/>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="41"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="42"/>
+    </row>
+    <row r="33">
+      <c r="B33" t="s" s="22">
+        <v>10</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" t="s" s="101">
         <v>0</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" t="s" s="104">
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" t="s" s="104">
         <v>1</v>
       </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="37"/>
-      <c r="M32" t="s" s="109">
-        <v>17</v>
-      </c>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" t="s" s="110">
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="34"/>
+      <c r="M33" t="s" s="109">
+        <v>11</v>
+      </c>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" t="s" s="110">
         <v>1</v>
       </c>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="37"/>
-      <c r="V32" t="s" s="113">
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="34"/>
+      <c r="V33" t="s" s="113">
         <v>26</v>
       </c>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" t="s" s="114">
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" t="s" s="114">
         <v>1</v>
       </c>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="37"/>
-      <c r="AE32" t="s" s="118">
-        <v>35</v>
-      </c>
-      <c r="AF32" s="26"/>
-      <c r="AG32" s="26"/>
-      <c r="AH32" t="s" s="117">
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="34"/>
+      <c r="AE33" t="s" s="118">
+        <v>27</v>
+      </c>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" t="s" s="117">
         <v>1</v>
       </c>
-      <c r="AI32" s="26"/>
-      <c r="AJ32" s="26"/>
-      <c r="AK32" s="26"/>
-      <c r="AL32" s="37"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="27"/>
-      <c r="G33" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="K33" t="n" s="39">
-        <v>104.0</v>
-      </c>
-      <c r="M33" s="27"/>
-      <c r="P33" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="T33" t="n" s="39">
-        <v>104.0</v>
-      </c>
-      <c r="V33" s="27"/>
-      <c r="Y33" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="AC33" t="n" s="39">
-        <v>104.0</v>
-      </c>
-      <c r="AE33" s="27"/>
-      <c r="AH33" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="AL33" t="n" s="39">
-        <v>104.0</v>
-      </c>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="34"/>
     </row>
     <row r="34">
       <c r="B34" s="23"/>
-      <c r="C34" t="s" s="102">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s" s="49">
-        <v>57</v>
-      </c>
-      <c r="E34" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="G34" t="n" s="2">
-        <v>98.0</v>
-      </c>
-      <c r="H34" t="n" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="I34" t="n" s="2">
-        <v>65.0</v>
-      </c>
-      <c r="J34" t="n" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="K34" t="n" s="51">
-        <v>14.0</v>
+      <c r="C34" s="23"/>
+      <c r="D34" s="27"/>
+      <c r="G34" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="K34" t="n" s="36">
+        <v>104.0</v>
       </c>
       <c r="M34" s="27"/>
-      <c r="T34" s="39"/>
+      <c r="P34" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="T34" t="n" s="36">
+        <v>104.0</v>
+      </c>
       <c r="V34" s="27"/>
-      <c r="AC34" s="39"/>
+      <c r="Y34" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AC34" t="n" s="36">
+        <v>104.0</v>
+      </c>
       <c r="AE34" s="27"/>
-      <c r="AL34" s="39"/>
+      <c r="AH34" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AL34" t="n" s="36">
+        <v>104.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="B35" s="23"/>
-      <c r="C35" t="s" s="103">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s" s="33">
-        <v>59</v>
-      </c>
-      <c r="E35" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="I35" t="n" s="3">
-        <v>61.0</v>
-      </c>
-      <c r="K35" s="39"/>
-      <c r="M35" s="27"/>
-      <c r="T35" s="39"/>
-      <c r="V35" t="s" s="33">
-        <v>69</v>
-      </c>
-      <c r="W35" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="AA35" t="n" s="3">
-        <v>64.0</v>
-      </c>
-      <c r="AC35" s="39"/>
+      <c r="C35" t="s" s="102">
+        <v>3</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="K35" s="36"/>
+      <c r="M35" t="s" s="31">
+        <v>57</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="P35" t="n" s="2">
+        <v>98.0</v>
+      </c>
+      <c r="Q35" t="n" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="R35" t="n" s="2">
+        <v>65.0</v>
+      </c>
+      <c r="S35" t="n" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="T35" t="n" s="40">
+        <v>14.0</v>
+      </c>
+      <c r="V35" s="27"/>
+      <c r="AC35" s="36"/>
       <c r="AE35" s="27"/>
-      <c r="AL35" s="39"/>
+      <c r="AL35" s="36"/>
     </row>
     <row r="36">
       <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" t="s" s="33">
-        <v>61</v>
-      </c>
-      <c r="E36" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="J36" t="n" s="3">
-        <v>33.0</v>
-      </c>
-      <c r="K36" s="39"/>
-      <c r="M36" s="27"/>
-      <c r="T36" s="39"/>
-      <c r="V36" t="s" s="33">
-        <v>71</v>
-      </c>
-      <c r="W36" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="AA36" t="n" s="3">
-        <v>55.0</v>
-      </c>
-      <c r="AC36" s="39"/>
-      <c r="AE36" s="27"/>
-      <c r="AL36" s="39"/>
+      <c r="C36" t="s" s="103">
+        <v>6</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="K36" s="36"/>
+      <c r="M36" t="s" s="48">
+        <v>59</v>
+      </c>
+      <c r="N36" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="R36" t="n" s="3">
+        <v>61.0</v>
+      </c>
+      <c r="T36" s="36"/>
+      <c r="V36" s="27"/>
+      <c r="AC36" s="36"/>
+      <c r="AE36" t="s" s="48">
+        <v>69</v>
+      </c>
+      <c r="AF36" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="AJ36" t="n" s="3">
+        <v>64.0</v>
+      </c>
+      <c r="AL36" s="36"/>
     </row>
     <row r="37">
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="27"/>
-      <c r="K37" s="39"/>
-      <c r="M37" s="27"/>
-      <c r="T37" s="39"/>
-      <c r="V37" t="s" s="33">
-        <v>73</v>
-      </c>
-      <c r="W37" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="Y37" t="n" s="3">
-        <v>98.0</v>
-      </c>
-      <c r="Z37" t="n" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="AA37" t="n" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="AC37" s="39"/>
-      <c r="AE37" s="27"/>
-      <c r="AL37" s="39"/>
+      <c r="K37" s="36"/>
+      <c r="M37" t="s" s="48">
+        <v>61</v>
+      </c>
+      <c r="N37" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="S37" t="n" s="3">
+        <v>33.0</v>
+      </c>
+      <c r="T37" s="36"/>
+      <c r="V37" s="27"/>
+      <c r="AC37" s="36"/>
+      <c r="AE37" t="s" s="48">
+        <v>71</v>
+      </c>
+      <c r="AF37" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="AJ37" t="n" s="3">
+        <v>55.0</v>
+      </c>
+      <c r="AL37" s="36"/>
     </row>
     <row r="38">
       <c r="B38" s="23"/>
-      <c r="C38" t="s" s="105">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="35">
-        <v>63</v>
-      </c>
-      <c r="E38" t="s" s="5">
-        <v>64</v>
-      </c>
-      <c r="G38" t="n" s="5">
+      <c r="C38" s="23"/>
+      <c r="D38" s="27"/>
+      <c r="K38" s="36"/>
+      <c r="M38" s="27"/>
+      <c r="T38" s="36"/>
+      <c r="V38" s="27"/>
+      <c r="AC38" s="36"/>
+      <c r="AE38" t="s" s="48">
+        <v>73</v>
+      </c>
+      <c r="AF38" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="AH38" t="n" s="3">
         <v>98.0</v>
       </c>
-      <c r="H38" t="n" s="5">
-        <v>11.0</v>
-      </c>
-      <c r="K38" s="39"/>
-      <c r="M38" s="27"/>
-      <c r="T38" s="39"/>
-      <c r="V38" t="s" s="35">
-        <v>75</v>
-      </c>
-      <c r="W38" t="s" s="5">
-        <v>76</v>
-      </c>
-      <c r="Y38" t="n" s="5">
-        <v>98.0</v>
-      </c>
-      <c r="Z38" t="n" s="5">
-        <v>11.0</v>
-      </c>
-      <c r="AC38" s="39"/>
-      <c r="AE38" s="27"/>
-      <c r="AL38" s="39"/>
+      <c r="AI38" t="n" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="AJ38" t="n" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AL38" s="36"/>
     </row>
     <row r="39">
       <c r="B39" s="23"/>
-      <c r="C39" t="s" s="106">
-        <v>14</v>
-      </c>
-      <c r="D39" t="s" s="50">
+      <c r="C39" t="s" s="105">
+        <v>7</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="K39" s="36"/>
+      <c r="M39" t="s" s="49">
+        <v>63</v>
+      </c>
+      <c r="N39" t="s" s="5">
+        <v>64</v>
+      </c>
+      <c r="P39" t="n" s="5">
+        <v>98.0</v>
+      </c>
+      <c r="Q39" t="n" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="T39" s="36"/>
+      <c r="V39" s="27"/>
+      <c r="AC39" s="36"/>
+      <c r="AE39" t="s" s="49">
+        <v>75</v>
+      </c>
+      <c r="AF39" t="s" s="5">
+        <v>76</v>
+      </c>
+      <c r="AH39" t="n" s="5">
+        <v>98.0</v>
+      </c>
+      <c r="AI39" t="n" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="AL39" s="36"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="23"/>
+      <c r="C40" t="s" s="106">
+        <v>8</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="K40" s="36"/>
+      <c r="M40" t="s" s="50">
         <v>65</v>
       </c>
-      <c r="E39" t="s" s="9">
+      <c r="N40" t="s" s="9">
         <v>66</v>
       </c>
-      <c r="H39" t="n" s="9">
+      <c r="Q40" t="n" s="9">
         <v>11.0</v>
       </c>
-      <c r="K39" s="39"/>
-      <c r="M39" s="27"/>
-      <c r="T39" s="39"/>
-      <c r="V39" t="s" s="50">
+      <c r="T40" s="36"/>
+      <c r="V40" s="27"/>
+      <c r="AC40" s="36"/>
+      <c r="AE40" t="s" s="50">
         <v>77</v>
       </c>
-      <c r="W39" t="s" s="9">
+      <c r="AF40" t="s" s="9">
         <v>78</v>
       </c>
-      <c r="Z39" t="n" s="9">
+      <c r="AI40" t="n" s="9">
         <v>15.0</v>
       </c>
-      <c r="AC39" s="39"/>
-      <c r="AE39" s="27"/>
-      <c r="AL39" s="39"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" t="s" s="92">
+      <c r="AL40" s="36"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="42"/>
+      <c r="M41" t="s" s="88">
         <v>67</v>
       </c>
-      <c r="E40" t="s" s="93">
+      <c r="N41" t="s" s="89">
         <v>68</v>
       </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" t="n" s="93">
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" t="n" s="89">
         <v>12.0</v>
       </c>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="44"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="44"/>
-      <c r="V40" t="s" s="92">
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="42"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="41"/>
+      <c r="AB41" s="41"/>
+      <c r="AC41" s="42"/>
+      <c r="AE41" t="s" s="88">
         <v>79</v>
       </c>
-      <c r="W40" t="s" s="93">
+      <c r="AF41" t="s" s="89">
         <v>80</v>
       </c>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="43"/>
-      <c r="Z40" t="n" s="93">
+      <c r="AG41" s="41"/>
+      <c r="AH41" s="41"/>
+      <c r="AI41" t="n" s="89">
         <v>26.0</v>
       </c>
-      <c r="AA40" s="43"/>
-      <c r="AB40" s="43"/>
-      <c r="AC40" s="44"/>
-      <c r="AE40" s="41"/>
-      <c r="AF40" s="43"/>
-      <c r="AG40" s="43"/>
-      <c r="AH40" s="43"/>
-      <c r="AI40" s="43"/>
-      <c r="AJ40" s="43"/>
-      <c r="AK40" s="43"/>
-      <c r="AL40" s="44"/>
-    </row>
-    <row r="42">
-      <c r="B42" t="s" s="22">
-        <v>16</v>
-      </c>
-      <c r="C42" s="24"/>
-      <c r="D42" t="s" s="127">
+      <c r="AJ41" s="41"/>
+      <c r="AK41" s="41"/>
+      <c r="AL41" s="42"/>
+    </row>
+    <row r="43">
+      <c r="B43" t="s" s="22">
+        <v>10</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" t="s" s="127">
         <v>0</v>
       </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" t="s" s="130">
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" t="s" s="130">
         <v>1</v>
       </c>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="37"/>
-      <c r="M42" t="s" s="136">
-        <v>17</v>
-      </c>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" t="s" s="137">
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="34"/>
+      <c r="M43" t="s" s="136">
+        <v>11</v>
+      </c>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" t="s" s="137">
         <v>1</v>
       </c>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="37"/>
-      <c r="V42" t="s" s="141">
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="34"/>
+      <c r="V43" t="s" s="141">
         <v>26</v>
       </c>
-      <c r="W42" s="26"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" t="s" s="140">
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" t="s" s="140">
         <v>1</v>
       </c>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="37"/>
-      <c r="AE42" t="s" s="144">
-        <v>35</v>
-      </c>
-      <c r="AF42" s="26"/>
-      <c r="AG42" s="26"/>
-      <c r="AH42" t="s" s="145">
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="26"/>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="34"/>
+      <c r="AE43" t="s" s="144">
+        <v>27</v>
+      </c>
+      <c r="AF43" s="26"/>
+      <c r="AG43" s="26"/>
+      <c r="AH43" t="s" s="145">
         <v>1</v>
       </c>
-      <c r="AI42" s="26"/>
-      <c r="AJ42" s="26"/>
-      <c r="AK42" s="26"/>
-      <c r="AL42" s="37"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="27"/>
-      <c r="G43" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="K43" t="n" s="39">
-        <v>104.0</v>
-      </c>
-      <c r="M43" s="27"/>
-      <c r="P43" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="T43" t="n" s="39">
-        <v>104.0</v>
-      </c>
-      <c r="V43" s="27"/>
-      <c r="Y43" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="AC43" t="n" s="39">
-        <v>104.0</v>
-      </c>
-      <c r="AE43" s="27"/>
-      <c r="AH43" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="AL43" t="n" s="39">
-        <v>104.0</v>
-      </c>
+      <c r="AI43" s="26"/>
+      <c r="AJ43" s="26"/>
+      <c r="AK43" s="26"/>
+      <c r="AL43" s="34"/>
     </row>
     <row r="44">
       <c r="B44" s="23"/>
-      <c r="C44" t="s" s="128">
-        <v>5</v>
-      </c>
-      <c r="D44" t="s" s="49">
-        <v>81</v>
-      </c>
-      <c r="E44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I44" t="n" s="2">
-        <v>56.0</v>
-      </c>
-      <c r="K44" s="39"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="27"/>
+      <c r="G44" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="K44" t="n" s="36">
+        <v>104.0</v>
+      </c>
       <c r="M44" s="27"/>
-      <c r="T44" s="39"/>
+      <c r="P44" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="T44" t="n" s="36">
+        <v>104.0</v>
+      </c>
       <c r="V44" s="27"/>
-      <c r="AC44" s="39"/>
+      <c r="Y44" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AC44" t="n" s="36">
+        <v>104.0</v>
+      </c>
       <c r="AE44" s="27"/>
-      <c r="AL44" s="39"/>
+      <c r="AH44" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AL44" t="n" s="36">
+        <v>104.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="B45" s="23"/>
-      <c r="C45" t="s" s="129">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s" s="33">
-        <v>83</v>
-      </c>
-      <c r="E45" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="G45" t="n" s="3">
-        <v>98.0</v>
-      </c>
-      <c r="H45" t="n" s="3">
-        <v>38.0</v>
-      </c>
-      <c r="K45" s="39"/>
-      <c r="M45" s="27"/>
-      <c r="T45" s="39"/>
-      <c r="V45" t="s" s="33">
-        <v>95</v>
-      </c>
-      <c r="W45" t="s" s="3">
-        <v>96</v>
-      </c>
-      <c r="Y45" t="n" s="3">
-        <v>98.0</v>
-      </c>
-      <c r="Z45" t="n" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="AA45" t="n" s="3">
-        <v>65.0</v>
-      </c>
-      <c r="AB45" t="n" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="AC45" s="39"/>
+      <c r="C45" t="s" s="128">
+        <v>3</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="K45" s="36"/>
+      <c r="M45" t="s" s="31">
+        <v>81</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R45" t="n" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="T45" s="36"/>
+      <c r="V45" s="27"/>
+      <c r="AC45" s="36"/>
       <c r="AE45" s="27"/>
-      <c r="AL45" s="39"/>
+      <c r="AL45" s="36"/>
     </row>
     <row r="46">
       <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" t="s" s="33">
-        <v>85</v>
-      </c>
-      <c r="E46" t="s" s="3">
-        <v>86</v>
-      </c>
-      <c r="G46" t="n" s="3">
+      <c r="C46" t="s" s="129">
+        <v>6</v>
+      </c>
+      <c r="D46" s="27"/>
+      <c r="K46" s="36"/>
+      <c r="M46" t="s" s="48">
+        <v>83</v>
+      </c>
+      <c r="N46" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="P46" t="n" s="3">
         <v>98.0</v>
       </c>
-      <c r="H46" t="n" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="K46" s="39"/>
-      <c r="M46" s="27"/>
-      <c r="T46" s="39"/>
+      <c r="Q46" t="n" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="T46" s="36"/>
       <c r="V46" s="27"/>
-      <c r="AC46" s="39"/>
-      <c r="AE46" s="27"/>
-      <c r="AL46" s="39"/>
+      <c r="AC46" s="36"/>
+      <c r="AE46" t="s" s="48">
+        <v>95</v>
+      </c>
+      <c r="AF46" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="AH46" t="n" s="3">
+        <v>98.0</v>
+      </c>
+      <c r="AI46" t="n" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="AJ46" t="n" s="3">
+        <v>65.0</v>
+      </c>
+      <c r="AK46" t="n" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="AL46" s="36"/>
     </row>
     <row r="47">
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
-      <c r="D47" t="s" s="33">
-        <v>87</v>
-      </c>
-      <c r="E47" t="s" s="3">
-        <v>88</v>
-      </c>
-      <c r="H47" t="n" s="3">
-        <v>38.0</v>
-      </c>
-      <c r="K47" s="39"/>
-      <c r="M47" s="27"/>
-      <c r="T47" s="39"/>
+      <c r="D47" s="27"/>
+      <c r="K47" s="36"/>
+      <c r="M47" t="s" s="48">
+        <v>85</v>
+      </c>
+      <c r="N47" t="s" s="3">
+        <v>86</v>
+      </c>
+      <c r="P47" t="n" s="3">
+        <v>98.0</v>
+      </c>
+      <c r="Q47" t="n" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="T47" s="36"/>
       <c r="V47" s="27"/>
-      <c r="AC47" s="39"/>
+      <c r="AC47" s="36"/>
       <c r="AE47" s="27"/>
-      <c r="AL47" s="39"/>
+      <c r="AL47" s="36"/>
     </row>
     <row r="48">
       <c r="B48" s="23"/>
-      <c r="C48" t="s" s="131">
-        <v>11</v>
-      </c>
+      <c r="C48" s="23"/>
       <c r="D48" s="27"/>
-      <c r="K48" s="39"/>
-      <c r="M48" s="27"/>
-      <c r="T48" s="39"/>
-      <c r="V48" t="s" s="35">
-        <v>97</v>
-      </c>
-      <c r="W48" t="s" s="5">
-        <v>98</v>
-      </c>
-      <c r="Y48" t="n" s="5">
-        <v>98.0</v>
-      </c>
-      <c r="Z48" t="n" s="5">
-        <v>11.0</v>
-      </c>
-      <c r="AC48" s="39"/>
+      <c r="K48" s="36"/>
+      <c r="M48" t="s" s="48">
+        <v>87</v>
+      </c>
+      <c r="N48" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="Q48" t="n" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="T48" s="36"/>
+      <c r="V48" s="27"/>
+      <c r="AC48" s="36"/>
       <c r="AE48" s="27"/>
-      <c r="AL48" s="39"/>
+      <c r="AL48" s="36"/>
     </row>
     <row r="49">
       <c r="B49" s="23"/>
-      <c r="C49" t="s" s="132">
-        <v>40</v>
-      </c>
-      <c r="D49" t="s" s="83">
-        <v>89</v>
-      </c>
-      <c r="E49" t="s" s="7">
-        <v>90</v>
-      </c>
-      <c r="H49" t="n" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="K49" s="39"/>
+      <c r="C49" t="s" s="131">
+        <v>7</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="K49" s="36"/>
       <c r="M49" s="27"/>
-      <c r="T49" s="39"/>
+      <c r="T49" s="36"/>
       <c r="V49" s="27"/>
-      <c r="AC49" s="39"/>
-      <c r="AE49" s="27"/>
-      <c r="AL49" s="39"/>
+      <c r="AC49" s="36"/>
+      <c r="AE49" t="s" s="49">
+        <v>97</v>
+      </c>
+      <c r="AF49" t="s" s="5">
+        <v>98</v>
+      </c>
+      <c r="AH49" t="n" s="5">
+        <v>98.0</v>
+      </c>
+      <c r="AI49" t="n" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="AL49" s="36"/>
     </row>
     <row r="50">
       <c r="B50" s="23"/>
-      <c r="C50" t="s" s="133">
-        <v>14</v>
-      </c>
-      <c r="D50" t="s" s="50">
+      <c r="C50" t="s" s="132">
+        <v>38</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="K50" s="36"/>
+      <c r="M50" t="s" s="83">
+        <v>89</v>
+      </c>
+      <c r="N50" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q50" t="n" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="T50" s="36"/>
+      <c r="V50" s="27"/>
+      <c r="AC50" s="36"/>
+      <c r="AE50" s="27"/>
+      <c r="AL50" s="36"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="23"/>
+      <c r="C51" t="s" s="133">
+        <v>8</v>
+      </c>
+      <c r="D51" s="27"/>
+      <c r="K51" s="36"/>
+      <c r="M51" t="s" s="50">
         <v>91</v>
       </c>
-      <c r="E50" t="s" s="9">
+      <c r="N51" t="s" s="9">
         <v>92</v>
       </c>
-      <c r="H50" t="n" s="9">
+      <c r="Q51" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="K50" s="39"/>
-      <c r="M50" s="27"/>
-      <c r="T50" s="39"/>
-      <c r="V50" s="27"/>
-      <c r="AC50" s="39"/>
-      <c r="AE50" s="27"/>
-      <c r="AL50" s="39"/>
-    </row>
-    <row r="51">
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" t="s" s="92">
+      <c r="T51" s="36"/>
+      <c r="V51" s="27"/>
+      <c r="AC51" s="36"/>
+      <c r="AE51" s="27"/>
+      <c r="AL51" s="36"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="42"/>
+      <c r="M52" t="s" s="88">
         <v>93</v>
       </c>
-      <c r="E51" t="s" s="93">
+      <c r="N52" t="s" s="89">
         <v>94</v>
       </c>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" t="n" s="93">
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" t="n" s="89">
         <v>13.0</v>
       </c>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="44"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="44"/>
-      <c r="V51" s="41"/>
-      <c r="W51" s="43"/>
-      <c r="X51" s="43"/>
-      <c r="Y51" s="43"/>
-      <c r="Z51" s="43"/>
-      <c r="AA51" s="43"/>
-      <c r="AB51" s="43"/>
-      <c r="AC51" s="44"/>
-      <c r="AE51" s="41"/>
-      <c r="AF51" s="43"/>
-      <c r="AG51" s="43"/>
-      <c r="AH51" s="43"/>
-      <c r="AI51" s="43"/>
-      <c r="AJ51" s="43"/>
-      <c r="AK51" s="43"/>
-      <c r="AL51" s="44"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="42"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="41"/>
+      <c r="X52" s="41"/>
+      <c r="Y52" s="41"/>
+      <c r="Z52" s="41"/>
+      <c r="AA52" s="41"/>
+      <c r="AB52" s="41"/>
+      <c r="AC52" s="42"/>
+      <c r="AE52" s="39"/>
+      <c r="AF52" s="41"/>
+      <c r="AG52" s="41"/>
+      <c r="AH52" s="41"/>
+      <c r="AI52" s="41"/>
+      <c r="AJ52" s="41"/>
+      <c r="AK52" s="41"/>
+      <c r="AL52" s="42"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="D11:F12"/>
     <mergeCell ref="G11:K11"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B11:B21"/>
     <mergeCell ref="M11:O12"/>
     <mergeCell ref="P11:T11"/>
     <mergeCell ref="V11:X12"/>
     <mergeCell ref="Y11:AC11"/>
     <mergeCell ref="AE11:AG12"/>
     <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="D22:F23"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="M22:O23"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="V22:X23"/>
-    <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="AE22:AG23"/>
-    <mergeCell ref="AH22:AL22"/>
-    <mergeCell ref="D32:F33"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="M32:O33"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="V32:X33"/>
-    <mergeCell ref="Y32:AC32"/>
-    <mergeCell ref="AE32:AG33"/>
-    <mergeCell ref="AH32:AL32"/>
-    <mergeCell ref="D42:F43"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="M42:O43"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="V42:X43"/>
-    <mergeCell ref="Y42:AC42"/>
-    <mergeCell ref="AE42:AG43"/>
-    <mergeCell ref="AH42:AL42"/>
+    <mergeCell ref="D23:F24"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="M23:O24"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="V23:X24"/>
+    <mergeCell ref="Y23:AC23"/>
+    <mergeCell ref="AE23:AG24"/>
+    <mergeCell ref="AH23:AL23"/>
+    <mergeCell ref="D33:F34"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="M33:O34"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="V33:X34"/>
+    <mergeCell ref="Y33:AC33"/>
+    <mergeCell ref="AE33:AG34"/>
+    <mergeCell ref="AH33:AL33"/>
+    <mergeCell ref="D43:F44"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="M43:O44"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="V43:X44"/>
+    <mergeCell ref="Y43:AC43"/>
+    <mergeCell ref="AE43:AG44"/>
+    <mergeCell ref="AH43:AL43"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -80,18 +80,18 @@
     <t>Enterprise Computing</t>
   </si>
   <si>
+    <t>IT543</t>
+  </si>
+  <si>
+    <t>Adv. Logic for Computer Science</t>
+  </si>
+  <si>
     <t>CT513</t>
   </si>
   <si>
     <t>Detection and Estimation Theory</t>
   </si>
   <si>
-    <t>IT543</t>
-  </si>
-  <si>
-    <t>Adv. Logic for Computer Science</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 14:00 - 16:00 </t>
   </si>
   <si>
@@ -191,16 +191,16 @@
     <t>Analog and Digital Communication</t>
   </si>
   <si>
+    <t>CT314</t>
+  </si>
+  <si>
+    <t>Statistical Communication Theory (GE)</t>
+  </si>
+  <si>
     <t>SC332</t>
   </si>
   <si>
     <t>Introduction to Quantum Mechanics</t>
-  </si>
-  <si>
-    <t>CT314</t>
-  </si>
-  <si>
-    <t>Statistical Communication Theory (GE)</t>
   </si>
   <si>
     <t>IT616</t>
@@ -1351,7 +1351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
@@ -1495,6 +1495,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1871,24 +1875,24 @@
       <c r="R11" s="26"/>
       <c r="S11" s="26"/>
       <c r="T11" s="34"/>
-      <c r="V11" t="s" s="54">
+      <c r="V11" t="s" s="55">
         <v>26</v>
       </c>
       <c r="W11" s="26"/>
       <c r="X11" s="26"/>
-      <c r="Y11" t="s" s="55">
+      <c r="Y11" t="s" s="56">
         <v>1</v>
       </c>
       <c r="Z11" s="26"/>
       <c r="AA11" s="26"/>
       <c r="AB11" s="26"/>
       <c r="AC11" s="34"/>
-      <c r="AE11" t="s" s="58">
+      <c r="AE11" t="s" s="59">
         <v>27</v>
       </c>
       <c r="AF11" s="26"/>
       <c r="AG11" s="26"/>
-      <c r="AH11" t="s" s="59">
+      <c r="AH11" t="s" s="60">
         <v>1</v>
       </c>
       <c r="AI11" s="26"/>
@@ -2062,7 +2066,7 @@
       <c r="N15" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="S15" t="n" s="3">
+      <c r="Q15" t="n" s="3">
         <v>42.0</v>
       </c>
       <c r="T15" s="36"/>
@@ -2157,8 +2161,8 @@
       <c r="N19" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="Q19" t="n" s="9">
-        <v>6.0</v>
+      <c r="S19" t="n" s="9">
+        <v>15.0</v>
       </c>
       <c r="T19" s="36"/>
       <c r="V19" s="27"/>
@@ -2185,10 +2189,9 @@
       <c r="N20" t="s" s="9">
         <v>25</v>
       </c>
-      <c r="Q20" t="n" s="9">
-        <v>15.0</v>
-      </c>
-      <c r="T20" s="36"/>
+      <c r="T20" t="n" s="52">
+        <v>6.0</v>
+      </c>
       <c r="V20" s="27"/>
       <c r="AC20" s="36"/>
       <c r="AE20" s="27"/>
@@ -2223,15 +2226,15 @@
       <c r="AA21" s="41"/>
       <c r="AB21" s="41"/>
       <c r="AC21" s="42"/>
-      <c r="AE21" t="s" s="60">
+      <c r="AE21" t="s" s="61">
         <v>34</v>
       </c>
-      <c r="AF21" t="s" s="61">
+      <c r="AF21" t="s" s="62">
         <v>35</v>
       </c>
       <c r="AG21" s="41"/>
       <c r="AH21" s="41"/>
-      <c r="AI21" t="n" s="61">
+      <c r="AI21" t="n" s="62">
         <v>12.0</v>
       </c>
       <c r="AJ21" s="41"/>
@@ -2243,48 +2246,48 @@
         <v>10</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" t="s" s="71">
+      <c r="D23" t="s" s="72">
         <v>0</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
-      <c r="G23" t="s" s="74">
+      <c r="G23" t="s" s="75">
         <v>1</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="34"/>
-      <c r="M23" t="s" s="81">
+      <c r="M23" t="s" s="82">
         <v>11</v>
       </c>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
-      <c r="P23" t="s" s="82">
+      <c r="P23" t="s" s="83">
         <v>1</v>
       </c>
       <c r="Q23" s="26"/>
       <c r="R23" s="26"/>
       <c r="S23" s="26"/>
       <c r="T23" s="34"/>
-      <c r="V23" t="s" s="86">
+      <c r="V23" t="s" s="87">
         <v>26</v>
       </c>
       <c r="W23" s="26"/>
       <c r="X23" s="26"/>
-      <c r="Y23" t="s" s="87">
+      <c r="Y23" t="s" s="88">
         <v>1</v>
       </c>
       <c r="Z23" s="26"/>
       <c r="AA23" s="26"/>
       <c r="AB23" s="26"/>
       <c r="AC23" s="34"/>
-      <c r="AE23" t="s" s="92">
+      <c r="AE23" t="s" s="93">
         <v>27</v>
       </c>
       <c r="AF23" s="26"/>
       <c r="AG23" s="26"/>
-      <c r="AH23" t="s" s="93">
+      <c r="AH23" t="s" s="94">
         <v>1</v>
       </c>
       <c r="AI23" s="26"/>
@@ -2362,7 +2365,7 @@
     </row>
     <row r="25">
       <c r="B25" s="23"/>
-      <c r="C25" t="s" s="72">
+      <c r="C25" t="s" s="73">
         <v>2</v>
       </c>
       <c r="D25" s="27"/>
@@ -2414,7 +2417,7 @@
     </row>
     <row r="26">
       <c r="B26" s="23"/>
-      <c r="C26" t="s" s="73">
+      <c r="C26" t="s" s="74">
         <v>3</v>
       </c>
       <c r="D26" t="s" s="31">
@@ -2466,7 +2469,7 @@
     </row>
     <row r="27">
       <c r="B27" s="23"/>
-      <c r="C27" t="s" s="75">
+      <c r="C27" t="s" s="76">
         <v>6</v>
       </c>
       <c r="D27" s="27"/>
@@ -2525,7 +2528,7 @@
     </row>
     <row r="29">
       <c r="B29" s="23"/>
-      <c r="C29" t="s" s="76">
+      <c r="C29" t="s" s="77">
         <v>7</v>
       </c>
       <c r="D29" s="27"/>
@@ -2553,12 +2556,12 @@
     </row>
     <row r="30">
       <c r="B30" s="23"/>
-      <c r="C30" t="s" s="77">
+      <c r="C30" t="s" s="78">
         <v>38</v>
       </c>
       <c r="D30" s="27"/>
       <c r="K30" s="36"/>
-      <c r="M30" t="s" s="83">
+      <c r="M30" t="s" s="84">
         <v>43</v>
       </c>
       <c r="N30" t="s" s="7">
@@ -2575,7 +2578,7 @@
     </row>
     <row r="31">
       <c r="B31" s="37"/>
-      <c r="C31" t="s" s="78">
+      <c r="C31" t="s" s="79">
         <v>8</v>
       </c>
       <c r="D31" s="39"/>
@@ -2594,14 +2597,14 @@
       <c r="R31" s="41"/>
       <c r="S31" s="41"/>
       <c r="T31" s="42"/>
-      <c r="V31" t="s" s="88">
+      <c r="V31" t="s" s="89">
         <v>47</v>
       </c>
-      <c r="W31" t="s" s="89">
+      <c r="W31" t="s" s="90">
         <v>48</v>
       </c>
       <c r="X31" s="41"/>
-      <c r="Y31" t="n" s="89">
+      <c r="Y31" t="n" s="90">
         <v>70.0</v>
       </c>
       <c r="Z31" s="41"/>
@@ -2622,48 +2625,48 @@
         <v>10</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" t="s" s="101">
+      <c r="D33" t="s" s="102">
         <v>0</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
-      <c r="G33" t="s" s="104">
+      <c r="G33" t="s" s="105">
         <v>1</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
       <c r="J33" s="26"/>
       <c r="K33" s="34"/>
-      <c r="M33" t="s" s="109">
+      <c r="M33" t="s" s="110">
         <v>11</v>
       </c>
       <c r="N33" s="26"/>
       <c r="O33" s="26"/>
-      <c r="P33" t="s" s="110">
+      <c r="P33" t="s" s="111">
         <v>1</v>
       </c>
       <c r="Q33" s="26"/>
       <c r="R33" s="26"/>
       <c r="S33" s="26"/>
       <c r="T33" s="34"/>
-      <c r="V33" t="s" s="113">
+      <c r="V33" t="s" s="114">
         <v>26</v>
       </c>
       <c r="W33" s="26"/>
       <c r="X33" s="26"/>
-      <c r="Y33" t="s" s="114">
+      <c r="Y33" t="s" s="115">
         <v>1</v>
       </c>
       <c r="Z33" s="26"/>
       <c r="AA33" s="26"/>
       <c r="AB33" s="26"/>
       <c r="AC33" s="34"/>
-      <c r="AE33" t="s" s="118">
+      <c r="AE33" t="s" s="119">
         <v>27</v>
       </c>
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
-      <c r="AH33" t="s" s="117">
+      <c r="AH33" t="s" s="118">
         <v>1</v>
       </c>
       <c r="AI33" s="26"/>
@@ -2741,7 +2744,7 @@
     </row>
     <row r="35">
       <c r="B35" s="23"/>
-      <c r="C35" t="s" s="102">
+      <c r="C35" t="s" s="103">
         <v>3</v>
       </c>
       <c r="D35" s="27"/>
@@ -2774,7 +2777,7 @@
     </row>
     <row r="36">
       <c r="B36" s="23"/>
-      <c r="C36" t="s" s="103">
+      <c r="C36" t="s" s="104">
         <v>6</v>
       </c>
       <c r="D36" s="27"/>
@@ -2785,8 +2788,8 @@
       <c r="N36" t="s" s="3">
         <v>60</v>
       </c>
-      <c r="R36" t="n" s="3">
-        <v>61.0</v>
+      <c r="Q36" t="n" s="3">
+        <v>33.0</v>
       </c>
       <c r="T36" s="36"/>
       <c r="V36" s="27"/>
@@ -2813,8 +2816,8 @@
       <c r="N37" t="s" s="3">
         <v>62</v>
       </c>
-      <c r="S37" t="n" s="3">
-        <v>33.0</v>
+      <c r="R37" t="n" s="3">
+        <v>61.0</v>
       </c>
       <c r="T37" s="36"/>
       <c r="V37" s="27"/>
@@ -2858,7 +2861,7 @@
     </row>
     <row r="39">
       <c r="B39" s="23"/>
-      <c r="C39" t="s" s="105">
+      <c r="C39" t="s" s="106">
         <v>7</v>
       </c>
       <c r="D39" s="27"/>
@@ -2894,7 +2897,7 @@
     </row>
     <row r="40">
       <c r="B40" s="23"/>
-      <c r="C40" t="s" s="106">
+      <c r="C40" t="s" s="107">
         <v>8</v>
       </c>
       <c r="D40" s="27"/>
@@ -2905,10 +2908,9 @@
       <c r="N40" t="s" s="9">
         <v>66</v>
       </c>
-      <c r="Q40" t="n" s="9">
+      <c r="T40" t="n" s="52">
         <v>11.0</v>
       </c>
-      <c r="T40" s="36"/>
       <c r="V40" s="27"/>
       <c r="AC40" s="36"/>
       <c r="AE40" t="s" s="50">
@@ -2933,19 +2935,19 @@
       <c r="I41" s="41"/>
       <c r="J41" s="41"/>
       <c r="K41" s="42"/>
-      <c r="M41" t="s" s="88">
+      <c r="M41" t="s" s="89">
         <v>67</v>
       </c>
-      <c r="N41" t="s" s="89">
+      <c r="N41" t="s" s="90">
         <v>68</v>
       </c>
       <c r="O41" s="41"/>
       <c r="P41" s="41"/>
-      <c r="Q41" t="n" s="89">
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" t="n" s="90">
         <v>12.0</v>
       </c>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
       <c r="T41" s="42"/>
       <c r="V41" s="39"/>
       <c r="W41" s="41"/>
@@ -2955,15 +2957,15 @@
       <c r="AA41" s="41"/>
       <c r="AB41" s="41"/>
       <c r="AC41" s="42"/>
-      <c r="AE41" t="s" s="88">
+      <c r="AE41" t="s" s="89">
         <v>79</v>
       </c>
-      <c r="AF41" t="s" s="89">
+      <c r="AF41" t="s" s="90">
         <v>80</v>
       </c>
       <c r="AG41" s="41"/>
       <c r="AH41" s="41"/>
-      <c r="AI41" t="n" s="89">
+      <c r="AI41" t="n" s="90">
         <v>26.0</v>
       </c>
       <c r="AJ41" s="41"/>
@@ -2975,48 +2977,48 @@
         <v>10</v>
       </c>
       <c r="C43" s="24"/>
-      <c r="D43" t="s" s="127">
+      <c r="D43" t="s" s="128">
         <v>0</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
-      <c r="G43" t="s" s="130">
+      <c r="G43" t="s" s="131">
         <v>1</v>
       </c>
       <c r="H43" s="26"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="34"/>
-      <c r="M43" t="s" s="136">
+      <c r="M43" t="s" s="137">
         <v>11</v>
       </c>
       <c r="N43" s="26"/>
       <c r="O43" s="26"/>
-      <c r="P43" t="s" s="137">
+      <c r="P43" t="s" s="138">
         <v>1</v>
       </c>
       <c r="Q43" s="26"/>
       <c r="R43" s="26"/>
       <c r="S43" s="26"/>
       <c r="T43" s="34"/>
-      <c r="V43" t="s" s="141">
+      <c r="V43" t="s" s="142">
         <v>26</v>
       </c>
       <c r="W43" s="26"/>
       <c r="X43" s="26"/>
-      <c r="Y43" t="s" s="140">
+      <c r="Y43" t="s" s="141">
         <v>1</v>
       </c>
       <c r="Z43" s="26"/>
       <c r="AA43" s="26"/>
       <c r="AB43" s="26"/>
       <c r="AC43" s="34"/>
-      <c r="AE43" t="s" s="144">
+      <c r="AE43" t="s" s="145">
         <v>27</v>
       </c>
       <c r="AF43" s="26"/>
       <c r="AG43" s="26"/>
-      <c r="AH43" t="s" s="145">
+      <c r="AH43" t="s" s="146">
         <v>1</v>
       </c>
       <c r="AI43" s="26"/>
@@ -3094,7 +3096,7 @@
     </row>
     <row r="45">
       <c r="B45" s="23"/>
-      <c r="C45" t="s" s="128">
+      <c r="C45" t="s" s="129">
         <v>3</v>
       </c>
       <c r="D45" s="27"/>
@@ -3116,7 +3118,7 @@
     </row>
     <row r="46">
       <c r="B46" s="23"/>
-      <c r="C46" t="s" s="129">
+      <c r="C46" t="s" s="130">
         <v>6</v>
       </c>
       <c r="D46" s="27"/>
@@ -3201,7 +3203,7 @@
     </row>
     <row r="49">
       <c r="B49" s="23"/>
-      <c r="C49" t="s" s="131">
+      <c r="C49" t="s" s="132">
         <v>7</v>
       </c>
       <c r="D49" s="27"/>
@@ -3226,12 +3228,12 @@
     </row>
     <row r="50">
       <c r="B50" s="23"/>
-      <c r="C50" t="s" s="132">
+      <c r="C50" t="s" s="133">
         <v>38</v>
       </c>
       <c r="D50" s="27"/>
       <c r="K50" s="36"/>
-      <c r="M50" t="s" s="83">
+      <c r="M50" t="s" s="84">
         <v>89</v>
       </c>
       <c r="N50" t="s" s="7">
@@ -3248,7 +3250,7 @@
     </row>
     <row r="51">
       <c r="B51" s="23"/>
-      <c r="C51" t="s" s="133">
+      <c r="C51" t="s" s="134">
         <v>8</v>
       </c>
       <c r="D51" s="27"/>
@@ -3279,15 +3281,15 @@
       <c r="I52" s="41"/>
       <c r="J52" s="41"/>
       <c r="K52" s="42"/>
-      <c r="M52" t="s" s="88">
+      <c r="M52" t="s" s="89">
         <v>93</v>
       </c>
-      <c r="N52" t="s" s="89">
+      <c r="N52" t="s" s="90">
         <v>94</v>
       </c>
       <c r="O52" s="41"/>
       <c r="P52" s="41"/>
-      <c r="Q52" t="n" s="89">
+      <c r="Q52" t="n" s="90">
         <v>13.0</v>
       </c>
       <c r="R52" s="41"/>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="140">
   <si>
     <t xml:space="preserve"> 08:30 - 10:30 </t>
   </si>
@@ -32,6 +32,22 @@
     <t>Analog Circuits</t>
   </si>
   <si>
+    <t>98
+[right]</t>
+  </si>
+  <si>
+    <t>60
+[right]</t>
+  </si>
+  <si>
+    <t>65
+[right]</t>
+  </si>
+  <si>
+    <t>19
+[right]</t>
+  </si>
+  <si>
     <t>BTech-III</t>
   </si>
   <si>
@@ -56,42 +72,74 @@
     <t>Digital Logic Design</t>
   </si>
   <si>
+    <t>28
+[right]</t>
+  </si>
+  <si>
     <t>EL426</t>
   </si>
   <si>
     <t>Digital System Architecture (GE)</t>
   </si>
   <si>
+    <t>42
+[left]</t>
+  </si>
+  <si>
     <t>IT483</t>
   </si>
   <si>
     <t>Computational Electromagnetics</t>
   </si>
   <si>
+    <t>1
+[left]</t>
+  </si>
+  <si>
     <t>IT478</t>
   </si>
   <si>
     <t>Internet of Things</t>
   </si>
   <si>
+    <t>60
+[left]</t>
+  </si>
+  <si>
     <t>IT618</t>
   </si>
   <si>
     <t>Enterprise Computing</t>
   </si>
   <si>
+    <t>98
+[left]</t>
+  </si>
+  <si>
+    <t>14
+[left]</t>
+  </si>
+  <si>
     <t>IT543</t>
   </si>
   <si>
     <t>Adv. Logic for Computer Science</t>
   </si>
   <si>
+    <t>15
+[left]</t>
+  </si>
+  <si>
     <t>CT513</t>
   </si>
   <si>
     <t>Detection and Estimation Theory</t>
   </si>
   <si>
+    <t>6
+[left]</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 14:00 - 16:00 </t>
   </si>
   <si>
@@ -104,6 +152,10 @@
     <t>Environmental Studies</t>
   </si>
   <si>
+    <t>14
+[right]</t>
+  </si>
+  <si>
     <t>SC465</t>
   </si>
   <si>
@@ -122,12 +174,20 @@
     <t>Introduction to Narratology</t>
   </si>
   <si>
+    <t>12
+[left]</t>
+  </si>
+  <si>
     <t>SC215</t>
   </si>
   <si>
     <t>Probability and Statistics</t>
   </si>
   <si>
+    <t>13
+[right]</t>
+  </si>
+  <si>
     <t>MScICTARD-I</t>
   </si>
   <si>
@@ -137,54 +197,102 @@
     <t>Discrete Mathematics</t>
   </si>
   <si>
+    <t>27
+[right]</t>
+  </si>
+  <si>
     <t>IT314</t>
   </si>
   <si>
     <t>Software Engineering</t>
   </si>
   <si>
+    <t>65
+[left]</t>
+  </si>
+  <si>
+    <t>54
+[left]</t>
+  </si>
+  <si>
     <t>IT664</t>
   </si>
   <si>
     <t>Remote Sensing and GIS</t>
   </si>
   <si>
+    <t>4
+[left]</t>
+  </si>
+  <si>
     <t>IT215</t>
   </si>
   <si>
     <t>Systems Software</t>
   </si>
   <si>
+    <t>15
+[right]</t>
+  </si>
+  <si>
     <t>HM501</t>
   </si>
   <si>
     <t>Communications Skills</t>
   </si>
   <si>
+    <t>70
+[left]</t>
+  </si>
+  <si>
     <t>IT205</t>
   </si>
   <si>
     <t>Data Structures</t>
   </si>
   <si>
+    <t>26
+[right]</t>
+  </si>
+  <si>
     <t>EL312</t>
   </si>
   <si>
     <t>Solid State Devices</t>
   </si>
   <si>
+    <t>40
+[left]</t>
+  </si>
+  <si>
     <t>CS304</t>
   </si>
   <si>
     <t>Introduction to Nonlinear Science</t>
   </si>
   <si>
+    <t>48
+[left]</t>
+  </si>
+  <si>
     <t>IT617</t>
   </si>
   <si>
     <t>Operating Systems</t>
   </si>
   <si>
+    <t>50
+[left]</t>
+  </si>
+  <si>
+    <t>20
+[left]</t>
+  </si>
+  <si>
+    <t>43
+[left]</t>
+  </si>
+  <si>
     <t>CT214</t>
   </si>
   <si>
@@ -197,24 +305,40 @@
     <t>Statistical Communication Theory (GE)</t>
   </si>
   <si>
+    <t>33
+[left]</t>
+  </si>
+  <si>
     <t>SC332</t>
   </si>
   <si>
     <t>Introduction to Quantum Mechanics</t>
   </si>
   <si>
+    <t>61
+[left]</t>
+  </si>
+  <si>
     <t>IT616</t>
   </si>
   <si>
     <t>Analysis &amp; Design of Algorithms</t>
   </si>
   <si>
+    <t>11
+[left]</t>
+  </si>
+  <si>
     <t>IT410</t>
   </si>
   <si>
     <t>Web Data Management</t>
   </si>
   <si>
+    <t>11
+[right]</t>
+  </si>
+  <si>
     <t>CT512</t>
   </si>
   <si>
@@ -227,18 +351,30 @@
     <t>Introduction to Nanoscience and Tech.</t>
   </si>
   <si>
+    <t>64
+[left]</t>
+  </si>
+  <si>
     <t>CS302</t>
   </si>
   <si>
     <t>Modeling and Simulation</t>
   </si>
   <si>
+    <t>55
+[right]</t>
+  </si>
+  <si>
     <t>IT415</t>
   </si>
   <si>
     <t>Software Testing and Quality Analysis</t>
   </si>
   <si>
+    <t>5
+[right]</t>
+  </si>
+  <si>
     <t>IT694</t>
   </si>
   <si>
@@ -257,18 +393,30 @@
     <t>Graph Theory and Algorithms</t>
   </si>
   <si>
+    <t>26
+[left]</t>
+  </si>
+  <si>
     <t>CS201</t>
   </si>
   <si>
     <t>Introductory Computational Physics (CS only)</t>
   </si>
   <si>
+    <t>56
+[right]</t>
+  </si>
+  <si>
     <t>IT422</t>
   </si>
   <si>
     <t>Models of Computation</t>
   </si>
   <si>
+    <t>38
+[right]</t>
+  </si>
+  <si>
     <t>IT325</t>
   </si>
   <si>
@@ -281,18 +429,30 @@
     <t>Natural Computing</t>
   </si>
   <si>
+    <t>38
+[left]</t>
+  </si>
+  <si>
     <t>ES662</t>
   </si>
   <si>
     <t>Systems Approach to Sustainable Development</t>
   </si>
   <si>
+    <t>4
+[right]</t>
+  </si>
+  <si>
     <t>CT516</t>
   </si>
   <si>
     <t>Advanced Digital Communications</t>
   </si>
   <si>
+    <t>7
+[left]</t>
+  </si>
+  <si>
     <t>EL516</t>
   </si>
   <si>
@@ -303,6 +463,10 @@
   </si>
   <si>
     <t>Operating System</t>
+  </si>
+  <si>
+    <t>18
+[right]</t>
   </si>
   <si>
     <t>IT619</t>
@@ -1818,37 +1982,37 @@
     <col min="3" max="3" width="12.99609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="6.56640625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="23.0078125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="6.5859375" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="6.625" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="43.28125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="6.5859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="7.6328125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="20.984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="6.5859375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="6.69140625" customWidth="true" bestFit="true"/>
     <col min="32" max="32" width="35.75390625" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="6.5859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="11">
       <c r="B11" t="s" s="22">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" t="s" s="25">
@@ -1864,7 +2028,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="34"/>
       <c r="M11" t="s" s="45">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
@@ -1876,7 +2040,7 @@
       <c r="S11" s="26"/>
       <c r="T11" s="34"/>
       <c r="V11" t="s" s="55">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="W11" s="26"/>
       <c r="X11" s="26"/>
@@ -1888,7 +2052,7 @@
       <c r="AB11" s="26"/>
       <c r="AC11" s="34"/>
       <c r="AE11" t="s" s="59">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="AF11" s="26"/>
       <c r="AG11" s="26"/>
@@ -1976,25 +2140,25 @@
       <c r="D13" s="27"/>
       <c r="K13" s="36"/>
       <c r="M13" t="s" s="46">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N13" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="P13" t="n" s="1">
-        <v>98.0</v>
-      </c>
-      <c r="Q13" t="n" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="R13" t="n" s="1">
-        <v>65.0</v>
-      </c>
-      <c r="S13" t="n" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="T13" t="n" s="51">
-        <v>28.0</v>
+        <v>17</v>
+      </c>
+      <c r="P13" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q13" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="R13" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="S13" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="T13" t="s" s="51">
+        <v>18</v>
       </c>
       <c r="V13" s="27"/>
       <c r="AC13" s="36"/>
@@ -2012,74 +2176,74 @@
       <c r="E14" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G14" t="n" s="2">
-        <v>98.0</v>
-      </c>
-      <c r="H14" t="n" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="I14" t="n" s="2">
-        <v>65.0</v>
-      </c>
-      <c r="J14" t="n" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="K14" t="n" s="40">
-        <v>19.0</v>
+      <c r="G14" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="K14" t="s" s="40">
+        <v>9</v>
       </c>
       <c r="M14" s="27"/>
       <c r="T14" s="36"/>
       <c r="V14" s="27"/>
       <c r="AC14" s="36"/>
       <c r="AE14" t="s" s="31">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="AH14" t="n" s="2">
-        <v>98.0</v>
-      </c>
-      <c r="AI14" t="n" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="AJ14" t="n" s="2">
-        <v>65.0</v>
-      </c>
-      <c r="AK14" t="n" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="AL14" t="n" s="40">
-        <v>14.0</v>
+        <v>41</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="AL14" t="s" s="40">
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="23"/>
       <c r="C15" t="s" s="32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D15" s="27"/>
       <c r="K15" s="36"/>
       <c r="M15" t="s" s="48">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N15" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q15" t="n" s="3">
-        <v>42.0</v>
+        <v>20</v>
+      </c>
+      <c r="Q15" t="s" s="3">
+        <v>21</v>
       </c>
       <c r="T15" s="36"/>
       <c r="V15" s="27"/>
       <c r="AC15" s="36"/>
       <c r="AE15" t="s" s="48">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="AF15" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="AH15" t="n" s="3">
-        <v>14.0</v>
+        <v>44</v>
+      </c>
+      <c r="AH15" t="s" s="3">
+        <v>42</v>
       </c>
       <c r="AL15" s="36"/>
     </row>
@@ -2089,13 +2253,13 @@
       <c r="D16" s="27"/>
       <c r="K16" s="36"/>
       <c r="M16" t="s" s="48">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N16" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="Q16" t="n" s="3">
-        <v>1.0</v>
+        <v>23</v>
+      </c>
+      <c r="Q16" t="s" s="3">
+        <v>24</v>
       </c>
       <c r="T16" s="36"/>
       <c r="V16" s="27"/>
@@ -2109,13 +2273,13 @@
       <c r="D17" s="27"/>
       <c r="K17" s="36"/>
       <c r="M17" t="s" s="48">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N17" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="R17" t="n" s="3">
-        <v>60.0</v>
+        <v>26</v>
+      </c>
+      <c r="R17" t="s" s="3">
+        <v>27</v>
       </c>
       <c r="T17" s="36"/>
       <c r="V17" s="27"/>
@@ -2126,21 +2290,21 @@
     <row r="18">
       <c r="B18" s="23"/>
       <c r="C18" t="s" s="33">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D18" s="27"/>
       <c r="K18" s="36"/>
       <c r="M18" t="s" s="49">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N18" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="P18" t="n" s="5">
-        <v>98.0</v>
-      </c>
-      <c r="Q18" t="n" s="5">
-        <v>14.0</v>
+        <v>29</v>
+      </c>
+      <c r="P18" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q18" t="s" s="5">
+        <v>31</v>
       </c>
       <c r="T18" s="36"/>
       <c r="V18" s="27"/>
@@ -2151,30 +2315,30 @@
     <row r="19">
       <c r="B19" s="23"/>
       <c r="C19" t="s" s="35">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D19" s="27"/>
       <c r="K19" s="36"/>
       <c r="M19" t="s" s="50">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N19" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="S19" t="n" s="9">
-        <v>15.0</v>
+        <v>33</v>
+      </c>
+      <c r="S19" t="s" s="9">
+        <v>34</v>
       </c>
       <c r="T19" s="36"/>
       <c r="V19" s="27"/>
       <c r="AC19" s="36"/>
       <c r="AE19" t="s" s="50">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AF19" t="s" s="9">
-        <v>33</v>
-      </c>
-      <c r="AH19" t="n" s="9">
-        <v>14.0</v>
+        <v>46</v>
+      </c>
+      <c r="AH19" t="s" s="9">
+        <v>42</v>
       </c>
       <c r="AL19" s="36"/>
     </row>
@@ -2184,13 +2348,13 @@
       <c r="D20" s="27"/>
       <c r="K20" s="36"/>
       <c r="M20" t="s" s="50">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N20" t="s" s="9">
-        <v>25</v>
-      </c>
-      <c r="T20" t="n" s="52">
-        <v>6.0</v>
+        <v>36</v>
+      </c>
+      <c r="T20" t="s" s="52">
+        <v>37</v>
       </c>
       <c r="V20" s="27"/>
       <c r="AC20" s="36"/>
@@ -2200,7 +2364,7 @@
     <row r="21">
       <c r="B21" s="37"/>
       <c r="C21" t="s" s="38">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="39"/>
       <c r="E21" s="41"/>
@@ -2227,15 +2391,15 @@
       <c r="AB21" s="41"/>
       <c r="AC21" s="42"/>
       <c r="AE21" t="s" s="61">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="AF21" t="s" s="62">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="AG21" s="41"/>
       <c r="AH21" s="41"/>
-      <c r="AI21" t="n" s="62">
-        <v>12.0</v>
+      <c r="AI21" t="s" s="62">
+        <v>49</v>
       </c>
       <c r="AJ21" s="41"/>
       <c r="AK21" s="41"/>
@@ -2243,7 +2407,7 @@
     </row>
     <row r="23">
       <c r="B23" t="s" s="22">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" t="s" s="72">
@@ -2259,7 +2423,7 @@
       <c r="J23" s="26"/>
       <c r="K23" s="34"/>
       <c r="M23" t="s" s="82">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
@@ -2271,7 +2435,7 @@
       <c r="S23" s="26"/>
       <c r="T23" s="34"/>
       <c r="V23" t="s" s="87">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="W23" s="26"/>
       <c r="X23" s="26"/>
@@ -2283,7 +2447,7 @@
       <c r="AB23" s="26"/>
       <c r="AC23" s="34"/>
       <c r="AE23" t="s" s="93">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="AF23" s="26"/>
       <c r="AG23" s="26"/>
@@ -2371,48 +2535,48 @@
       <c r="D25" s="27"/>
       <c r="K25" s="36"/>
       <c r="M25" t="s" s="46">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="N25" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="P25" t="n" s="1">
-        <v>98.0</v>
-      </c>
-      <c r="Q25" t="n" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="R25" t="n" s="1">
-        <v>65.0</v>
-      </c>
-      <c r="S25" t="n" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="T25" t="n" s="51">
-        <v>27.0</v>
+        <v>55</v>
+      </c>
+      <c r="P25" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q25" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="R25" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="S25" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="T25" t="s" s="51">
+        <v>56</v>
       </c>
       <c r="V25" s="27"/>
       <c r="AC25" s="36"/>
       <c r="AE25" t="s" s="46">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="AF25" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="AH25" t="n" s="1">
-        <v>98.0</v>
-      </c>
-      <c r="AI25" t="n" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="AJ25" t="n" s="1">
-        <v>65.0</v>
-      </c>
-      <c r="AK25" t="n" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="AL25" t="n" s="51">
-        <v>26.0</v>
+        <v>71</v>
+      </c>
+      <c r="AH25" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI25" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ25" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK25" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="AL25" t="s" s="51">
+        <v>72</v>
       </c>
     </row>
     <row r="26">
@@ -2421,48 +2585,48 @@
         <v>3</v>
       </c>
       <c r="D26" t="s" s="31">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="G26" t="n" s="2">
-        <v>98.0</v>
-      </c>
-      <c r="H26" t="n" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="I26" t="n" s="2">
-        <v>65.0</v>
-      </c>
-      <c r="J26" t="n" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="K26" t="n" s="40">
-        <v>13.0</v>
+        <v>51</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="K26" t="s" s="40">
+        <v>52</v>
       </c>
       <c r="M26" s="27"/>
       <c r="T26" s="36"/>
       <c r="V26" t="s" s="31">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y26" t="n" s="2">
-        <v>98.0</v>
-      </c>
-      <c r="Z26" t="n" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="AA26" t="n" s="2">
-        <v>65.0</v>
-      </c>
-      <c r="AB26" t="n" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="AC26" t="n" s="40">
-        <v>15.0</v>
+        <v>65</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC26" t="s" s="40">
+        <v>66</v>
       </c>
       <c r="AE26" s="27"/>
       <c r="AL26" s="36"/>
@@ -2470,39 +2634,39 @@
     <row r="27">
       <c r="B27" s="23"/>
       <c r="C27" t="s" s="76">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D27" s="27"/>
       <c r="K27" s="36"/>
       <c r="M27" t="s" s="48">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="N27" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="P27" t="n" s="3">
-        <v>98.0</v>
-      </c>
-      <c r="Q27" t="n" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="R27" t="n" s="3">
-        <v>65.0</v>
-      </c>
-      <c r="S27" t="n" s="3">
-        <v>54.0</v>
+        <v>58</v>
+      </c>
+      <c r="P27" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q27" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="R27" t="s" s="3">
+        <v>59</v>
+      </c>
+      <c r="S27" t="s" s="3">
+        <v>60</v>
       </c>
       <c r="T27" s="36"/>
       <c r="V27" s="27"/>
       <c r="AC27" s="36"/>
       <c r="AE27" t="s" s="48">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="AF27" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="AI27" t="n" s="3">
-        <v>40.0</v>
+        <v>74</v>
+      </c>
+      <c r="AI27" t="s" s="3">
+        <v>75</v>
       </c>
       <c r="AL27" s="36"/>
     </row>
@@ -2516,20 +2680,20 @@
       <c r="V28" s="27"/>
       <c r="AC28" s="36"/>
       <c r="AE28" t="s" s="48">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="3">
-        <v>54</v>
-      </c>
-      <c r="AH28" t="n" s="3">
-        <v>48.0</v>
+        <v>77</v>
+      </c>
+      <c r="AH28" t="s" s="3">
+        <v>78</v>
       </c>
       <c r="AL28" s="36"/>
     </row>
     <row r="29">
       <c r="B29" s="23"/>
       <c r="C29" t="s" s="77">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D29" s="27"/>
       <c r="K29" s="36"/>
@@ -2538,37 +2702,37 @@
       <c r="V29" s="27"/>
       <c r="AC29" s="36"/>
       <c r="AE29" t="s" s="49">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="AF29" t="s" s="5">
-        <v>56</v>
-      </c>
-      <c r="AH29" t="n" s="5">
-        <v>50.0</v>
-      </c>
-      <c r="AI29" t="n" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="AJ29" t="n" s="5">
-        <v>43.0</v>
+        <v>80</v>
+      </c>
+      <c r="AH29" t="s" s="5">
+        <v>81</v>
+      </c>
+      <c r="AI29" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="AJ29" t="s" s="5">
+        <v>83</v>
       </c>
       <c r="AL29" s="36"/>
     </row>
     <row r="30">
       <c r="B30" s="23"/>
       <c r="C30" t="s" s="78">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D30" s="27"/>
       <c r="K30" s="36"/>
       <c r="M30" t="s" s="84">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="N30" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="S30" t="n" s="7">
-        <v>4.0</v>
+        <v>62</v>
+      </c>
+      <c r="S30" t="s" s="7">
+        <v>63</v>
       </c>
       <c r="T30" s="36"/>
       <c r="V30" s="27"/>
@@ -2579,7 +2743,7 @@
     <row r="31">
       <c r="B31" s="37"/>
       <c r="C31" t="s" s="79">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="41"/>
@@ -2598,14 +2762,14 @@
       <c r="S31" s="41"/>
       <c r="T31" s="42"/>
       <c r="V31" t="s" s="89">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="W31" t="s" s="90">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="X31" s="41"/>
-      <c r="Y31" t="n" s="90">
-        <v>70.0</v>
+      <c r="Y31" t="s" s="90">
+        <v>69</v>
       </c>
       <c r="Z31" s="41"/>
       <c r="AA31" s="41"/>
@@ -2622,7 +2786,7 @@
     </row>
     <row r="33">
       <c r="B33" t="s" s="22">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" t="s" s="102">
@@ -2638,7 +2802,7 @@
       <c r="J33" s="26"/>
       <c r="K33" s="34"/>
       <c r="M33" t="s" s="110">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N33" s="26"/>
       <c r="O33" s="26"/>
@@ -2650,7 +2814,7 @@
       <c r="S33" s="26"/>
       <c r="T33" s="34"/>
       <c r="V33" t="s" s="114">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="W33" s="26"/>
       <c r="X33" s="26"/>
@@ -2662,7 +2826,7 @@
       <c r="AB33" s="26"/>
       <c r="AC33" s="34"/>
       <c r="AE33" t="s" s="119">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
@@ -2750,25 +2914,25 @@
       <c r="D35" s="27"/>
       <c r="K35" s="36"/>
       <c r="M35" t="s" s="31">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="P35" t="n" s="2">
-        <v>98.0</v>
-      </c>
-      <c r="Q35" t="n" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="R35" t="n" s="2">
-        <v>65.0</v>
-      </c>
-      <c r="S35" t="n" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="T35" t="n" s="40">
-        <v>14.0</v>
+        <v>85</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q35" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="T35" t="s" s="40">
+        <v>42</v>
       </c>
       <c r="V35" s="27"/>
       <c r="AC35" s="36"/>
@@ -2778,30 +2942,30 @@
     <row r="36">
       <c r="B36" s="23"/>
       <c r="C36" t="s" s="104">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D36" s="27"/>
       <c r="K36" s="36"/>
       <c r="M36" t="s" s="48">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="N36" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q36" t="n" s="3">
-        <v>33.0</v>
+        <v>87</v>
+      </c>
+      <c r="Q36" t="s" s="3">
+        <v>88</v>
       </c>
       <c r="T36" s="36"/>
       <c r="V36" s="27"/>
       <c r="AC36" s="36"/>
       <c r="AE36" t="s" s="48">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="AF36" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="AJ36" t="n" s="3">
-        <v>64.0</v>
+        <v>101</v>
+      </c>
+      <c r="AJ36" t="s" s="3">
+        <v>102</v>
       </c>
       <c r="AL36" s="36"/>
     </row>
@@ -2811,25 +2975,25 @@
       <c r="D37" s="27"/>
       <c r="K37" s="36"/>
       <c r="M37" t="s" s="48">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="N37" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="R37" t="n" s="3">
-        <v>61.0</v>
+        <v>90</v>
+      </c>
+      <c r="R37" t="s" s="3">
+        <v>91</v>
       </c>
       <c r="T37" s="36"/>
       <c r="V37" s="27"/>
       <c r="AC37" s="36"/>
       <c r="AE37" t="s" s="48">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="AF37" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="AJ37" t="n" s="3">
-        <v>55.0</v>
+        <v>104</v>
+      </c>
+      <c r="AJ37" t="s" s="3">
+        <v>105</v>
       </c>
       <c r="AL37" s="36"/>
     </row>
@@ -2843,84 +3007,84 @@
       <c r="V38" s="27"/>
       <c r="AC38" s="36"/>
       <c r="AE38" t="s" s="48">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AF38" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="AH38" t="n" s="3">
-        <v>98.0</v>
-      </c>
-      <c r="AI38" t="n" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="AJ38" t="n" s="3">
-        <v>5.0</v>
+        <v>107</v>
+      </c>
+      <c r="AH38" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="AI38" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ38" t="s" s="3">
+        <v>108</v>
       </c>
       <c r="AL38" s="36"/>
     </row>
     <row r="39">
       <c r="B39" s="23"/>
       <c r="C39" t="s" s="106">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D39" s="27"/>
       <c r="K39" s="36"/>
       <c r="M39" t="s" s="49">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="N39" t="s" s="5">
-        <v>64</v>
-      </c>
-      <c r="P39" t="n" s="5">
-        <v>98.0</v>
-      </c>
-      <c r="Q39" t="n" s="5">
-        <v>11.0</v>
+        <v>93</v>
+      </c>
+      <c r="P39" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q39" t="s" s="5">
+        <v>94</v>
       </c>
       <c r="T39" s="36"/>
       <c r="V39" s="27"/>
       <c r="AC39" s="36"/>
       <c r="AE39" t="s" s="49">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AF39" t="s" s="5">
-        <v>76</v>
-      </c>
-      <c r="AH39" t="n" s="5">
-        <v>98.0</v>
-      </c>
-      <c r="AI39" t="n" s="5">
-        <v>11.0</v>
+        <v>110</v>
+      </c>
+      <c r="AH39" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="AI39" t="s" s="5">
+        <v>94</v>
       </c>
       <c r="AL39" s="36"/>
     </row>
     <row r="40">
       <c r="B40" s="23"/>
       <c r="C40" t="s" s="107">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D40" s="27"/>
       <c r="K40" s="36"/>
       <c r="M40" t="s" s="50">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N40" t="s" s="9">
-        <v>66</v>
-      </c>
-      <c r="T40" t="n" s="52">
-        <v>11.0</v>
+        <v>96</v>
+      </c>
+      <c r="T40" t="s" s="52">
+        <v>97</v>
       </c>
       <c r="V40" s="27"/>
       <c r="AC40" s="36"/>
       <c r="AE40" t="s" s="50">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AF40" t="s" s="9">
-        <v>78</v>
-      </c>
-      <c r="AI40" t="n" s="9">
-        <v>15.0</v>
+        <v>112</v>
+      </c>
+      <c r="AI40" t="s" s="9">
+        <v>34</v>
       </c>
       <c r="AL40" s="36"/>
     </row>
@@ -2936,17 +3100,17 @@
       <c r="J41" s="41"/>
       <c r="K41" s="42"/>
       <c r="M41" t="s" s="89">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="N41" t="s" s="90">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="O41" s="41"/>
       <c r="P41" s="41"/>
       <c r="Q41" s="41"/>
       <c r="R41" s="41"/>
-      <c r="S41" t="n" s="90">
-        <v>12.0</v>
+      <c r="S41" t="s" s="90">
+        <v>49</v>
       </c>
       <c r="T41" s="42"/>
       <c r="V41" s="39"/>
@@ -2958,15 +3122,15 @@
       <c r="AB41" s="41"/>
       <c r="AC41" s="42"/>
       <c r="AE41" t="s" s="89">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AF41" t="s" s="90">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="AG41" s="41"/>
       <c r="AH41" s="41"/>
-      <c r="AI41" t="n" s="90">
-        <v>26.0</v>
+      <c r="AI41" t="s" s="90">
+        <v>115</v>
       </c>
       <c r="AJ41" s="41"/>
       <c r="AK41" s="41"/>
@@ -2974,7 +3138,7 @@
     </row>
     <row r="43">
       <c r="B43" t="s" s="22">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C43" s="24"/>
       <c r="D43" t="s" s="128">
@@ -2990,7 +3154,7 @@
       <c r="J43" s="26"/>
       <c r="K43" s="34"/>
       <c r="M43" t="s" s="137">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N43" s="26"/>
       <c r="O43" s="26"/>
@@ -3002,7 +3166,7 @@
       <c r="S43" s="26"/>
       <c r="T43" s="34"/>
       <c r="V43" t="s" s="142">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="W43" s="26"/>
       <c r="X43" s="26"/>
@@ -3014,7 +3178,7 @@
       <c r="AB43" s="26"/>
       <c r="AC43" s="34"/>
       <c r="AE43" t="s" s="145">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="AF43" s="26"/>
       <c r="AG43" s="26"/>
@@ -3102,13 +3266,13 @@
       <c r="D45" s="27"/>
       <c r="K45" s="36"/>
       <c r="M45" t="s" s="31">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R45" t="n" s="2">
-        <v>56.0</v>
+        <v>117</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>118</v>
       </c>
       <c r="T45" s="36"/>
       <c r="V45" s="27"/>
@@ -3119,42 +3283,42 @@
     <row r="46">
       <c r="B46" s="23"/>
       <c r="C46" t="s" s="130">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D46" s="27"/>
       <c r="K46" s="36"/>
       <c r="M46" t="s" s="48">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="N46" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="P46" t="n" s="3">
-        <v>98.0</v>
-      </c>
-      <c r="Q46" t="n" s="3">
-        <v>38.0</v>
+        <v>120</v>
+      </c>
+      <c r="P46" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q46" t="s" s="3">
+        <v>121</v>
       </c>
       <c r="T46" s="36"/>
       <c r="V46" s="27"/>
       <c r="AC46" s="36"/>
       <c r="AE46" t="s" s="48">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AF46" t="s" s="3">
-        <v>96</v>
-      </c>
-      <c r="AH46" t="n" s="3">
-        <v>98.0</v>
-      </c>
-      <c r="AI46" t="n" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="AJ46" t="n" s="3">
-        <v>65.0</v>
-      </c>
-      <c r="AK46" t="n" s="3">
-        <v>18.0</v>
+        <v>136</v>
+      </c>
+      <c r="AH46" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="AI46" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ46" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="AK46" t="s" s="3">
+        <v>137</v>
       </c>
       <c r="AL46" s="36"/>
     </row>
@@ -3164,16 +3328,16 @@
       <c r="D47" s="27"/>
       <c r="K47" s="36"/>
       <c r="M47" t="s" s="48">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="N47" t="s" s="3">
-        <v>86</v>
-      </c>
-      <c r="P47" t="n" s="3">
-        <v>98.0</v>
-      </c>
-      <c r="Q47" t="n" s="3">
-        <v>14.0</v>
+        <v>123</v>
+      </c>
+      <c r="P47" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q47" t="s" s="3">
+        <v>31</v>
       </c>
       <c r="T47" s="36"/>
       <c r="V47" s="27"/>
@@ -3187,13 +3351,13 @@
       <c r="D48" s="27"/>
       <c r="K48" s="36"/>
       <c r="M48" t="s" s="48">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="N48" t="s" s="3">
-        <v>88</v>
-      </c>
-      <c r="Q48" t="n" s="3">
-        <v>38.0</v>
+        <v>125</v>
+      </c>
+      <c r="Q48" t="s" s="3">
+        <v>126</v>
       </c>
       <c r="T48" s="36"/>
       <c r="V48" s="27"/>
@@ -3204,7 +3368,7 @@
     <row r="49">
       <c r="B49" s="23"/>
       <c r="C49" t="s" s="132">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D49" s="27"/>
       <c r="K49" s="36"/>
@@ -3213,34 +3377,34 @@
       <c r="V49" s="27"/>
       <c r="AC49" s="36"/>
       <c r="AE49" t="s" s="49">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AF49" t="s" s="5">
-        <v>98</v>
-      </c>
-      <c r="AH49" t="n" s="5">
-        <v>98.0</v>
-      </c>
-      <c r="AI49" t="n" s="5">
-        <v>11.0</v>
+        <v>139</v>
+      </c>
+      <c r="AH49" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="AI49" t="s" s="5">
+        <v>94</v>
       </c>
       <c r="AL49" s="36"/>
     </row>
     <row r="50">
       <c r="B50" s="23"/>
       <c r="C50" t="s" s="133">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D50" s="27"/>
       <c r="K50" s="36"/>
       <c r="M50" t="s" s="84">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="N50" t="s" s="7">
-        <v>90</v>
-      </c>
-      <c r="Q50" t="n" s="7">
-        <v>4.0</v>
+        <v>128</v>
+      </c>
+      <c r="Q50" t="s" s="7">
+        <v>129</v>
       </c>
       <c r="T50" s="36"/>
       <c r="V50" s="27"/>
@@ -3251,18 +3415,18 @@
     <row r="51">
       <c r="B51" s="23"/>
       <c r="C51" t="s" s="134">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D51" s="27"/>
       <c r="K51" s="36"/>
       <c r="M51" t="s" s="50">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="N51" t="s" s="9">
-        <v>92</v>
-      </c>
-      <c r="Q51" t="n" s="9">
-        <v>7.0</v>
+        <v>131</v>
+      </c>
+      <c r="Q51" t="s" s="9">
+        <v>132</v>
       </c>
       <c r="T51" s="36"/>
       <c r="V51" s="27"/>
@@ -3282,15 +3446,15 @@
       <c r="J52" s="41"/>
       <c r="K52" s="42"/>
       <c r="M52" t="s" s="89">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="N52" t="s" s="90">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="O52" s="41"/>
       <c r="P52" s="41"/>
-      <c r="Q52" t="n" s="90">
-        <v>13.0</v>
+      <c r="Q52" t="s" s="90">
+        <v>52</v>
       </c>
       <c r="R52" s="41"/>
       <c r="S52" s="41"/>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -33,24 +33,34 @@
   </si>
   <si>
     <t>98
-[right]</t>
+[R]</t>
   </si>
   <si>
     <t>60
-[right]</t>
+[R]</t>
   </si>
   <si>
     <t>65
-[right]</t>
+[R]</t>
   </si>
   <si>
     <t>19
-[right]</t>
+[R]</t>
   </si>
   <si>
     <t>BTech-III</t>
   </si>
   <si>
+    <t>IT483</t>
+  </si>
+  <si>
+    <t>Computational Electromagnetics</t>
+  </si>
+  <si>
+    <t>1
+[L]</t>
+  </si>
+  <si>
     <t>MScIT-I</t>
   </si>
   <si>
@@ -73,7 +83,17 @@
   </si>
   <si>
     <t>28
-[right]</t>
+[R]</t>
+  </si>
+  <si>
+    <t>IT478</t>
+  </si>
+  <si>
+    <t>Internet of Things</t>
+  </si>
+  <si>
+    <t>60
+[L]</t>
   </si>
   <si>
     <t>EL426</t>
@@ -83,27 +103,7 @@
   </si>
   <si>
     <t>42
-[left]</t>
-  </si>
-  <si>
-    <t>IT483</t>
-  </si>
-  <si>
-    <t>Computational Electromagnetics</t>
-  </si>
-  <si>
-    <t>1
-[left]</t>
-  </si>
-  <si>
-    <t>IT478</t>
-  </si>
-  <si>
-    <t>Internet of Things</t>
-  </si>
-  <si>
-    <t>60
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t>IT618</t>
@@ -113,11 +113,21 @@
   </si>
   <si>
     <t>98
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t>14
-[left]</t>
+[L]</t>
+  </si>
+  <si>
+    <t>CT513</t>
+  </si>
+  <si>
+    <t>Detection and Estimation Theory</t>
+  </si>
+  <si>
+    <t>6
+[L]</t>
   </si>
   <si>
     <t>IT543</t>
@@ -127,17 +137,7 @@
   </si>
   <si>
     <t>15
-[left]</t>
-  </si>
-  <si>
-    <t>CT513</t>
-  </si>
-  <si>
-    <t>Detection and Estimation Theory</t>
-  </si>
-  <si>
-    <t>6
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t xml:space="preserve"> 14:00 - 16:00 </t>
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>14
-[right]</t>
+[R]</t>
   </si>
   <si>
     <t>SC465</t>
@@ -175,7 +175,7 @@
   </si>
   <si>
     <t>12
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t>SC215</t>
@@ -185,7 +185,7 @@
   </si>
   <si>
     <t>13
-[right]</t>
+[R]</t>
   </si>
   <si>
     <t>MScICTARD-I</t>
@@ -198,7 +198,7 @@
   </si>
   <si>
     <t>27
-[right]</t>
+[R]</t>
   </si>
   <si>
     <t>IT314</t>
@@ -208,11 +208,11 @@
   </si>
   <si>
     <t>65
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t>54
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t>IT664</t>
@@ -222,7 +222,7 @@
   </si>
   <si>
     <t>4
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t>IT215</t>
@@ -232,7 +232,7 @@
   </si>
   <si>
     <t>15
-[right]</t>
+[R]</t>
   </si>
   <si>
     <t>HM501</t>
@@ -242,7 +242,7 @@
   </si>
   <si>
     <t>70
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t>IT205</t>
@@ -252,7 +252,7 @@
   </si>
   <si>
     <t>26
-[right]</t>
+[R]</t>
   </si>
   <si>
     <t>EL312</t>
@@ -262,7 +262,7 @@
   </si>
   <si>
     <t>40
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t>CS304</t>
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>48
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t>IT617</t>
@@ -282,15 +282,15 @@
   </si>
   <si>
     <t>50
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t>20
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t>43
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t>CT214</t>
@@ -306,7 +306,7 @@
   </si>
   <si>
     <t>33
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t>SC332</t>
@@ -316,7 +316,7 @@
   </si>
   <si>
     <t>61
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t>IT616</t>
@@ -326,7 +326,7 @@
   </si>
   <si>
     <t>11
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t>IT410</t>
@@ -336,7 +336,7 @@
   </si>
   <si>
     <t>11
-[right]</t>
+[R]</t>
   </si>
   <si>
     <t>CT512</t>
@@ -352,7 +352,7 @@
   </si>
   <si>
     <t>64
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t>CS302</t>
@@ -362,7 +362,7 @@
   </si>
   <si>
     <t>55
-[right]</t>
+[R]</t>
   </si>
   <si>
     <t>IT415</t>
@@ -372,7 +372,7 @@
   </si>
   <si>
     <t>5
-[right]</t>
+[R]</t>
   </si>
   <si>
     <t>IT694</t>
@@ -394,7 +394,7 @@
   </si>
   <si>
     <t>26
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t>CS201</t>
@@ -404,7 +404,7 @@
   </si>
   <si>
     <t>56
-[right]</t>
+[R]</t>
   </si>
   <si>
     <t>IT422</t>
@@ -414,7 +414,7 @@
   </si>
   <si>
     <t>38
-[right]</t>
+[R]</t>
   </si>
   <si>
     <t>IT325</t>
@@ -430,7 +430,7 @@
   </si>
   <si>
     <t>38
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t>ES662</t>
@@ -440,7 +440,7 @@
   </si>
   <si>
     <t>4
-[right]</t>
+[R]</t>
   </si>
   <si>
     <t>CT516</t>
@@ -450,7 +450,7 @@
   </si>
   <si>
     <t>7
-[left]</t>
+[L]</t>
   </si>
   <si>
     <t>EL516</t>
@@ -466,7 +466,7 @@
   </si>
   <si>
     <t>18
-[right]</t>
+[R]</t>
   </si>
   <si>
     <t>IT619</t>
@@ -1298,6 +1298,59 @@
       </bottom>
     </border>
     <border>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
       <right style="medium"/>
       <bottom>
         <color indexed="8"/>
@@ -1334,59 +1387,6 @@
         <color indexed="8"/>
       </top>
       <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
     </border>
@@ -1588,19 +1588,23 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="32" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="39" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1608,7 +1612,7 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="39" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1616,11 +1620,11 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1646,10 +1650,6 @@
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1658,11 +1658,11 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1745,7 +1745,7 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="39" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1973,7 +1973,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B11:AM52"/>
+  <dimension ref="B11:AM51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1981,38 +1981,38 @@
   <cols>
     <col min="3" max="3" width="12.99609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="6.56640625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="23.0078125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="6.5859375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="6.5859375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="6.5859375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="6.5859375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.2421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="4.37890625" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="6.625" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="43.28125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="6.5859375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="6.5859375" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="6.5859375" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="6.5859375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="4.37890625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="7.6328125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="20.984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="6.5859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.5859375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.5859375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="6.5859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="4.37890625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="6.69140625" customWidth="true" bestFit="true"/>
     <col min="32" max="32" width="35.75390625" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="6.5859375" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="6.5859375" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="6.5859375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="6.5859375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="4.37890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="11">
       <c r="B11" t="s" s="22">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" t="s" s="25">
@@ -2026,19 +2026,19 @@
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="K11" s="34"/>
-      <c r="M11" t="s" s="45">
-        <v>15</v>
+      <c r="K11" s="36"/>
+      <c r="M11" t="s" s="46">
+        <v>18</v>
       </c>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
-      <c r="P11" t="s" s="47">
+      <c r="P11" t="s" s="48">
         <v>1</v>
       </c>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
       <c r="S11" s="26"/>
-      <c r="T11" s="34"/>
+      <c r="T11" s="36"/>
       <c r="V11" t="s" s="55">
         <v>38</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="Z11" s="26"/>
       <c r="AA11" s="26"/>
       <c r="AB11" s="26"/>
-      <c r="AC11" s="34"/>
+      <c r="AC11" s="36"/>
       <c r="AE11" t="s" s="59">
         <v>39</v>
       </c>
@@ -2062,7 +2062,7 @@
       <c r="AI11" s="26"/>
       <c r="AJ11" s="26"/>
       <c r="AK11" s="26"/>
-      <c r="AL11" s="34"/>
+      <c r="AL11" s="36"/>
     </row>
     <row r="12">
       <c r="B12" s="23"/>
@@ -2080,7 +2080,7 @@
       <c r="J12" t="n">
         <v>103.0</v>
       </c>
-      <c r="K12" t="n" s="36">
+      <c r="K12" t="n" s="38">
         <v>104.0</v>
       </c>
       <c r="M12" s="27"/>
@@ -2096,7 +2096,7 @@
       <c r="S12" t="n">
         <v>103.0</v>
       </c>
-      <c r="T12" t="n" s="36">
+      <c r="T12" t="n" s="38">
         <v>104.0</v>
       </c>
       <c r="V12" s="27"/>
@@ -2112,7 +2112,7 @@
       <c r="AB12" t="n">
         <v>103.0</v>
       </c>
-      <c r="AC12" t="n" s="36">
+      <c r="AC12" t="n" s="38">
         <v>104.0</v>
       </c>
       <c r="AE12" s="27"/>
@@ -2128,7 +2128,7 @@
       <c r="AK12" t="n">
         <v>103.0</v>
       </c>
-      <c r="AL12" t="n" s="36">
+      <c r="AL12" t="n" s="38">
         <v>104.0</v>
       </c>
     </row>
@@ -2138,12 +2138,12 @@
         <v>2</v>
       </c>
       <c r="D13" s="27"/>
-      <c r="K13" s="36"/>
-      <c r="M13" t="s" s="46">
-        <v>16</v>
+      <c r="K13" s="38"/>
+      <c r="M13" t="s" s="47">
+        <v>19</v>
       </c>
       <c r="N13" t="s" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P13" t="s" s="1">
         <v>6</v>
@@ -2158,12 +2158,12 @@
         <v>7</v>
       </c>
       <c r="T13" t="s" s="51">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V13" s="27"/>
-      <c r="AC13" s="36"/>
+      <c r="AC13" s="38"/>
       <c r="AE13" s="27"/>
-      <c r="AL13" s="36"/>
+      <c r="AL13" s="38"/>
     </row>
     <row r="14">
       <c r="B14" s="23"/>
@@ -2188,13 +2188,13 @@
       <c r="J14" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="K14" t="s" s="40">
+      <c r="K14" t="s" s="42">
         <v>9</v>
       </c>
       <c r="M14" s="27"/>
-      <c r="T14" s="36"/>
+      <c r="T14" s="38"/>
       <c r="V14" s="27"/>
-      <c r="AC14" s="36"/>
+      <c r="AC14" s="38"/>
       <c r="AE14" t="s" s="31">
         <v>40</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>30</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>8</v>
@@ -2213,7 +2213,7 @@
       <c r="AK14" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="AL14" t="s" s="40">
+      <c r="AL14" t="s" s="42">
         <v>42</v>
       </c>
     </row>
@@ -2222,21 +2222,29 @@
       <c r="C15" t="s" s="32">
         <v>10</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="K15" s="36"/>
-      <c r="M15" t="s" s="48">
-        <v>19</v>
+      <c r="D15" t="s" s="33">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="K15" s="38"/>
+      <c r="M15" t="s" s="33">
+        <v>22</v>
       </c>
       <c r="N15" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="Q15" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="T15" s="36"/>
+        <v>23</v>
+      </c>
+      <c r="R15" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="T15" s="38"/>
       <c r="V15" s="27"/>
-      <c r="AC15" s="36"/>
-      <c r="AE15" t="s" s="48">
+      <c r="AC15" s="38"/>
+      <c r="AE15" t="s" s="33">
         <v>43</v>
       </c>
       <c r="AF15" t="s" s="3">
@@ -2245,1282 +2253,1262 @@
       <c r="AH15" t="s" s="3">
         <v>42</v>
       </c>
-      <c r="AL15" s="36"/>
+      <c r="AL15" s="38"/>
     </row>
     <row r="16">
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="27"/>
-      <c r="K16" s="36"/>
-      <c r="M16" t="s" s="48">
-        <v>22</v>
+      <c r="K16" s="38"/>
+      <c r="M16" t="s" s="33">
+        <v>25</v>
       </c>
       <c r="N16" t="s" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q16" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="T16" s="36"/>
+        <v>27</v>
+      </c>
+      <c r="T16" s="38"/>
       <c r="V16" s="27"/>
-      <c r="AC16" s="36"/>
+      <c r="AC16" s="38"/>
       <c r="AE16" s="27"/>
-      <c r="AL16" s="36"/>
+      <c r="AL16" s="38"/>
     </row>
     <row r="17">
       <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="C17" t="s" s="34">
+        <v>14</v>
+      </c>
       <c r="D17" s="27"/>
-      <c r="K17" s="36"/>
-      <c r="M17" t="s" s="48">
-        <v>25</v>
-      </c>
-      <c r="N17" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="R17" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="T17" s="36"/>
+      <c r="K17" s="38"/>
+      <c r="M17" t="s" s="49">
+        <v>28</v>
+      </c>
+      <c r="N17" t="s" s="5">
+        <v>29</v>
+      </c>
+      <c r="P17" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q17" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="T17" s="38"/>
       <c r="V17" s="27"/>
-      <c r="AC17" s="36"/>
+      <c r="AC17" s="38"/>
       <c r="AE17" s="27"/>
-      <c r="AL17" s="36"/>
+      <c r="AL17" s="38"/>
     </row>
     <row r="18">
       <c r="B18" s="23"/>
-      <c r="C18" t="s" s="33">
-        <v>11</v>
+      <c r="C18" t="s" s="35">
+        <v>15</v>
       </c>
       <c r="D18" s="27"/>
-      <c r="K18" s="36"/>
-      <c r="M18" t="s" s="49">
-        <v>28</v>
-      </c>
-      <c r="N18" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="P18" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q18" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="T18" s="36"/>
+      <c r="K18" s="38"/>
+      <c r="M18" t="s" s="50">
+        <v>32</v>
+      </c>
+      <c r="N18" t="s" s="9">
+        <v>33</v>
+      </c>
+      <c r="T18" t="s" s="52">
+        <v>34</v>
+      </c>
       <c r="V18" s="27"/>
-      <c r="AC18" s="36"/>
-      <c r="AE18" s="27"/>
-      <c r="AL18" s="36"/>
+      <c r="AC18" s="38"/>
+      <c r="AE18" t="s" s="50">
+        <v>45</v>
+      </c>
+      <c r="AF18" t="s" s="9">
+        <v>46</v>
+      </c>
+      <c r="AI18" t="s" s="9">
+        <v>42</v>
+      </c>
+      <c r="AL18" s="38"/>
     </row>
     <row r="19">
       <c r="B19" s="23"/>
-      <c r="C19" t="s" s="35">
-        <v>12</v>
-      </c>
+      <c r="C19" s="23"/>
       <c r="D19" s="27"/>
-      <c r="K19" s="36"/>
+      <c r="K19" s="38"/>
       <c r="M19" t="s" s="50">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N19" t="s" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S19" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="T19" s="36"/>
+        <v>37</v>
+      </c>
+      <c r="T19" s="38"/>
       <c r="V19" s="27"/>
-      <c r="AC19" s="36"/>
-      <c r="AE19" t="s" s="50">
-        <v>45</v>
-      </c>
-      <c r="AF19" t="s" s="9">
-        <v>46</v>
-      </c>
-      <c r="AH19" t="s" s="9">
-        <v>42</v>
-      </c>
-      <c r="AL19" s="36"/>
+      <c r="AC19" s="38"/>
+      <c r="AE19" s="27"/>
+      <c r="AL19" s="38"/>
     </row>
     <row r="20">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="27"/>
-      <c r="K20" s="36"/>
-      <c r="M20" t="s" s="50">
-        <v>35</v>
-      </c>
-      <c r="N20" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="T20" t="s" s="52">
-        <v>37</v>
-      </c>
-      <c r="V20" s="27"/>
-      <c r="AC20" s="36"/>
-      <c r="AE20" s="27"/>
-      <c r="AL20" s="36"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="37"/>
-      <c r="C21" t="s" s="38">
-        <v>13</v>
-      </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="42"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="42"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="42"/>
-      <c r="AE21" t="s" s="61">
+      <c r="B20" s="37"/>
+      <c r="C20" t="s" s="39">
+        <v>16</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="43"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="43"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="43"/>
+      <c r="AE20" t="s" s="61">
         <v>47</v>
       </c>
-      <c r="AF21" t="s" s="62">
+      <c r="AF20" t="s" s="62">
         <v>48</v>
       </c>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="41"/>
-      <c r="AI21" t="s" s="62">
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" t="s" s="62">
         <v>49</v>
       </c>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="41"/>
-      <c r="AL21" s="42"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="43"/>
+    </row>
+    <row r="22">
+      <c r="B22" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" t="s" s="72">
+        <v>0</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" t="s" s="75">
+        <v>1</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="36"/>
+      <c r="M22" t="s" s="82">
+        <v>18</v>
+      </c>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" t="s" s="83">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="36"/>
+      <c r="V22" t="s" s="87">
+        <v>38</v>
+      </c>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" t="s" s="88">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="36"/>
+      <c r="AE22" t="s" s="93">
+        <v>39</v>
+      </c>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" t="s" s="94">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="36"/>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="22">
-        <v>14</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" t="s" s="72">
-        <v>0</v>
-      </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" t="s" s="75">
-        <v>1</v>
-      </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="34"/>
-      <c r="M23" t="s" s="82">
-        <v>15</v>
-      </c>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" t="s" s="83">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="34"/>
-      <c r="V23" t="s" s="87">
-        <v>38</v>
-      </c>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" t="s" s="88">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="34"/>
-      <c r="AE23" t="s" s="93">
-        <v>39</v>
-      </c>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" t="s" s="94">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="26"/>
-      <c r="AL23" s="34"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="27"/>
+      <c r="G23" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="K23" t="n" s="38">
+        <v>104.0</v>
+      </c>
+      <c r="M23" s="27"/>
+      <c r="P23" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="T23" t="n" s="38">
+        <v>104.0</v>
+      </c>
+      <c r="V23" s="27"/>
+      <c r="Y23" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AC23" t="n" s="38">
+        <v>104.0</v>
+      </c>
+      <c r="AE23" s="27"/>
+      <c r="AH23" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AL23" t="n" s="38">
+        <v>104.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="C24" t="s" s="73">
+        <v>2</v>
+      </c>
       <c r="D24" s="27"/>
-      <c r="G24" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="K24" t="n" s="36">
-        <v>104.0</v>
-      </c>
-      <c r="M24" s="27"/>
-      <c r="P24" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="T24" t="n" s="36">
-        <v>104.0</v>
+      <c r="K24" s="38"/>
+      <c r="M24" t="s" s="47">
+        <v>54</v>
+      </c>
+      <c r="N24" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="P24" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q24" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="R24" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="S24" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="T24" t="s" s="51">
+        <v>56</v>
       </c>
       <c r="V24" s="27"/>
-      <c r="Y24" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="AC24" t="n" s="36">
-        <v>104.0</v>
-      </c>
-      <c r="AE24" s="27"/>
-      <c r="AH24" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="AL24" t="n" s="36">
-        <v>104.0</v>
+      <c r="AC24" s="38"/>
+      <c r="AE24" t="s" s="47">
+        <v>70</v>
+      </c>
+      <c r="AF24" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AH24" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI24" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ24" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK24" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="AL24" t="s" s="51">
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="23"/>
-      <c r="C25" t="s" s="73">
-        <v>2</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="K25" s="36"/>
-      <c r="M25" t="s" s="46">
-        <v>54</v>
-      </c>
-      <c r="N25" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="P25" t="s" s="1">
+      <c r="C25" t="s" s="74">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s" s="31">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="Q25" t="s" s="1">
+      <c r="H25" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="R25" t="s" s="1">
+      <c r="I25" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="S25" t="s" s="1">
+      <c r="J25" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="T25" t="s" s="51">
-        <v>56</v>
-      </c>
-      <c r="V25" s="27"/>
-      <c r="AC25" s="36"/>
-      <c r="AE25" t="s" s="46">
-        <v>70</v>
-      </c>
-      <c r="AF25" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AH25" t="s" s="1">
+      <c r="K25" t="s" s="42">
+        <v>52</v>
+      </c>
+      <c r="M25" s="27"/>
+      <c r="T25" s="38"/>
+      <c r="V25" t="s" s="31">
+        <v>64</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="AI25" t="s" s="1">
+      <c r="Z25" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="AJ25" t="s" s="1">
+      <c r="AA25" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="AK25" t="s" s="1">
+      <c r="AB25" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="AL25" t="s" s="51">
-        <v>72</v>
-      </c>
+      <c r="AC25" t="s" s="42">
+        <v>66</v>
+      </c>
+      <c r="AE25" s="27"/>
+      <c r="AL25" s="38"/>
     </row>
     <row r="26">
       <c r="B26" s="23"/>
-      <c r="C26" t="s" s="74">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s" s="31">
-        <v>50</v>
-      </c>
-      <c r="E26" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="K26" t="s" s="40">
-        <v>52</v>
-      </c>
-      <c r="M26" s="27"/>
-      <c r="T26" s="36"/>
-      <c r="V26" t="s" s="31">
-        <v>64</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="AC26" t="s" s="40">
-        <v>66</v>
-      </c>
-      <c r="AE26" s="27"/>
-      <c r="AL26" s="36"/>
+      <c r="C26" t="s" s="76">
+        <v>10</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="K26" s="38"/>
+      <c r="M26" t="s" s="33">
+        <v>57</v>
+      </c>
+      <c r="N26" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="P26" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q26" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="R26" t="s" s="3">
+        <v>59</v>
+      </c>
+      <c r="S26" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="T26" s="38"/>
+      <c r="V26" s="27"/>
+      <c r="AC26" s="38"/>
+      <c r="AE26" t="s" s="33">
+        <v>73</v>
+      </c>
+      <c r="AF26" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="AI26" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="AL26" s="38"/>
     </row>
     <row r="27">
       <c r="B27" s="23"/>
-      <c r="C27" t="s" s="76">
-        <v>10</v>
-      </c>
+      <c r="C27" s="23"/>
       <c r="D27" s="27"/>
-      <c r="K27" s="36"/>
-      <c r="M27" t="s" s="48">
-        <v>57</v>
-      </c>
-      <c r="N27" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="P27" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="Q27" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="R27" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="S27" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="T27" s="36"/>
+      <c r="K27" s="38"/>
+      <c r="M27" s="27"/>
+      <c r="T27" s="38"/>
       <c r="V27" s="27"/>
-      <c r="AC27" s="36"/>
-      <c r="AE27" t="s" s="48">
-        <v>73</v>
+      <c r="AC27" s="38"/>
+      <c r="AE27" t="s" s="33">
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="AI27" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="AL27" s="36"/>
+        <v>77</v>
+      </c>
+      <c r="AH27" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="AL27" s="38"/>
     </row>
     <row r="28">
       <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="C28" t="s" s="77">
+        <v>14</v>
+      </c>
       <c r="D28" s="27"/>
-      <c r="K28" s="36"/>
+      <c r="K28" s="38"/>
       <c r="M28" s="27"/>
-      <c r="T28" s="36"/>
+      <c r="T28" s="38"/>
       <c r="V28" s="27"/>
-      <c r="AC28" s="36"/>
-      <c r="AE28" t="s" s="48">
-        <v>76</v>
-      </c>
-      <c r="AF28" t="s" s="3">
-        <v>77</v>
-      </c>
-      <c r="AH28" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="AL28" s="36"/>
+      <c r="AC28" s="38"/>
+      <c r="AE28" t="s" s="49">
+        <v>79</v>
+      </c>
+      <c r="AF28" t="s" s="5">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s" s="5">
+        <v>81</v>
+      </c>
+      <c r="AI28" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="AJ28" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="AL28" s="38"/>
     </row>
     <row r="29">
       <c r="B29" s="23"/>
-      <c r="C29" t="s" s="77">
-        <v>11</v>
+      <c r="C29" t="s" s="78">
+        <v>53</v>
       </c>
       <c r="D29" s="27"/>
-      <c r="K29" s="36"/>
-      <c r="M29" s="27"/>
-      <c r="T29" s="36"/>
+      <c r="K29" s="38"/>
+      <c r="M29" t="s" s="84">
+        <v>61</v>
+      </c>
+      <c r="N29" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="S29" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="T29" s="38"/>
       <c r="V29" s="27"/>
-      <c r="AC29" s="36"/>
-      <c r="AE29" t="s" s="49">
-        <v>79</v>
-      </c>
-      <c r="AF29" t="s" s="5">
-        <v>80</v>
-      </c>
-      <c r="AH29" t="s" s="5">
-        <v>81</v>
-      </c>
-      <c r="AI29" t="s" s="5">
-        <v>82</v>
-      </c>
-      <c r="AJ29" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="AL29" s="36"/>
+      <c r="AC29" s="38"/>
+      <c r="AE29" s="27"/>
+      <c r="AL29" s="38"/>
     </row>
     <row r="30">
-      <c r="B30" s="23"/>
-      <c r="C30" t="s" s="78">
-        <v>53</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="K30" s="36"/>
-      <c r="M30" t="s" s="84">
-        <v>61</v>
-      </c>
-      <c r="N30" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="S30" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="T30" s="36"/>
-      <c r="V30" s="27"/>
-      <c r="AC30" s="36"/>
-      <c r="AE30" s="27"/>
-      <c r="AL30" s="36"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="37"/>
-      <c r="C31" t="s" s="79">
-        <v>12</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="42"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="42"/>
-      <c r="V31" t="s" s="89">
+      <c r="B30" s="37"/>
+      <c r="C30" t="s" s="79">
+        <v>15</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="43"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="43"/>
+      <c r="V30" t="s" s="89">
         <v>67</v>
       </c>
-      <c r="W31" t="s" s="90">
+      <c r="W30" t="s" s="90">
         <v>68</v>
       </c>
-      <c r="X31" s="41"/>
-      <c r="Y31" t="s" s="90">
+      <c r="X30" s="41"/>
+      <c r="Y30" t="s" s="90">
         <v>69</v>
       </c>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="42"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="41"/>
-      <c r="AG31" s="41"/>
-      <c r="AH31" s="41"/>
-      <c r="AI31" s="41"/>
-      <c r="AJ31" s="41"/>
-      <c r="AK31" s="41"/>
-      <c r="AL31" s="42"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="43"/>
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="41"/>
+      <c r="AI30" s="41"/>
+      <c r="AJ30" s="41"/>
+      <c r="AK30" s="41"/>
+      <c r="AL30" s="43"/>
+    </row>
+    <row r="32">
+      <c r="B32" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" t="s" s="102">
+        <v>0</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" t="s" s="105">
+        <v>1</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="36"/>
+      <c r="M32" t="s" s="110">
+        <v>18</v>
+      </c>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" t="s" s="111">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="36"/>
+      <c r="V32" t="s" s="114">
+        <v>38</v>
+      </c>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" t="s" s="115">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="36"/>
+      <c r="AE32" t="s" s="119">
+        <v>39</v>
+      </c>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" t="s" s="118">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="26"/>
+      <c r="AK32" s="26"/>
+      <c r="AL32" s="36"/>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="22">
-        <v>14</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" t="s" s="102">
-        <v>0</v>
-      </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" t="s" s="105">
-        <v>1</v>
-      </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="34"/>
-      <c r="M33" t="s" s="110">
-        <v>15</v>
-      </c>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" t="s" s="111">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="34"/>
-      <c r="V33" t="s" s="114">
-        <v>38</v>
-      </c>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" t="s" s="115">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="34"/>
-      <c r="AE33" t="s" s="119">
-        <v>39</v>
-      </c>
-      <c r="AF33" s="26"/>
-      <c r="AG33" s="26"/>
-      <c r="AH33" t="s" s="118">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="26"/>
-      <c r="AJ33" s="26"/>
-      <c r="AK33" s="26"/>
-      <c r="AL33" s="34"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="27"/>
+      <c r="G33" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="K33" t="n" s="38">
+        <v>104.0</v>
+      </c>
+      <c r="M33" s="27"/>
+      <c r="P33" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="T33" t="n" s="38">
+        <v>104.0</v>
+      </c>
+      <c r="V33" s="27"/>
+      <c r="Y33" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AC33" t="n" s="38">
+        <v>104.0</v>
+      </c>
+      <c r="AE33" s="27"/>
+      <c r="AH33" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AL33" t="n" s="38">
+        <v>104.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="C34" t="s" s="103">
+        <v>3</v>
+      </c>
       <c r="D34" s="27"/>
-      <c r="G34" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="K34" t="n" s="36">
-        <v>104.0</v>
-      </c>
-      <c r="M34" s="27"/>
-      <c r="P34" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="T34" t="n" s="36">
-        <v>104.0</v>
+      <c r="K34" s="38"/>
+      <c r="M34" t="s" s="31">
+        <v>84</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q34" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="T34" t="s" s="42">
+        <v>42</v>
       </c>
       <c r="V34" s="27"/>
-      <c r="Y34" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="AC34" t="n" s="36">
-        <v>104.0</v>
-      </c>
+      <c r="AC34" s="38"/>
       <c r="AE34" s="27"/>
-      <c r="AH34" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="AL34" t="n" s="36">
-        <v>104.0</v>
-      </c>
+      <c r="AL34" s="38"/>
     </row>
     <row r="35">
       <c r="B35" s="23"/>
-      <c r="C35" t="s" s="103">
-        <v>3</v>
+      <c r="C35" t="s" s="104">
+        <v>10</v>
       </c>
       <c r="D35" s="27"/>
-      <c r="K35" s="36"/>
-      <c r="M35" t="s" s="31">
-        <v>84</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q35" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="T35" t="s" s="40">
-        <v>42</v>
-      </c>
+      <c r="K35" s="38"/>
+      <c r="M35" t="s" s="33">
+        <v>86</v>
+      </c>
+      <c r="N35" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="Q35" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="T35" s="38"/>
       <c r="V35" s="27"/>
-      <c r="AC35" s="36"/>
-      <c r="AE35" s="27"/>
-      <c r="AL35" s="36"/>
+      <c r="AC35" s="38"/>
+      <c r="AE35" t="s" s="33">
+        <v>100</v>
+      </c>
+      <c r="AF35" t="s" s="3">
+        <v>101</v>
+      </c>
+      <c r="AJ35" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="AL35" s="38"/>
     </row>
     <row r="36">
       <c r="B36" s="23"/>
-      <c r="C36" t="s" s="104">
-        <v>10</v>
-      </c>
+      <c r="C36" s="23"/>
       <c r="D36" s="27"/>
-      <c r="K36" s="36"/>
-      <c r="M36" t="s" s="48">
-        <v>86</v>
+      <c r="K36" s="38"/>
+      <c r="M36" t="s" s="33">
+        <v>89</v>
       </c>
       <c r="N36" t="s" s="3">
-        <v>87</v>
-      </c>
-      <c r="Q36" t="s" s="3">
-        <v>88</v>
-      </c>
-      <c r="T36" s="36"/>
+        <v>90</v>
+      </c>
+      <c r="R36" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="T36" s="38"/>
       <c r="V36" s="27"/>
-      <c r="AC36" s="36"/>
-      <c r="AE36" t="s" s="48">
-        <v>100</v>
+      <c r="AC36" s="38"/>
+      <c r="AE36" t="s" s="33">
+        <v>103</v>
       </c>
       <c r="AF36" t="s" s="3">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ36" t="s" s="3">
-        <v>102</v>
-      </c>
-      <c r="AL36" s="36"/>
+        <v>105</v>
+      </c>
+      <c r="AL36" s="38"/>
     </row>
     <row r="37">
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="27"/>
-      <c r="K37" s="36"/>
-      <c r="M37" t="s" s="48">
-        <v>89</v>
-      </c>
-      <c r="N37" t="s" s="3">
-        <v>90</v>
-      </c>
-      <c r="R37" t="s" s="3">
-        <v>91</v>
-      </c>
-      <c r="T37" s="36"/>
+      <c r="K37" s="38"/>
+      <c r="M37" s="27"/>
+      <c r="T37" s="38"/>
       <c r="V37" s="27"/>
-      <c r="AC37" s="36"/>
-      <c r="AE37" t="s" s="48">
-        <v>103</v>
+      <c r="AC37" s="38"/>
+      <c r="AE37" t="s" s="33">
+        <v>106</v>
       </c>
       <c r="AF37" t="s" s="3">
-        <v>104</v>
+        <v>107</v>
+      </c>
+      <c r="AH37" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="AI37" t="s" s="3">
+        <v>7</v>
       </c>
       <c r="AJ37" t="s" s="3">
-        <v>105</v>
-      </c>
-      <c r="AL37" s="36"/>
+        <v>108</v>
+      </c>
+      <c r="AL37" s="38"/>
     </row>
     <row r="38">
       <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="C38" t="s" s="106">
+        <v>14</v>
+      </c>
       <c r="D38" s="27"/>
-      <c r="K38" s="36"/>
-      <c r="M38" s="27"/>
-      <c r="T38" s="36"/>
+      <c r="K38" s="38"/>
+      <c r="M38" t="s" s="49">
+        <v>92</v>
+      </c>
+      <c r="N38" t="s" s="5">
+        <v>93</v>
+      </c>
+      <c r="P38" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q38" t="s" s="5">
+        <v>94</v>
+      </c>
+      <c r="T38" s="38"/>
       <c r="V38" s="27"/>
-      <c r="AC38" s="36"/>
-      <c r="AE38" t="s" s="48">
-        <v>106</v>
-      </c>
-      <c r="AF38" t="s" s="3">
-        <v>107</v>
-      </c>
-      <c r="AH38" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="AI38" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="AJ38" t="s" s="3">
-        <v>108</v>
-      </c>
-      <c r="AL38" s="36"/>
+      <c r="AC38" s="38"/>
+      <c r="AE38" t="s" s="49">
+        <v>109</v>
+      </c>
+      <c r="AF38" t="s" s="5">
+        <v>110</v>
+      </c>
+      <c r="AH38" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="AI38" t="s" s="5">
+        <v>94</v>
+      </c>
+      <c r="AL38" s="38"/>
     </row>
     <row r="39">
       <c r="B39" s="23"/>
-      <c r="C39" t="s" s="106">
-        <v>11</v>
+      <c r="C39" t="s" s="107">
+        <v>15</v>
       </c>
       <c r="D39" s="27"/>
-      <c r="K39" s="36"/>
-      <c r="M39" t="s" s="49">
-        <v>92</v>
-      </c>
-      <c r="N39" t="s" s="5">
-        <v>93</v>
-      </c>
-      <c r="P39" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q39" t="s" s="5">
-        <v>94</v>
-      </c>
-      <c r="T39" s="36"/>
+      <c r="K39" s="38"/>
+      <c r="M39" t="s" s="50">
+        <v>95</v>
+      </c>
+      <c r="N39" t="s" s="9">
+        <v>96</v>
+      </c>
+      <c r="T39" t="s" s="52">
+        <v>97</v>
+      </c>
       <c r="V39" s="27"/>
-      <c r="AC39" s="36"/>
-      <c r="AE39" t="s" s="49">
-        <v>109</v>
-      </c>
-      <c r="AF39" t="s" s="5">
-        <v>110</v>
-      </c>
-      <c r="AH39" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="AI39" t="s" s="5">
-        <v>94</v>
-      </c>
-      <c r="AL39" s="36"/>
+      <c r="AC39" s="38"/>
+      <c r="AE39" t="s" s="50">
+        <v>111</v>
+      </c>
+      <c r="AF39" t="s" s="9">
+        <v>112</v>
+      </c>
+      <c r="AI39" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="AL39" s="38"/>
     </row>
     <row r="40">
-      <c r="B40" s="23"/>
-      <c r="C40" t="s" s="107">
-        <v>12</v>
-      </c>
-      <c r="D40" s="27"/>
-      <c r="K40" s="36"/>
-      <c r="M40" t="s" s="50">
-        <v>95</v>
-      </c>
-      <c r="N40" t="s" s="9">
-        <v>96</v>
-      </c>
-      <c r="T40" t="s" s="52">
-        <v>97</v>
-      </c>
-      <c r="V40" s="27"/>
-      <c r="AC40" s="36"/>
-      <c r="AE40" t="s" s="50">
-        <v>111</v>
-      </c>
-      <c r="AF40" t="s" s="9">
-        <v>112</v>
-      </c>
-      <c r="AI40" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="AL40" s="36"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="42"/>
-      <c r="M41" t="s" s="89">
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="43"/>
+      <c r="M40" t="s" s="89">
         <v>98</v>
       </c>
-      <c r="N41" t="s" s="90">
+      <c r="N40" t="s" s="90">
         <v>99</v>
       </c>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" t="s" s="90">
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" t="s" s="90">
         <v>49</v>
       </c>
-      <c r="T41" s="42"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41"/>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="41"/>
-      <c r="AB41" s="41"/>
-      <c r="AC41" s="42"/>
-      <c r="AE41" t="s" s="89">
+      <c r="T40" s="43"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="41"/>
+      <c r="AB40" s="41"/>
+      <c r="AC40" s="43"/>
+      <c r="AE40" t="s" s="89">
         <v>113</v>
       </c>
-      <c r="AF41" t="s" s="90">
+      <c r="AF40" t="s" s="90">
         <v>114</v>
       </c>
-      <c r="AG41" s="41"/>
-      <c r="AH41" s="41"/>
-      <c r="AI41" t="s" s="90">
+      <c r="AG40" s="41"/>
+      <c r="AH40" s="41"/>
+      <c r="AI40" t="s" s="90">
         <v>115</v>
       </c>
-      <c r="AJ41" s="41"/>
-      <c r="AK41" s="41"/>
-      <c r="AL41" s="42"/>
+      <c r="AJ40" s="41"/>
+      <c r="AK40" s="41"/>
+      <c r="AL40" s="43"/>
+    </row>
+    <row r="42">
+      <c r="B42" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" t="s" s="128">
+        <v>0</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" t="s" s="131">
+        <v>1</v>
+      </c>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="36"/>
+      <c r="M42" t="s" s="137">
+        <v>18</v>
+      </c>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" t="s" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="36"/>
+      <c r="V42" t="s" s="142">
+        <v>38</v>
+      </c>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" t="s" s="141">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="36"/>
+      <c r="AE42" t="s" s="145">
+        <v>39</v>
+      </c>
+      <c r="AF42" s="26"/>
+      <c r="AG42" s="26"/>
+      <c r="AH42" t="s" s="146">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="26"/>
+      <c r="AJ42" s="26"/>
+      <c r="AK42" s="26"/>
+      <c r="AL42" s="36"/>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="22">
-        <v>14</v>
-      </c>
-      <c r="C43" s="24"/>
-      <c r="D43" t="s" s="128">
-        <v>0</v>
-      </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" t="s" s="131">
-        <v>1</v>
-      </c>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="34"/>
-      <c r="M43" t="s" s="137">
-        <v>15</v>
-      </c>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" t="s" s="138">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="34"/>
-      <c r="V43" t="s" s="142">
-        <v>38</v>
-      </c>
-      <c r="W43" s="26"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" t="s" s="141">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="26"/>
-      <c r="AA43" s="26"/>
-      <c r="AB43" s="26"/>
-      <c r="AC43" s="34"/>
-      <c r="AE43" t="s" s="145">
-        <v>39</v>
-      </c>
-      <c r="AF43" s="26"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" t="s" s="146">
-        <v>1</v>
-      </c>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
-      <c r="AK43" s="26"/>
-      <c r="AL43" s="34"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="27"/>
+      <c r="G43" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="K43" t="n" s="38">
+        <v>104.0</v>
+      </c>
+      <c r="M43" s="27"/>
+      <c r="P43" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="T43" t="n" s="38">
+        <v>104.0</v>
+      </c>
+      <c r="V43" s="27"/>
+      <c r="Y43" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AC43" t="n" s="38">
+        <v>104.0</v>
+      </c>
+      <c r="AE43" s="27"/>
+      <c r="AH43" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AL43" t="n" s="38">
+        <v>104.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+      <c r="C44" t="s" s="129">
+        <v>3</v>
+      </c>
       <c r="D44" s="27"/>
-      <c r="G44" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="K44" t="n" s="36">
-        <v>104.0</v>
-      </c>
-      <c r="M44" s="27"/>
-      <c r="P44" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="T44" t="n" s="36">
-        <v>104.0</v>
-      </c>
+      <c r="K44" s="38"/>
+      <c r="M44" t="s" s="31">
+        <v>116</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="T44" s="38"/>
       <c r="V44" s="27"/>
-      <c r="Y44" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="AC44" t="n" s="36">
-        <v>104.0</v>
-      </c>
+      <c r="AC44" s="38"/>
       <c r="AE44" s="27"/>
-      <c r="AH44" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="AL44" t="n" s="36">
-        <v>104.0</v>
-      </c>
+      <c r="AL44" s="38"/>
     </row>
     <row r="45">
       <c r="B45" s="23"/>
-      <c r="C45" t="s" s="129">
-        <v>3</v>
+      <c r="C45" t="s" s="130">
+        <v>10</v>
       </c>
       <c r="D45" s="27"/>
-      <c r="K45" s="36"/>
-      <c r="M45" t="s" s="31">
-        <v>116</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="T45" s="36"/>
+      <c r="K45" s="38"/>
+      <c r="M45" t="s" s="33">
+        <v>119</v>
+      </c>
+      <c r="N45" t="s" s="3">
+        <v>120</v>
+      </c>
+      <c r="P45" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q45" t="s" s="3">
+        <v>121</v>
+      </c>
+      <c r="T45" s="38"/>
       <c r="V45" s="27"/>
-      <c r="AC45" s="36"/>
-      <c r="AE45" s="27"/>
-      <c r="AL45" s="36"/>
+      <c r="AC45" s="38"/>
+      <c r="AE45" t="s" s="33">
+        <v>135</v>
+      </c>
+      <c r="AF45" t="s" s="3">
+        <v>136</v>
+      </c>
+      <c r="AH45" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="AI45" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ45" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="AK45" t="s" s="3">
+        <v>137</v>
+      </c>
+      <c r="AL45" s="38"/>
     </row>
     <row r="46">
       <c r="B46" s="23"/>
-      <c r="C46" t="s" s="130">
-        <v>10</v>
-      </c>
+      <c r="C46" s="23"/>
       <c r="D46" s="27"/>
-      <c r="K46" s="36"/>
-      <c r="M46" t="s" s="48">
-        <v>119</v>
+      <c r="K46" s="38"/>
+      <c r="M46" t="s" s="33">
+        <v>122</v>
       </c>
       <c r="N46" t="s" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P46" t="s" s="3">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="Q46" t="s" s="3">
-        <v>121</v>
-      </c>
-      <c r="T46" s="36"/>
+        <v>31</v>
+      </c>
+      <c r="T46" s="38"/>
       <c r="V46" s="27"/>
-      <c r="AC46" s="36"/>
-      <c r="AE46" t="s" s="48">
-        <v>135</v>
-      </c>
-      <c r="AF46" t="s" s="3">
-        <v>136</v>
-      </c>
-      <c r="AH46" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="AI46" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="AJ46" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="AK46" t="s" s="3">
-        <v>137</v>
-      </c>
-      <c r="AL46" s="36"/>
+      <c r="AC46" s="38"/>
+      <c r="AE46" s="27"/>
+      <c r="AL46" s="38"/>
     </row>
     <row r="47">
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
       <c r="D47" s="27"/>
-      <c r="K47" s="36"/>
-      <c r="M47" t="s" s="48">
-        <v>122</v>
+      <c r="K47" s="38"/>
+      <c r="M47" t="s" s="33">
+        <v>124</v>
       </c>
       <c r="N47" t="s" s="3">
-        <v>123</v>
-      </c>
-      <c r="P47" t="s" s="3">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="Q47" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="T47" s="36"/>
+        <v>126</v>
+      </c>
+      <c r="T47" s="38"/>
       <c r="V47" s="27"/>
-      <c r="AC47" s="36"/>
+      <c r="AC47" s="38"/>
       <c r="AE47" s="27"/>
-      <c r="AL47" s="36"/>
+      <c r="AL47" s="38"/>
     </row>
     <row r="48">
       <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
+      <c r="C48" t="s" s="132">
+        <v>14</v>
+      </c>
       <c r="D48" s="27"/>
-      <c r="K48" s="36"/>
-      <c r="M48" t="s" s="48">
-        <v>124</v>
-      </c>
-      <c r="N48" t="s" s="3">
-        <v>125</v>
-      </c>
-      <c r="Q48" t="s" s="3">
-        <v>126</v>
-      </c>
-      <c r="T48" s="36"/>
+      <c r="K48" s="38"/>
+      <c r="M48" s="27"/>
+      <c r="T48" s="38"/>
       <c r="V48" s="27"/>
-      <c r="AC48" s="36"/>
-      <c r="AE48" s="27"/>
-      <c r="AL48" s="36"/>
+      <c r="AC48" s="38"/>
+      <c r="AE48" t="s" s="49">
+        <v>138</v>
+      </c>
+      <c r="AF48" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="AH48" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="AI48" t="s" s="5">
+        <v>94</v>
+      </c>
+      <c r="AL48" s="38"/>
     </row>
     <row r="49">
       <c r="B49" s="23"/>
-      <c r="C49" t="s" s="132">
-        <v>11</v>
+      <c r="C49" t="s" s="133">
+        <v>53</v>
       </c>
       <c r="D49" s="27"/>
-      <c r="K49" s="36"/>
-      <c r="M49" s="27"/>
-      <c r="T49" s="36"/>
+      <c r="K49" s="38"/>
+      <c r="M49" t="s" s="84">
+        <v>127</v>
+      </c>
+      <c r="N49" t="s" s="7">
+        <v>128</v>
+      </c>
+      <c r="Q49" t="s" s="7">
+        <v>129</v>
+      </c>
+      <c r="T49" s="38"/>
       <c r="V49" s="27"/>
-      <c r="AC49" s="36"/>
-      <c r="AE49" t="s" s="49">
-        <v>138</v>
-      </c>
-      <c r="AF49" t="s" s="5">
-        <v>139</v>
-      </c>
-      <c r="AH49" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="AI49" t="s" s="5">
-        <v>94</v>
-      </c>
-      <c r="AL49" s="36"/>
+      <c r="AC49" s="38"/>
+      <c r="AE49" s="27"/>
+      <c r="AL49" s="38"/>
     </row>
     <row r="50">
       <c r="B50" s="23"/>
-      <c r="C50" t="s" s="133">
-        <v>53</v>
+      <c r="C50" t="s" s="134">
+        <v>15</v>
       </c>
       <c r="D50" s="27"/>
-      <c r="K50" s="36"/>
-      <c r="M50" t="s" s="84">
-        <v>127</v>
-      </c>
-      <c r="N50" t="s" s="7">
-        <v>128</v>
-      </c>
-      <c r="Q50" t="s" s="7">
-        <v>129</v>
-      </c>
-      <c r="T50" s="36"/>
+      <c r="K50" s="38"/>
+      <c r="M50" t="s" s="50">
+        <v>130</v>
+      </c>
+      <c r="N50" t="s" s="9">
+        <v>131</v>
+      </c>
+      <c r="Q50" t="s" s="9">
+        <v>132</v>
+      </c>
+      <c r="T50" s="38"/>
       <c r="V50" s="27"/>
-      <c r="AC50" s="36"/>
+      <c r="AC50" s="38"/>
       <c r="AE50" s="27"/>
-      <c r="AL50" s="36"/>
+      <c r="AL50" s="38"/>
     </row>
     <row r="51">
-      <c r="B51" s="23"/>
-      <c r="C51" t="s" s="134">
-        <v>12</v>
-      </c>
-      <c r="D51" s="27"/>
-      <c r="K51" s="36"/>
-      <c r="M51" t="s" s="50">
-        <v>130</v>
-      </c>
-      <c r="N51" t="s" s="9">
-        <v>131</v>
-      </c>
-      <c r="Q51" t="s" s="9">
-        <v>132</v>
-      </c>
-      <c r="T51" s="36"/>
-      <c r="V51" s="27"/>
-      <c r="AC51" s="36"/>
-      <c r="AE51" s="27"/>
-      <c r="AL51" s="36"/>
-    </row>
-    <row r="52">
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="42"/>
-      <c r="M52" t="s" s="89">
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="43"/>
+      <c r="M51" t="s" s="89">
         <v>133</v>
       </c>
-      <c r="N52" t="s" s="90">
+      <c r="N51" t="s" s="90">
         <v>134</v>
       </c>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" t="s" s="90">
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" t="s" s="90">
         <v>52</v>
       </c>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="42"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="41"/>
-      <c r="X52" s="41"/>
-      <c r="Y52" s="41"/>
-      <c r="Z52" s="41"/>
-      <c r="AA52" s="41"/>
-      <c r="AB52" s="41"/>
-      <c r="AC52" s="42"/>
-      <c r="AE52" s="39"/>
-      <c r="AF52" s="41"/>
-      <c r="AG52" s="41"/>
-      <c r="AH52" s="41"/>
-      <c r="AI52" s="41"/>
-      <c r="AJ52" s="41"/>
-      <c r="AK52" s="41"/>
-      <c r="AL52" s="42"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="43"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="41"/>
+      <c r="X51" s="41"/>
+      <c r="Y51" s="41"/>
+      <c r="Z51" s="41"/>
+      <c r="AA51" s="41"/>
+      <c r="AB51" s="41"/>
+      <c r="AC51" s="43"/>
+      <c r="AE51" s="40"/>
+      <c r="AF51" s="41"/>
+      <c r="AG51" s="41"/>
+      <c r="AH51" s="41"/>
+      <c r="AI51" s="41"/>
+      <c r="AJ51" s="41"/>
+      <c r="AK51" s="41"/>
+      <c r="AL51" s="43"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="D11:F12"/>
     <mergeCell ref="G11:K11"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B11:B21"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B11:B20"/>
     <mergeCell ref="M11:O12"/>
     <mergeCell ref="P11:T11"/>
     <mergeCell ref="V11:X12"/>
     <mergeCell ref="Y11:AC11"/>
     <mergeCell ref="AE11:AG12"/>
     <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="D23:F24"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="M23:O24"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="V23:X24"/>
-    <mergeCell ref="Y23:AC23"/>
-    <mergeCell ref="AE23:AG24"/>
-    <mergeCell ref="AH23:AL23"/>
-    <mergeCell ref="D33:F34"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="M33:O34"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="V33:X34"/>
-    <mergeCell ref="Y33:AC33"/>
-    <mergeCell ref="AE33:AG34"/>
-    <mergeCell ref="AH33:AL33"/>
-    <mergeCell ref="D43:F44"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="M43:O44"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="V43:X44"/>
-    <mergeCell ref="Y43:AC43"/>
-    <mergeCell ref="AE43:AG44"/>
-    <mergeCell ref="AH43:AL43"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="M22:O23"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="V22:X23"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="AE22:AG23"/>
+    <mergeCell ref="AH22:AL22"/>
+    <mergeCell ref="D32:F33"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="M32:O33"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="V32:X33"/>
+    <mergeCell ref="Y32:AC32"/>
+    <mergeCell ref="AE32:AG33"/>
+    <mergeCell ref="AH32:AL32"/>
+    <mergeCell ref="D42:F43"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="M42:O43"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="V42:X43"/>
+    <mergeCell ref="Y42:AC42"/>
+    <mergeCell ref="AE42:AG43"/>
+    <mergeCell ref="AH42:AL42"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="144">
   <si>
     <t xml:space="preserve"> 08:30 - 10:30 </t>
   </si>
@@ -345,6 +345,16 @@
     <t>Information Theory and Coding</t>
   </si>
   <si>
+    <t>CS302</t>
+  </si>
+  <si>
+    <t>Modeling and Simulation</t>
+  </si>
+  <si>
+    <t>55
+[R]</t>
+  </si>
+  <si>
     <t>SC431</t>
   </si>
   <si>
@@ -355,16 +365,6 @@
 [L]</t>
   </si>
   <si>
-    <t>CS302</t>
-  </si>
-  <si>
-    <t>Modeling and Simulation</t>
-  </si>
-  <si>
-    <t>55
-[R]</t>
-  </si>
-  <si>
     <t>IT415</t>
   </si>
   <si>
@@ -381,6 +381,14 @@
     <t>Computer Networks</t>
   </si>
   <si>
+    <t>57
+[L]</t>
+  </si>
+  <si>
+    <t>52
+[L]</t>
+  </si>
+  <si>
     <t>EL520</t>
   </si>
   <si>
@@ -413,14 +421,26 @@
     <t>Models of Computation</t>
   </si>
   <si>
-    <t>38
+    <t>78
 [R]</t>
   </si>
   <si>
+    <t>58
+[R]</t>
+  </si>
+  <si>
     <t>IT325</t>
   </si>
   <si>
     <t>Introduction to Cryptology</t>
+  </si>
+  <si>
+    <t>94
+[L]</t>
+  </si>
+  <si>
+    <t>18
+[L]</t>
   </si>
   <si>
     <t>IT468</t>
@@ -439,18 +459,14 @@
     <t>Systems Approach to Sustainable Development</t>
   </si>
   <si>
-    <t>4
+    <t>CT516</t>
+  </si>
+  <si>
+    <t>Advanced Digital Communications</t>
+  </si>
+  <si>
+    <t>7
 [R]</t>
-  </si>
-  <si>
-    <t>CT516</t>
-  </si>
-  <si>
-    <t>Advanced Digital Communications</t>
-  </si>
-  <si>
-    <t>7
-[L]</t>
   </si>
   <si>
     <t>EL516</t>
@@ -2952,7 +2968,7 @@
       <c r="AF35" t="s" s="3">
         <v>101</v>
       </c>
-      <c r="AJ35" t="s" s="3">
+      <c r="AI35" t="s" s="3">
         <v>102</v>
       </c>
       <c r="AL35" s="38"/>
@@ -3004,10 +3020,10 @@
         <v>6</v>
       </c>
       <c r="AI37" t="s" s="3">
+        <v>108</v>
+      </c>
+      <c r="AJ37" t="s" s="3">
         <v>7</v>
-      </c>
-      <c r="AJ37" t="s" s="3">
-        <v>108</v>
       </c>
       <c r="AL37" s="38"/>
     </row>
@@ -3040,10 +3056,10 @@
         <v>110</v>
       </c>
       <c r="AH38" t="s" s="5">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="AI38" t="s" s="5">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="AL38" s="38"/>
     </row>
@@ -3066,12 +3082,12 @@
       <c r="V39" s="27"/>
       <c r="AC39" s="38"/>
       <c r="AE39" t="s" s="50">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AF39" t="s" s="9">
-        <v>112</v>
-      </c>
-      <c r="AI39" t="s" s="9">
+        <v>114</v>
+      </c>
+      <c r="AH39" t="s" s="9">
         <v>37</v>
       </c>
       <c r="AL39" s="38"/>
@@ -3110,16 +3126,16 @@
       <c r="AB40" s="41"/>
       <c r="AC40" s="43"/>
       <c r="AE40" t="s" s="89">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AF40" t="s" s="90">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AG40" s="41"/>
-      <c r="AH40" s="41"/>
-      <c r="AI40" t="s" s="90">
-        <v>115</v>
-      </c>
+      <c r="AH40" t="s" s="90">
+        <v>117</v>
+      </c>
+      <c r="AI40" s="41"/>
       <c r="AJ40" s="41"/>
       <c r="AK40" s="41"/>
       <c r="AL40" s="43"/>
@@ -3254,13 +3270,13 @@
       <c r="D44" s="27"/>
       <c r="K44" s="38"/>
       <c r="M44" t="s" s="31">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="T44" s="38"/>
       <c r="V44" s="27"/>
@@ -3276,25 +3292,25 @@
       <c r="D45" s="27"/>
       <c r="K45" s="38"/>
       <c r="M45" t="s" s="33">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N45" t="s" s="3">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P45" t="s" s="3">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="Q45" t="s" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="T45" s="38"/>
       <c r="V45" s="27"/>
       <c r="AC45" s="38"/>
       <c r="AE45" t="s" s="33">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AF45" t="s" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AH45" t="s" s="3">
         <v>6</v>
@@ -3306,7 +3322,7 @@
         <v>8</v>
       </c>
       <c r="AK45" t="s" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AL45" s="38"/>
     </row>
@@ -3316,16 +3332,16 @@
       <c r="D46" s="27"/>
       <c r="K46" s="38"/>
       <c r="M46" t="s" s="33">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N46" t="s" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P46" t="s" s="3">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="Q46" t="s" s="3">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="T46" s="38"/>
       <c r="V46" s="27"/>
@@ -3339,13 +3355,13 @@
       <c r="D47" s="27"/>
       <c r="K47" s="38"/>
       <c r="M47" t="s" s="33">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="N47" t="s" s="3">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q47" t="s" s="3">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="T47" s="38"/>
       <c r="V47" s="27"/>
@@ -3365,10 +3381,10 @@
       <c r="V48" s="27"/>
       <c r="AC48" s="38"/>
       <c r="AE48" t="s" s="49">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AF48" t="s" s="5">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AH48" t="s" s="5">
         <v>30</v>
@@ -3386,13 +3402,13 @@
       <c r="D49" s="27"/>
       <c r="K49" s="38"/>
       <c r="M49" t="s" s="84">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="N49" t="s" s="7">
-        <v>128</v>
-      </c>
-      <c r="Q49" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
+      </c>
+      <c r="P49" t="s" s="7">
+        <v>63</v>
       </c>
       <c r="T49" s="38"/>
       <c r="V49" s="27"/>
@@ -3408,13 +3424,13 @@
       <c r="D50" s="27"/>
       <c r="K50" s="38"/>
       <c r="M50" t="s" s="50">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N50" t="s" s="9">
-        <v>131</v>
-      </c>
-      <c r="Q50" t="s" s="9">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="P50" t="s" s="9">
+        <v>136</v>
       </c>
       <c r="T50" s="38"/>
       <c r="V50" s="27"/>
@@ -3434,16 +3450,16 @@
       <c r="J51" s="41"/>
       <c r="K51" s="43"/>
       <c r="M51" t="s" s="89">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N51" t="s" s="90">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" t="s" s="90">
+      <c r="P51" t="s" s="90">
         <v>52</v>
       </c>
+      <c r="Q51" s="41"/>
       <c r="R51" s="41"/>
       <c r="S51" s="41"/>
       <c r="T51" s="43"/>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -120,6 +120,16 @@
 [L]</t>
   </si>
   <si>
+    <t>IT543</t>
+  </si>
+  <si>
+    <t>Adv. Logic for Computer Science</t>
+  </si>
+  <si>
+    <t>15
+[L]</t>
+  </si>
+  <si>
     <t>CT513</t>
   </si>
   <si>
@@ -130,16 +140,6 @@
 [L]</t>
   </si>
   <si>
-    <t>IT543</t>
-  </si>
-  <si>
-    <t>Adv. Logic for Computer Science</t>
-  </si>
-  <si>
-    <t>15
-[L]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 14:00 - 16:00 </t>
   </si>
   <si>
@@ -329,6 +329,12 @@
 [L]</t>
   </si>
   <si>
+    <t>CT512</t>
+  </si>
+  <si>
+    <t>Information Theory and Coding</t>
+  </si>
+  <si>
     <t>IT410</t>
   </si>
   <si>
@@ -339,10 +345,14 @@
 [R]</t>
   </si>
   <si>
-    <t>CT512</t>
-  </si>
-  <si>
-    <t>Information Theory and Coding</t>
+    <t>IT415</t>
+  </si>
+  <si>
+    <t>Software Testing and Quality Analysis</t>
+  </si>
+  <si>
+    <t>5
+[R]</t>
   </si>
   <si>
     <t>CS302</t>
@@ -365,16 +375,6 @@
 [L]</t>
   </si>
   <si>
-    <t>IT415</t>
-  </si>
-  <si>
-    <t>Software Testing and Quality Analysis</t>
-  </si>
-  <si>
-    <t>5
-[R]</t>
-  </si>
-  <si>
     <t>IT694</t>
   </si>
   <si>
@@ -389,12 +389,6 @@
 [L]</t>
   </si>
   <si>
-    <t>EL520</t>
-  </si>
-  <si>
-    <t>Digital System Design using Verilog</t>
-  </si>
-  <si>
     <t>SC522</t>
   </si>
   <si>
@@ -403,6 +397,12 @@
   <si>
     <t>26
 [L]</t>
+  </si>
+  <si>
+    <t>EL520</t>
+  </si>
+  <si>
+    <t>Digital System Design using Verilog</t>
   </si>
   <si>
     <t>CS201</t>
@@ -1531,7 +1531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
@@ -1868,6 +1868,10 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="40" borderId="22" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="centerContinuous" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="56" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2329,9 +2333,10 @@
       <c r="N18" t="s" s="9">
         <v>33</v>
       </c>
-      <c r="T18" t="s" s="52">
+      <c r="S18" t="s" s="9">
         <v>34</v>
       </c>
+      <c r="T18" s="38"/>
       <c r="V18" s="27"/>
       <c r="AC18" s="38"/>
       <c r="AE18" t="s" s="50">
@@ -2356,10 +2361,9 @@
       <c r="N19" t="s" s="9">
         <v>36</v>
       </c>
-      <c r="S19" t="s" s="9">
+      <c r="T19" t="s" s="52">
         <v>37</v>
       </c>
-      <c r="T19" s="38"/>
       <c r="V19" s="27"/>
       <c r="AC19" s="38"/>
       <c r="AE19" s="27"/>
@@ -2817,24 +2821,24 @@
       <c r="R32" s="26"/>
       <c r="S32" s="26"/>
       <c r="T32" s="36"/>
-      <c r="V32" t="s" s="114">
+      <c r="V32" t="s" s="115">
         <v>38</v>
       </c>
       <c r="W32" s="26"/>
       <c r="X32" s="26"/>
-      <c r="Y32" t="s" s="115">
+      <c r="Y32" t="s" s="116">
         <v>1</v>
       </c>
       <c r="Z32" s="26"/>
       <c r="AA32" s="26"/>
       <c r="AB32" s="26"/>
       <c r="AC32" s="36"/>
-      <c r="AE32" t="s" s="119">
+      <c r="AE32" t="s" s="120">
         <v>39</v>
       </c>
       <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
-      <c r="AH32" t="s" s="118">
+      <c r="AH32" t="s" s="119">
         <v>1</v>
       </c>
       <c r="AI32" s="26"/>
@@ -2968,8 +2972,14 @@
       <c r="AF35" t="s" s="3">
         <v>101</v>
       </c>
+      <c r="AH35" t="s" s="3">
+        <v>6</v>
+      </c>
       <c r="AI35" t="s" s="3">
         <v>102</v>
+      </c>
+      <c r="AJ35" t="s" s="3">
+        <v>7</v>
       </c>
       <c r="AL35" s="38"/>
     </row>
@@ -2996,7 +3006,7 @@
       <c r="AF36" t="s" s="3">
         <v>104</v>
       </c>
-      <c r="AJ36" t="s" s="3">
+      <c r="AI36" t="s" s="3">
         <v>105</v>
       </c>
       <c r="AL36" s="38"/>
@@ -3016,14 +3026,8 @@
       <c r="AF37" t="s" s="3">
         <v>107</v>
       </c>
-      <c r="AH37" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="AI37" t="s" s="3">
+      <c r="AJ37" t="s" s="3">
         <v>108</v>
-      </c>
-      <c r="AJ37" t="s" s="3">
-        <v>7</v>
       </c>
       <c r="AL37" s="38"/>
     </row>
@@ -3076,9 +3080,10 @@
       <c r="N39" t="s" s="9">
         <v>96</v>
       </c>
-      <c r="T39" t="s" s="52">
-        <v>97</v>
-      </c>
+      <c r="S39" t="s" s="9">
+        <v>49</v>
+      </c>
+      <c r="T39" s="38"/>
       <c r="V39" s="27"/>
       <c r="AC39" s="38"/>
       <c r="AE39" t="s" s="50">
@@ -3088,7 +3093,7 @@
         <v>114</v>
       </c>
       <c r="AH39" t="s" s="9">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="AL39" s="38"/>
     </row>
@@ -3104,19 +3109,19 @@
       <c r="J40" s="41"/>
       <c r="K40" s="43"/>
       <c r="M40" t="s" s="89">
+        <v>97</v>
+      </c>
+      <c r="N40" t="s" s="90">
         <v>98</v>
-      </c>
-      <c r="N40" t="s" s="90">
-        <v>99</v>
       </c>
       <c r="O40" s="41"/>
       <c r="P40" s="41"/>
       <c r="Q40" s="41"/>
       <c r="R40" s="41"/>
-      <c r="S40" t="s" s="90">
-        <v>49</v>
-      </c>
-      <c r="T40" s="43"/>
+      <c r="S40" s="41"/>
+      <c r="T40" t="s" s="112">
+        <v>99</v>
+      </c>
       <c r="V40" s="40"/>
       <c r="W40" s="41"/>
       <c r="X40" s="41"/>
@@ -3126,14 +3131,14 @@
       <c r="AB40" s="41"/>
       <c r="AC40" s="43"/>
       <c r="AE40" t="s" s="89">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF40" t="s" s="90">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG40" s="41"/>
       <c r="AH40" t="s" s="90">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="AI40" s="41"/>
       <c r="AJ40" s="41"/>
@@ -3145,48 +3150,48 @@
         <v>17</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" t="s" s="128">
+      <c r="D42" t="s" s="129">
         <v>0</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
-      <c r="G42" t="s" s="131">
+      <c r="G42" t="s" s="132">
         <v>1</v>
       </c>
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="36"/>
-      <c r="M42" t="s" s="137">
+      <c r="M42" t="s" s="138">
         <v>18</v>
       </c>
       <c r="N42" s="26"/>
       <c r="O42" s="26"/>
-      <c r="P42" t="s" s="138">
+      <c r="P42" t="s" s="139">
         <v>1</v>
       </c>
       <c r="Q42" s="26"/>
       <c r="R42" s="26"/>
       <c r="S42" s="26"/>
       <c r="T42" s="36"/>
-      <c r="V42" t="s" s="142">
+      <c r="V42" t="s" s="143">
         <v>38</v>
       </c>
       <c r="W42" s="26"/>
       <c r="X42" s="26"/>
-      <c r="Y42" t="s" s="141">
+      <c r="Y42" t="s" s="142">
         <v>1</v>
       </c>
       <c r="Z42" s="26"/>
       <c r="AA42" s="26"/>
       <c r="AB42" s="26"/>
       <c r="AC42" s="36"/>
-      <c r="AE42" t="s" s="145">
+      <c r="AE42" t="s" s="146">
         <v>39</v>
       </c>
       <c r="AF42" s="26"/>
       <c r="AG42" s="26"/>
-      <c r="AH42" t="s" s="146">
+      <c r="AH42" t="s" s="147">
         <v>1</v>
       </c>
       <c r="AI42" s="26"/>
@@ -3264,7 +3269,7 @@
     </row>
     <row r="44">
       <c r="B44" s="23"/>
-      <c r="C44" t="s" s="129">
+      <c r="C44" t="s" s="130">
         <v>3</v>
       </c>
       <c r="D44" s="27"/>
@@ -3286,7 +3291,7 @@
     </row>
     <row r="45">
       <c r="B45" s="23"/>
-      <c r="C45" t="s" s="130">
+      <c r="C45" t="s" s="131">
         <v>10</v>
       </c>
       <c r="D45" s="27"/>
@@ -3371,7 +3376,7 @@
     </row>
     <row r="48">
       <c r="B48" s="23"/>
-      <c r="C48" t="s" s="132">
+      <c r="C48" t="s" s="133">
         <v>14</v>
       </c>
       <c r="D48" s="27"/>
@@ -3396,7 +3401,7 @@
     </row>
     <row r="49">
       <c r="B49" s="23"/>
-      <c r="C49" t="s" s="133">
+      <c r="C49" t="s" s="134">
         <v>53</v>
       </c>
       <c r="D49" s="27"/>
@@ -3418,7 +3423,7 @@
     </row>
     <row r="50">
       <c r="B50" s="23"/>
-      <c r="C50" t="s" s="134">
+      <c r="C50" t="s" s="135">
         <v>15</v>
       </c>
       <c r="D50" s="27"/>
